--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Customer_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Customer_Management_System.xlsx
@@ -1,43 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE85E35-646E-4637-99CC-CDF1CAA79F14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A674EF-2EEF-4A85-95E5-D265FEE9C0C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2490" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="14" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="25" r:id="rId3"/>
-    <sheet name="はじめに" sheetId="26" r:id="rId4"/>
-    <sheet name="1. ドメイン定義" sheetId="13" r:id="rId5"/>
-    <sheet name="2.1. Nablarch標準提供バリデーション" sheetId="19" r:id="rId6"/>
-    <sheet name="2.2. 本システム固有のバリデーション" sheetId="21" r:id="rId7"/>
-    <sheet name="データ" sheetId="23" r:id="rId8"/>
+    <sheet name="Contents" sheetId="25" r:id="rId3"/>
+    <sheet name="Purpose" sheetId="26" r:id="rId4"/>
+    <sheet name="1. Domain definition" sheetId="13" r:id="rId5"/>
+    <sheet name="2.1. Nablarch standard" sheetId="19" r:id="rId6"/>
+    <sheet name="2.2. System specific-validation" sheetId="21" r:id="rId7"/>
+    <sheet name="Data" sheetId="23" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'1. ドメイン定義'!$A$1:$AI$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch標準提供バリデーション'!$A$1:$AI$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'2.2. 本システム固有のバリデーション'!$A$1:$AI$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">データ!$A$1:$A$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'1. Domain definition'!$A$1:$AI$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch standard'!$A$1:$AI$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2.2. System specific-validation'!$A$1:$AI$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Data!$A$1:$A$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1. ドメイン定義'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2.1. Nablarch標準提供バリデーション'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'2.2. 本システム固有のバリデーション'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">はじめに!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1. Domain definition'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2.1. Nablarch standard'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'2.2. System specific-validation'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Purpose!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="データ型">データ!$A$2:$A$21</definedName>
+    <definedName name="データ型">Data!$A$2:$A$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="202">
   <si>
     <t>PJ名</t>
   </si>
@@ -420,9 +422,6 @@
     <t>industry_code</t>
   </si>
   <si>
-    <t>(1) Purpose of domain definition</t>
-  </si>
-  <si>
     <t>The purpose of domain definition is to suppress the locally optimized item design for each table by designing a data model (domain) across the target system.</t>
   </si>
   <si>
@@ -637,9 +636,6 @@
   </si>
   <si>
     <t>[5] Import the design document to the domain class generation tool, and generate the domain class.</t>
-  </si>
-  <si>
-    <t>Contents</t>
   </si>
   <si>
     <t>[3] Describe "2.2 System-specific validation", and define a project-specific validation to scrutinize the value of the domain defined in procedure (1).</t>
@@ -647,6 +643,26 @@
   </si>
   <si>
     <t>Required</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(1) Purpose of domain definition</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1. Domain definition</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.1. Nablarch standard validation</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.2. System specific-validation</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1972,15 +1988,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2020,15 +2165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2038,135 +2174,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2203,50 +2264,35 @@
     <xf numFmtId="0" fontId="38" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2275,15 +2321,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2311,71 +2348,164 @@
     <xf numFmtId="0" fontId="38" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2400,155 +2530,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2573,6 +2571,24 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2671,8 +2687,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7896225" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7943850" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -9086,57 +9102,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="140" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="175" t="s">
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="125" t="s">
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="130" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="141">
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="133">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="143"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="135"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -9144,53 +9160,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="140" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="125" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="184" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="141" t="str">
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="186"/>
+      <c r="AG2" s="133" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="143"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="135"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -9198,43 +9214,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="143"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="135"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -9373,52 +9389,52 @@
       <c r="A7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="147" t="s">
+      <c r="C7" s="155"/>
+      <c r="D7" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="147" t="s">
+      <c r="E7" s="156"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="149"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="147" t="s">
+      <c r="H7" s="156"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="147" t="s">
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="148"/>
-      <c r="AF7" s="147" t="s">
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="156"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="155"/>
+      <c r="AF7" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="148"/>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="155"/>
       <c r="AJ7" s="29"/>
       <c r="AK7" s="29"/>
       <c r="AL7" s="29"/>
@@ -9429,52 +9445,52 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152">
+      <c r="C8" s="158"/>
+      <c r="D8" s="159">
         <v>43718</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="150" t="s">
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="159" t="s">
+      <c r="H8" s="162"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="160" t="s">
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="161"/>
-      <c r="S8" s="161"/>
-      <c r="T8" s="161"/>
-      <c r="U8" s="161"/>
-      <c r="V8" s="161"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="161"/>
-      <c r="AB8" s="161"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="162"/>
-      <c r="AF8" s="156" t="s">
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="168"/>
+      <c r="W8" s="168"/>
+      <c r="X8" s="168"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="168"/>
+      <c r="AA8" s="168"/>
+      <c r="AB8" s="168"/>
+      <c r="AC8" s="168"/>
+      <c r="AD8" s="168"/>
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="AG8" s="157"/>
-      <c r="AH8" s="157"/>
-      <c r="AI8" s="158"/>
+      <c r="AG8" s="164"/>
+      <c r="AH8" s="164"/>
+      <c r="AI8" s="165"/>
       <c r="AJ8" s="29"/>
       <c r="AK8" s="29"/>
       <c r="AL8" s="29"/>
@@ -9483,40 +9499,40 @@
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="174"/>
-      <c r="AF9" s="169"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="170"/>
-      <c r="AI9" s="171"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="127"/>
       <c r="AJ9" s="29"/>
       <c r="AK9" s="29"/>
       <c r="AL9" s="29"/>
@@ -9525,40 +9541,40 @@
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="173"/>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="174"/>
-      <c r="AF10" s="169"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="170"/>
-      <c r="AI10" s="171"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="127"/>
       <c r="AJ10" s="29"/>
       <c r="AK10" s="29"/>
       <c r="AL10" s="29"/>
@@ -9567,40 +9583,40 @@
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="174"/>
-      <c r="AF11" s="169"/>
-      <c r="AG11" s="170"/>
-      <c r="AH11" s="170"/>
-      <c r="AI11" s="171"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="127"/>
       <c r="AJ11" s="29"/>
       <c r="AK11" s="29"/>
       <c r="AL11" s="29"/>
@@ -9609,40 +9625,40 @@
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="173"/>
-      <c r="S12" s="173"/>
-      <c r="T12" s="173"/>
-      <c r="U12" s="173"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="174"/>
-      <c r="AF12" s="169"/>
-      <c r="AG12" s="170"/>
-      <c r="AH12" s="170"/>
-      <c r="AI12" s="171"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="127"/>
       <c r="AJ12" s="29"/>
       <c r="AK12" s="29"/>
       <c r="AL12" s="29"/>
@@ -9651,40 +9667,40 @@
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="174"/>
-      <c r="AF13" s="169"/>
-      <c r="AG13" s="170"/>
-      <c r="AH13" s="170"/>
-      <c r="AI13" s="171"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="127"/>
       <c r="AJ13" s="29"/>
       <c r="AK13" s="29"/>
       <c r="AL13" s="29"/>
@@ -9693,40 +9709,40 @@
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="172"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="173"/>
-      <c r="Z14" s="173"/>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="173"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="174"/>
-      <c r="AF14" s="169"/>
-      <c r="AG14" s="170"/>
-      <c r="AH14" s="170"/>
-      <c r="AI14" s="171"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="127"/>
       <c r="AJ14" s="29"/>
       <c r="AK14" s="29"/>
       <c r="AL14" s="29"/>
@@ -9735,40 +9751,40 @@
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="172"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="174"/>
-      <c r="AF15" s="169"/>
-      <c r="AG15" s="170"/>
-      <c r="AH15" s="170"/>
-      <c r="AI15" s="171"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="126"/>
+      <c r="AI15" s="127"/>
       <c r="AJ15" s="29"/>
       <c r="AK15" s="29"/>
       <c r="AL15" s="29"/>
@@ -9777,40 +9793,40 @@
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="174"/>
-      <c r="AF16" s="169"/>
-      <c r="AG16" s="170"/>
-      <c r="AH16" s="170"/>
-      <c r="AI16" s="171"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="127"/>
       <c r="AJ16" s="29"/>
       <c r="AK16" s="29"/>
       <c r="AL16" s="29"/>
@@ -9819,40 +9835,40 @@
     </row>
     <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="173"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="174"/>
-      <c r="AF17" s="169"/>
-      <c r="AG17" s="170"/>
-      <c r="AH17" s="170"/>
-      <c r="AI17" s="171"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="126"/>
+      <c r="AI17" s="127"/>
       <c r="AJ17" s="29"/>
       <c r="AK17" s="29"/>
       <c r="AL17" s="29"/>
@@ -9861,40 +9877,40 @@
     </row>
     <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="174"/>
-      <c r="AF18" s="169"/>
-      <c r="AG18" s="170"/>
-      <c r="AH18" s="170"/>
-      <c r="AI18" s="171"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="126"/>
+      <c r="AI18" s="127"/>
       <c r="AJ18" s="29"/>
       <c r="AK18" s="29"/>
       <c r="AL18" s="29"/>
@@ -9903,40 +9919,40 @@
     </row>
     <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="171"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="173"/>
-      <c r="S19" s="173"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="173"/>
-      <c r="V19" s="173"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="174"/>
-      <c r="AF19" s="169"/>
-      <c r="AG19" s="170"/>
-      <c r="AH19" s="170"/>
-      <c r="AI19" s="171"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="126"/>
+      <c r="AI19" s="127"/>
       <c r="AJ19" s="29"/>
       <c r="AK19" s="29"/>
       <c r="AL19" s="29"/>
@@ -9945,40 +9961,40 @@
     </row>
     <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="171"/>
-      <c r="Q20" s="172"/>
-      <c r="R20" s="173"/>
-      <c r="S20" s="173"/>
-      <c r="T20" s="173"/>
-      <c r="U20" s="173"/>
-      <c r="V20" s="173"/>
-      <c r="W20" s="173"/>
-      <c r="X20" s="173"/>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="173"/>
-      <c r="AA20" s="173"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
-      <c r="AE20" s="174"/>
-      <c r="AF20" s="169"/>
-      <c r="AG20" s="170"/>
-      <c r="AH20" s="170"/>
-      <c r="AI20" s="171"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="126"/>
+      <c r="AH20" s="126"/>
+      <c r="AI20" s="127"/>
       <c r="AJ20" s="29"/>
       <c r="AK20" s="29"/>
       <c r="AL20" s="29"/>
@@ -9987,40 +10003,40 @@
     </row>
     <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="171"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="173"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="173"/>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="174"/>
-      <c r="AF21" s="169"/>
-      <c r="AG21" s="170"/>
-      <c r="AH21" s="170"/>
-      <c r="AI21" s="171"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="125"/>
+      <c r="AG21" s="126"/>
+      <c r="AH21" s="126"/>
+      <c r="AI21" s="127"/>
       <c r="AJ21" s="29"/>
       <c r="AK21" s="29"/>
       <c r="AL21" s="29"/>
@@ -10029,40 +10045,40 @@
     </row>
     <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="172"/>
-      <c r="R22" s="173"/>
-      <c r="S22" s="173"/>
-      <c r="T22" s="173"/>
-      <c r="U22" s="173"/>
-      <c r="V22" s="173"/>
-      <c r="W22" s="173"/>
-      <c r="X22" s="173"/>
-      <c r="Y22" s="173"/>
-      <c r="Z22" s="173"/>
-      <c r="AA22" s="173"/>
-      <c r="AB22" s="173"/>
-      <c r="AC22" s="173"/>
-      <c r="AD22" s="173"/>
-      <c r="AE22" s="174"/>
-      <c r="AF22" s="169"/>
-      <c r="AG22" s="170"/>
-      <c r="AH22" s="170"/>
-      <c r="AI22" s="171"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="126"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="127"/>
       <c r="AJ22" s="29"/>
       <c r="AK22" s="29"/>
       <c r="AL22" s="29"/>
@@ -10071,40 +10087,40 @@
     </row>
     <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="171"/>
-      <c r="Q23" s="172"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="174"/>
-      <c r="AF23" s="169"/>
-      <c r="AG23" s="170"/>
-      <c r="AH23" s="170"/>
-      <c r="AI23" s="171"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="125"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="126"/>
+      <c r="AI23" s="127"/>
       <c r="AJ23" s="29"/>
       <c r="AK23" s="29"/>
       <c r="AL23" s="29"/>
@@ -10113,40 +10129,40 @@
     </row>
     <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="173"/>
-      <c r="V24" s="173"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="173"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="173"/>
-      <c r="AD24" s="173"/>
-      <c r="AE24" s="174"/>
-      <c r="AF24" s="169"/>
-      <c r="AG24" s="170"/>
-      <c r="AH24" s="170"/>
-      <c r="AI24" s="171"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="126"/>
+      <c r="AI24" s="127"/>
       <c r="AJ24" s="29"/>
       <c r="AK24" s="29"/>
       <c r="AL24" s="29"/>
@@ -10155,40 +10171,40 @@
     </row>
     <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="171"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="173"/>
-      <c r="S25" s="173"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="173"/>
-      <c r="V25" s="173"/>
-      <c r="W25" s="173"/>
-      <c r="X25" s="173"/>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="173"/>
-      <c r="AC25" s="173"/>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="174"/>
-      <c r="AF25" s="169"/>
-      <c r="AG25" s="170"/>
-      <c r="AH25" s="170"/>
-      <c r="AI25" s="171"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="125"/>
+      <c r="AG25" s="126"/>
+      <c r="AH25" s="126"/>
+      <c r="AI25" s="127"/>
       <c r="AJ25" s="29"/>
       <c r="AK25" s="29"/>
       <c r="AL25" s="29"/>
@@ -10197,40 +10213,40 @@
     </row>
     <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="171"/>
-      <c r="Q26" s="172"/>
-      <c r="R26" s="173"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="173"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="173"/>
-      <c r="W26" s="173"/>
-      <c r="X26" s="173"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-      <c r="AC26" s="173"/>
-      <c r="AD26" s="173"/>
-      <c r="AE26" s="174"/>
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="170"/>
-      <c r="AH26" s="170"/>
-      <c r="AI26" s="171"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="127"/>
       <c r="AJ26" s="29"/>
       <c r="AK26" s="29"/>
       <c r="AL26" s="29"/>
@@ -10239,40 +10255,40 @@
     </row>
     <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="171"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="173"/>
-      <c r="S27" s="173"/>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="173"/>
-      <c r="Y27" s="173"/>
-      <c r="Z27" s="173"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-      <c r="AC27" s="173"/>
-      <c r="AD27" s="173"/>
-      <c r="AE27" s="174"/>
-      <c r="AF27" s="169"/>
-      <c r="AG27" s="170"/>
-      <c r="AH27" s="170"/>
-      <c r="AI27" s="171"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="126"/>
+      <c r="AH27" s="126"/>
+      <c r="AI27" s="127"/>
       <c r="AJ27" s="29"/>
       <c r="AK27" s="29"/>
       <c r="AL27" s="29"/>
@@ -10281,40 +10297,40 @@
     </row>
     <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="172"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="174"/>
-      <c r="AF28" s="169"/>
-      <c r="AG28" s="170"/>
-      <c r="AH28" s="170"/>
-      <c r="AI28" s="171"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="127"/>
       <c r="AJ28" s="29"/>
       <c r="AK28" s="29"/>
       <c r="AL28" s="29"/>
@@ -10323,40 +10339,40 @@
     </row>
     <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="173"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="174"/>
-      <c r="AF29" s="169"/>
-      <c r="AG29" s="170"/>
-      <c r="AH29" s="170"/>
-      <c r="AI29" s="171"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="127"/>
       <c r="AJ29" s="29"/>
       <c r="AK29" s="29"/>
       <c r="AL29" s="29"/>
@@ -10365,40 +10381,40 @@
     </row>
     <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="172"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="173"/>
-      <c r="V30" s="173"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="174"/>
-      <c r="AF30" s="169"/>
-      <c r="AG30" s="170"/>
-      <c r="AH30" s="170"/>
-      <c r="AI30" s="171"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="125"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="126"/>
+      <c r="AI30" s="127"/>
       <c r="AJ30" s="29"/>
       <c r="AK30" s="29"/>
       <c r="AL30" s="29"/>
@@ -10407,40 +10423,40 @@
     </row>
     <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="173"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="173"/>
-      <c r="W31" s="173"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="174"/>
-      <c r="AF31" s="169"/>
-      <c r="AG31" s="170"/>
-      <c r="AH31" s="170"/>
-      <c r="AI31" s="171"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="125"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="126"/>
+      <c r="AI31" s="127"/>
       <c r="AJ31" s="29"/>
       <c r="AK31" s="29"/>
       <c r="AL31" s="29"/>
@@ -10449,40 +10465,40 @@
     </row>
     <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="172"/>
-      <c r="R32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="173"/>
-      <c r="V32" s="173"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="173"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="173"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="174"/>
-      <c r="AF32" s="169"/>
-      <c r="AG32" s="170"/>
-      <c r="AH32" s="170"/>
-      <c r="AI32" s="171"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="125"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="127"/>
       <c r="AJ32" s="29"/>
       <c r="AK32" s="29"/>
       <c r="AL32" s="29"/>
@@ -10491,40 +10507,40 @@
     </row>
     <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="173"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="173"/>
-      <c r="U33" s="173"/>
-      <c r="V33" s="173"/>
-      <c r="W33" s="173"/>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="173"/>
-      <c r="Z33" s="173"/>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="174"/>
-      <c r="AF33" s="169"/>
-      <c r="AG33" s="170"/>
-      <c r="AH33" s="170"/>
-      <c r="AI33" s="171"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="126"/>
+      <c r="AH33" s="126"/>
+      <c r="AI33" s="127"/>
       <c r="AJ33" s="29"/>
       <c r="AK33" s="29"/>
       <c r="AL33" s="29"/>
@@ -10617,6 +10633,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10641,161 +10812,6 @@
     <mergeCell ref="Q13:AE13"/>
     <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -10949,157 +10965,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="193" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="208" t="str">
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="187" t="s">
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="205">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="187" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="200"/>
-      <c r="Q3" s="200"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="4" spans="1:35" s="79" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77"/>
@@ -11156,7 +11172,7 @@
       <c r="O5" s="77"/>
       <c r="P5" s="77"/>
       <c r="Q5" s="80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R5" s="77"/>
       <c r="S5" s="77"/>
@@ -12399,12 +12415,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12416,6 +12426,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12443,690 +12459,690 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="229" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="208" t="str">
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="226" t="s">
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="205">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="234"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="226" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="228"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="228"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="223"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C8" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C13" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D17" s="221" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D17" s="241" t="s">
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="221" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="241" t="s">
+      <c r="L17" s="221"/>
+      <c r="M17" s="221"/>
+      <c r="N17" s="221"/>
+      <c r="O17" s="221"/>
+      <c r="P17" s="221"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="221"/>
+      <c r="S17" s="221"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="221"/>
+      <c r="AC17" s="221"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="221"/>
+      <c r="AF17" s="221"/>
+      <c r="AG17" s="221"/>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D18" s="219" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="241"/>
-      <c r="M17" s="241"/>
-      <c r="N17" s="241"/>
-      <c r="O17" s="241"/>
-      <c r="P17" s="241"/>
-      <c r="Q17" s="241"/>
-      <c r="R17" s="241"/>
-      <c r="S17" s="241"/>
-      <c r="T17" s="241"/>
-      <c r="U17" s="241"/>
-      <c r="V17" s="241"/>
-      <c r="W17" s="241"/>
-      <c r="X17" s="241"/>
-      <c r="Y17" s="241"/>
-      <c r="Z17" s="241"/>
-      <c r="AA17" s="241"/>
-      <c r="AB17" s="241"/>
-      <c r="AC17" s="241"/>
-      <c r="AD17" s="241"/>
-      <c r="AE17" s="241"/>
-      <c r="AF17" s="241"/>
-      <c r="AG17" s="241"/>
-    </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D18" s="238" t="s">
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="219" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="238"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="238"/>
-      <c r="I18" s="238"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="238" t="s">
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
+      <c r="P18" s="219"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="219"/>
+      <c r="S18" s="219"/>
+      <c r="T18" s="219"/>
+      <c r="U18" s="219"/>
+      <c r="V18" s="219"/>
+      <c r="W18" s="219"/>
+      <c r="X18" s="219"/>
+      <c r="Y18" s="219"/>
+      <c r="Z18" s="219"/>
+      <c r="AA18" s="219"/>
+      <c r="AB18" s="219"/>
+      <c r="AC18" s="219"/>
+      <c r="AD18" s="219"/>
+      <c r="AE18" s="219"/>
+      <c r="AF18" s="219"/>
+      <c r="AG18" s="219"/>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D19" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="238"/>
-      <c r="M18" s="238"/>
-      <c r="N18" s="238"/>
-      <c r="O18" s="238"/>
-      <c r="P18" s="238"/>
-      <c r="Q18" s="238"/>
-      <c r="R18" s="238"/>
-      <c r="S18" s="238"/>
-      <c r="T18" s="238"/>
-      <c r="U18" s="238"/>
-      <c r="V18" s="238"/>
-      <c r="W18" s="238"/>
-      <c r="X18" s="238"/>
-      <c r="Y18" s="238"/>
-      <c r="Z18" s="238"/>
-      <c r="AA18" s="238"/>
-      <c r="AB18" s="238"/>
-      <c r="AC18" s="238"/>
-      <c r="AD18" s="238"/>
-      <c r="AE18" s="238"/>
-      <c r="AF18" s="238"/>
-      <c r="AG18" s="238"/>
-    </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D19" s="224" t="s">
+      <c r="E19" s="234"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="234"/>
+      <c r="K19" s="235" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="225" t="s">
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="234"/>
+      <c r="O19" s="234"/>
+      <c r="P19" s="234"/>
+      <c r="Q19" s="234"/>
+      <c r="R19" s="234"/>
+      <c r="S19" s="234"/>
+      <c r="T19" s="234"/>
+      <c r="U19" s="234"/>
+      <c r="V19" s="234"/>
+      <c r="W19" s="234"/>
+      <c r="X19" s="234"/>
+      <c r="Y19" s="234"/>
+      <c r="Z19" s="234"/>
+      <c r="AA19" s="234"/>
+      <c r="AB19" s="234"/>
+      <c r="AC19" s="234"/>
+      <c r="AD19" s="234"/>
+      <c r="AE19" s="234"/>
+      <c r="AF19" s="234"/>
+      <c r="AG19" s="234"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="225" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="224"/>
-      <c r="X19" s="224"/>
-      <c r="Y19" s="224"/>
-      <c r="Z19" s="224"/>
-      <c r="AA19" s="224"/>
-      <c r="AB19" s="224"/>
-      <c r="AC19" s="224"/>
-      <c r="AD19" s="224"/>
-      <c r="AE19" s="224"/>
-      <c r="AF19" s="224"/>
-      <c r="AG19" s="224"/>
-    </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D20" s="239"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="239"/>
-      <c r="G20" s="239"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="239"/>
-      <c r="J20" s="239"/>
-      <c r="K20" s="240" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="239"/>
-      <c r="M20" s="239"/>
-      <c r="N20" s="239"/>
-      <c r="O20" s="239"/>
-      <c r="P20" s="239"/>
-      <c r="Q20" s="239"/>
-      <c r="R20" s="239"/>
-      <c r="S20" s="239"/>
-      <c r="T20" s="239"/>
-      <c r="U20" s="239"/>
-      <c r="V20" s="239"/>
-      <c r="W20" s="239"/>
-      <c r="X20" s="239"/>
-      <c r="Y20" s="239"/>
-      <c r="Z20" s="239"/>
-      <c r="AA20" s="239"/>
-      <c r="AB20" s="239"/>
-      <c r="AC20" s="239"/>
-      <c r="AD20" s="239"/>
-      <c r="AE20" s="239"/>
-      <c r="AF20" s="239"/>
-      <c r="AG20" s="239"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="224"/>
+      <c r="P20" s="224"/>
+      <c r="Q20" s="224"/>
+      <c r="R20" s="224"/>
+      <c r="S20" s="224"/>
+      <c r="T20" s="224"/>
+      <c r="U20" s="224"/>
+      <c r="V20" s="224"/>
+      <c r="W20" s="224"/>
+      <c r="X20" s="224"/>
+      <c r="Y20" s="224"/>
+      <c r="Z20" s="224"/>
+      <c r="AA20" s="224"/>
+      <c r="AB20" s="224"/>
+      <c r="AC20" s="224"/>
+      <c r="AD20" s="224"/>
+      <c r="AE20" s="224"/>
+      <c r="AF20" s="224"/>
+      <c r="AG20" s="224"/>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D24" s="221" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="221"/>
+      <c r="M24" s="221"/>
+      <c r="N24" s="221"/>
+      <c r="O24" s="221"/>
+      <c r="P24" s="221"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="221"/>
+      <c r="S24" s="221"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="221"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="221"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="221"/>
+      <c r="AE24" s="221"/>
+      <c r="AF24" s="221"/>
+      <c r="AG24" s="221"/>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D25" s="219" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D24" s="241" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="241" t="s">
-        <v>129</v>
-      </c>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241"/>
-      <c r="N24" s="241"/>
-      <c r="O24" s="241"/>
-      <c r="P24" s="241"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="241"/>
-      <c r="T24" s="241"/>
-      <c r="U24" s="241"/>
-      <c r="V24" s="241"/>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="241"/>
-      <c r="Z24" s="241"/>
-      <c r="AA24" s="241"/>
-      <c r="AB24" s="241"/>
-      <c r="AC24" s="241"/>
-      <c r="AD24" s="241"/>
-      <c r="AE24" s="241"/>
-      <c r="AF24" s="241"/>
-      <c r="AG24" s="241"/>
-    </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D25" s="238" t="s">
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="238"/>
-      <c r="F25" s="238"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="238" t="s">
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="219"/>
+      <c r="R25" s="219"/>
+      <c r="S25" s="219"/>
+      <c r="T25" s="219"/>
+      <c r="U25" s="219"/>
+      <c r="V25" s="219"/>
+      <c r="W25" s="219"/>
+      <c r="X25" s="219"/>
+      <c r="Y25" s="219"/>
+      <c r="Z25" s="219"/>
+      <c r="AA25" s="219"/>
+      <c r="AB25" s="219"/>
+      <c r="AC25" s="219"/>
+      <c r="AD25" s="219"/>
+      <c r="AE25" s="219"/>
+      <c r="AF25" s="219"/>
+      <c r="AG25" s="219"/>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D26" s="219" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="238"/>
-      <c r="M25" s="238"/>
-      <c r="N25" s="238"/>
-      <c r="O25" s="238"/>
-      <c r="P25" s="238"/>
-      <c r="Q25" s="238"/>
-      <c r="R25" s="238"/>
-      <c r="S25" s="238"/>
-      <c r="T25" s="238"/>
-      <c r="U25" s="238"/>
-      <c r="V25" s="238"/>
-      <c r="W25" s="238"/>
-      <c r="X25" s="238"/>
-      <c r="Y25" s="238"/>
-      <c r="Z25" s="238"/>
-      <c r="AA25" s="238"/>
-      <c r="AB25" s="238"/>
-      <c r="AC25" s="238"/>
-      <c r="AD25" s="238"/>
-      <c r="AE25" s="238"/>
-      <c r="AF25" s="238"/>
-      <c r="AG25" s="238"/>
-    </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D26" s="238" t="s">
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="238"/>
-      <c r="F26" s="238"/>
-      <c r="G26" s="238"/>
-      <c r="H26" s="238"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="238" t="s">
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="219"/>
+      <c r="S26" s="219"/>
+      <c r="T26" s="219"/>
+      <c r="U26" s="219"/>
+      <c r="V26" s="219"/>
+      <c r="W26" s="219"/>
+      <c r="X26" s="219"/>
+      <c r="Y26" s="219"/>
+      <c r="Z26" s="219"/>
+      <c r="AA26" s="219"/>
+      <c r="AB26" s="219"/>
+      <c r="AC26" s="219"/>
+      <c r="AD26" s="219"/>
+      <c r="AE26" s="219"/>
+      <c r="AF26" s="219"/>
+      <c r="AG26" s="219"/>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D27" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="L26" s="238"/>
-      <c r="M26" s="238"/>
-      <c r="N26" s="238"/>
-      <c r="O26" s="238"/>
-      <c r="P26" s="238"/>
-      <c r="Q26" s="238"/>
-      <c r="R26" s="238"/>
-      <c r="S26" s="238"/>
-      <c r="T26" s="238"/>
-      <c r="U26" s="238"/>
-      <c r="V26" s="238"/>
-      <c r="W26" s="238"/>
-      <c r="X26" s="238"/>
-      <c r="Y26" s="238"/>
-      <c r="Z26" s="238"/>
-      <c r="AA26" s="238"/>
-      <c r="AB26" s="238"/>
-      <c r="AC26" s="238"/>
-      <c r="AD26" s="238"/>
-      <c r="AE26" s="238"/>
-      <c r="AF26" s="238"/>
-      <c r="AG26" s="238"/>
-    </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D27" s="238" t="s">
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="219" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="238"/>
-      <c r="F27" s="238"/>
-      <c r="G27" s="238"/>
-      <c r="H27" s="238"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="238" t="s">
-        <v>141</v>
-      </c>
-      <c r="L27" s="238"/>
-      <c r="M27" s="238"/>
-      <c r="N27" s="238"/>
-      <c r="O27" s="238"/>
-      <c r="P27" s="238"/>
-      <c r="Q27" s="238"/>
-      <c r="R27" s="238"/>
-      <c r="S27" s="238"/>
-      <c r="T27" s="238"/>
-      <c r="U27" s="238"/>
-      <c r="V27" s="238"/>
-      <c r="W27" s="238"/>
-      <c r="X27" s="238"/>
-      <c r="Y27" s="238"/>
-      <c r="Z27" s="238"/>
-      <c r="AA27" s="238"/>
-      <c r="AB27" s="238"/>
-      <c r="AC27" s="238"/>
-      <c r="AD27" s="238"/>
-      <c r="AE27" s="238"/>
-      <c r="AF27" s="238"/>
-      <c r="AG27" s="238"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="219"/>
+      <c r="Q27" s="219"/>
+      <c r="R27" s="219"/>
+      <c r="S27" s="219"/>
+      <c r="T27" s="219"/>
+      <c r="U27" s="219"/>
+      <c r="V27" s="219"/>
+      <c r="W27" s="219"/>
+      <c r="X27" s="219"/>
+      <c r="Y27" s="219"/>
+      <c r="Z27" s="219"/>
+      <c r="AA27" s="219"/>
+      <c r="AB27" s="219"/>
+      <c r="AC27" s="219"/>
+      <c r="AD27" s="219"/>
+      <c r="AE27" s="219"/>
+      <c r="AF27" s="219"/>
+      <c r="AG27" s="219"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D31" s="221" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="221" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="221"/>
+      <c r="M31" s="221"/>
+      <c r="N31" s="221"/>
+      <c r="O31" s="221"/>
+      <c r="P31" s="221"/>
+      <c r="Q31" s="221"/>
+      <c r="R31" s="221"/>
+      <c r="S31" s="221"/>
+      <c r="T31" s="221"/>
+      <c r="U31" s="221"/>
+      <c r="V31" s="221"/>
+      <c r="W31" s="221"/>
+      <c r="X31" s="221"/>
+      <c r="Y31" s="221"/>
+      <c r="Z31" s="221"/>
+      <c r="AA31" s="221"/>
+      <c r="AB31" s="221"/>
+      <c r="AC31" s="221"/>
+      <c r="AD31" s="221"/>
+      <c r="AE31" s="221"/>
+      <c r="AF31" s="221"/>
+      <c r="AG31" s="221"/>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D32" s="218" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D31" s="241" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="241" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" s="241"/>
-      <c r="M31" s="241"/>
-      <c r="N31" s="241"/>
-      <c r="O31" s="241"/>
-      <c r="P31" s="241"/>
-      <c r="Q31" s="241"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="241"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="241"/>
-      <c r="AC31" s="241"/>
-      <c r="AD31" s="241"/>
-      <c r="AE31" s="241"/>
-      <c r="AF31" s="241"/>
-      <c r="AG31" s="241"/>
-    </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D32" s="242" t="s">
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="218" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="242"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="242"/>
-      <c r="K32" s="242" t="s">
+      <c r="L32" s="218"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="218"/>
+      <c r="P32" s="218"/>
+      <c r="Q32" s="218"/>
+      <c r="R32" s="218"/>
+      <c r="S32" s="218"/>
+      <c r="T32" s="218"/>
+      <c r="U32" s="218"/>
+      <c r="V32" s="218"/>
+      <c r="W32" s="218"/>
+      <c r="X32" s="218"/>
+      <c r="Y32" s="218"/>
+      <c r="Z32" s="218"/>
+      <c r="AA32" s="218"/>
+      <c r="AB32" s="218"/>
+      <c r="AC32" s="218"/>
+      <c r="AD32" s="218"/>
+      <c r="AE32" s="218"/>
+      <c r="AF32" s="218"/>
+      <c r="AG32" s="218"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="217" t="s">
         <v>144</v>
       </c>
-      <c r="L32" s="242"/>
-      <c r="M32" s="242"/>
-      <c r="N32" s="242"/>
-      <c r="O32" s="242"/>
-      <c r="P32" s="242"/>
-      <c r="Q32" s="242"/>
-      <c r="R32" s="242"/>
-      <c r="S32" s="242"/>
-      <c r="T32" s="242"/>
-      <c r="U32" s="242"/>
-      <c r="V32" s="242"/>
-      <c r="W32" s="242"/>
-      <c r="X32" s="242"/>
-      <c r="Y32" s="242"/>
-      <c r="Z32" s="242"/>
-      <c r="AA32" s="242"/>
-      <c r="AB32" s="242"/>
-      <c r="AC32" s="242"/>
-      <c r="AD32" s="242"/>
-      <c r="AE32" s="242"/>
-      <c r="AF32" s="242"/>
-      <c r="AG32" s="242"/>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="243"/>
-      <c r="J33" s="243"/>
-      <c r="K33" s="243" t="s">
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="217"/>
+      <c r="P33" s="217"/>
+      <c r="Q33" s="217"/>
+      <c r="R33" s="217"/>
+      <c r="S33" s="217"/>
+      <c r="T33" s="217"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="217"/>
+      <c r="W33" s="217"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="217"/>
+      <c r="AA33" s="217"/>
+      <c r="AB33" s="217"/>
+      <c r="AC33" s="217"/>
+      <c r="AD33" s="217"/>
+      <c r="AE33" s="217"/>
+      <c r="AF33" s="217"/>
+      <c r="AG33" s="217"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="D34" s="218" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="243"/>
-      <c r="M33" s="243"/>
-      <c r="N33" s="243"/>
-      <c r="O33" s="243"/>
-      <c r="P33" s="243"/>
-      <c r="Q33" s="243"/>
-      <c r="R33" s="243"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="243"/>
-      <c r="U33" s="243"/>
-      <c r="V33" s="243"/>
-      <c r="W33" s="243"/>
-      <c r="X33" s="243"/>
-      <c r="Y33" s="243"/>
-      <c r="Z33" s="243"/>
-      <c r="AA33" s="243"/>
-      <c r="AB33" s="243"/>
-      <c r="AC33" s="243"/>
-      <c r="AD33" s="243"/>
-      <c r="AE33" s="243"/>
-      <c r="AF33" s="243"/>
-      <c r="AG33" s="243"/>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D34" s="242" t="s">
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
+      <c r="K34" s="218" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="242"/>
-      <c r="F34" s="242"/>
-      <c r="G34" s="242"/>
-      <c r="H34" s="242"/>
-      <c r="I34" s="242"/>
-      <c r="J34" s="242"/>
-      <c r="K34" s="242" t="s">
+      <c r="L34" s="218"/>
+      <c r="M34" s="218"/>
+      <c r="N34" s="218"/>
+      <c r="O34" s="218"/>
+      <c r="P34" s="218"/>
+      <c r="Q34" s="218"/>
+      <c r="R34" s="218"/>
+      <c r="S34" s="218"/>
+      <c r="T34" s="218"/>
+      <c r="U34" s="218"/>
+      <c r="V34" s="218"/>
+      <c r="W34" s="218"/>
+      <c r="X34" s="218"/>
+      <c r="Y34" s="218"/>
+      <c r="Z34" s="218"/>
+      <c r="AA34" s="218"/>
+      <c r="AB34" s="218"/>
+      <c r="AC34" s="218"/>
+      <c r="AD34" s="218"/>
+      <c r="AE34" s="218"/>
+      <c r="AF34" s="218"/>
+      <c r="AG34" s="218"/>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="217"/>
+      <c r="J35" s="217"/>
+      <c r="K35" s="217" t="s">
         <v>147</v>
       </c>
-      <c r="L34" s="242"/>
-      <c r="M34" s="242"/>
-      <c r="N34" s="242"/>
-      <c r="O34" s="242"/>
-      <c r="P34" s="242"/>
-      <c r="Q34" s="242"/>
-      <c r="R34" s="242"/>
-      <c r="S34" s="242"/>
-      <c r="T34" s="242"/>
-      <c r="U34" s="242"/>
-      <c r="V34" s="242"/>
-      <c r="W34" s="242"/>
-      <c r="X34" s="242"/>
-      <c r="Y34" s="242"/>
-      <c r="Z34" s="242"/>
-      <c r="AA34" s="242"/>
-      <c r="AB34" s="242"/>
-      <c r="AC34" s="242"/>
-      <c r="AD34" s="242"/>
-      <c r="AE34" s="242"/>
-      <c r="AF34" s="242"/>
-      <c r="AG34" s="242"/>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D35" s="243"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="243"/>
-      <c r="I35" s="243"/>
-      <c r="J35" s="243"/>
-      <c r="K35" s="243" t="s">
+      <c r="L35" s="217"/>
+      <c r="M35" s="217"/>
+      <c r="N35" s="217"/>
+      <c r="O35" s="217"/>
+      <c r="P35" s="217"/>
+      <c r="Q35" s="217"/>
+      <c r="R35" s="217"/>
+      <c r="S35" s="217"/>
+      <c r="T35" s="217"/>
+      <c r="U35" s="217"/>
+      <c r="V35" s="217"/>
+      <c r="W35" s="217"/>
+      <c r="X35" s="217"/>
+      <c r="Y35" s="217"/>
+      <c r="Z35" s="217"/>
+      <c r="AA35" s="217"/>
+      <c r="AB35" s="217"/>
+      <c r="AC35" s="217"/>
+      <c r="AD35" s="217"/>
+      <c r="AE35" s="217"/>
+      <c r="AF35" s="217"/>
+      <c r="AG35" s="217"/>
+    </row>
+    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="L35" s="243"/>
-      <c r="M35" s="243"/>
-      <c r="N35" s="243"/>
-      <c r="O35" s="243"/>
-      <c r="P35" s="243"/>
-      <c r="Q35" s="243"/>
-      <c r="R35" s="243"/>
-      <c r="S35" s="243"/>
-      <c r="T35" s="243"/>
-      <c r="U35" s="243"/>
-      <c r="V35" s="243"/>
-      <c r="W35" s="243"/>
-      <c r="X35" s="243"/>
-      <c r="Y35" s="243"/>
-      <c r="Z35" s="243"/>
-      <c r="AA35" s="243"/>
-      <c r="AB35" s="243"/>
-      <c r="AC35" s="243"/>
-      <c r="AD35" s="243"/>
-      <c r="AE35" s="243"/>
-      <c r="AF35" s="243"/>
-      <c r="AG35" s="243"/>
-    </row>
-    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="244" t="s">
+      <c r="E36" s="220"/>
+      <c r="F36" s="220"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="220"/>
+      <c r="K36" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="244"/>
-      <c r="I36" s="244"/>
-      <c r="J36" s="244"/>
-      <c r="K36" s="244" t="s">
-        <v>150</v>
-      </c>
-      <c r="L36" s="244"/>
-      <c r="M36" s="244"/>
-      <c r="N36" s="244"/>
-      <c r="O36" s="244"/>
-      <c r="P36" s="244"/>
-      <c r="Q36" s="244"/>
-      <c r="R36" s="244"/>
-      <c r="S36" s="244"/>
-      <c r="T36" s="244"/>
-      <c r="U36" s="244"/>
-      <c r="V36" s="244"/>
-      <c r="W36" s="244"/>
-      <c r="X36" s="244"/>
-      <c r="Y36" s="244"/>
-      <c r="Z36" s="244"/>
-      <c r="AA36" s="244"/>
-      <c r="AB36" s="244"/>
-      <c r="AC36" s="244"/>
-      <c r="AD36" s="244"/>
-      <c r="AE36" s="244"/>
-      <c r="AF36" s="244"/>
-      <c r="AG36" s="244"/>
+      <c r="L36" s="220"/>
+      <c r="M36" s="220"/>
+      <c r="N36" s="220"/>
+      <c r="O36" s="220"/>
+      <c r="P36" s="220"/>
+      <c r="Q36" s="220"/>
+      <c r="R36" s="220"/>
+      <c r="S36" s="220"/>
+      <c r="T36" s="220"/>
+      <c r="U36" s="220"/>
+      <c r="V36" s="220"/>
+      <c r="W36" s="220"/>
+      <c r="X36" s="220"/>
+      <c r="Y36" s="220"/>
+      <c r="Z36" s="220"/>
+      <c r="AA36" s="220"/>
+      <c r="AB36" s="220"/>
+      <c r="AC36" s="220"/>
+      <c r="AD36" s="220"/>
+      <c r="AE36" s="220"/>
+      <c r="AF36" s="220"/>
+      <c r="AG36" s="220"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D37" s="48"/>
@@ -13162,80 +13178,80 @@
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="D40" s="221" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="221" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="221"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="221"/>
+      <c r="O40" s="221"/>
+      <c r="P40" s="221"/>
+      <c r="Q40" s="221"/>
+      <c r="R40" s="221"/>
+      <c r="S40" s="221"/>
+      <c r="T40" s="221"/>
+      <c r="U40" s="221"/>
+      <c r="V40" s="221"/>
+      <c r="W40" s="221"/>
+      <c r="X40" s="221"/>
+      <c r="Y40" s="221"/>
+      <c r="Z40" s="221"/>
+      <c r="AA40" s="221"/>
+      <c r="AB40" s="221"/>
+      <c r="AC40" s="221"/>
+      <c r="AD40" s="221"/>
+      <c r="AE40" s="221"/>
+      <c r="AF40" s="221"/>
+      <c r="AG40" s="221"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="D41" s="219" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D40" s="241" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="241"/>
-      <c r="F40" s="241"/>
-      <c r="G40" s="241"/>
-      <c r="H40" s="241"/>
-      <c r="I40" s="241"/>
-      <c r="J40" s="241"/>
-      <c r="K40" s="241" t="s">
-        <v>129</v>
-      </c>
-      <c r="L40" s="241"/>
-      <c r="M40" s="241"/>
-      <c r="N40" s="241"/>
-      <c r="O40" s="241"/>
-      <c r="P40" s="241"/>
-      <c r="Q40" s="241"/>
-      <c r="R40" s="241"/>
-      <c r="S40" s="241"/>
-      <c r="T40" s="241"/>
-      <c r="U40" s="241"/>
-      <c r="V40" s="241"/>
-      <c r="W40" s="241"/>
-      <c r="X40" s="241"/>
-      <c r="Y40" s="241"/>
-      <c r="Z40" s="241"/>
-      <c r="AA40" s="241"/>
-      <c r="AB40" s="241"/>
-      <c r="AC40" s="241"/>
-      <c r="AD40" s="241"/>
-      <c r="AE40" s="241"/>
-      <c r="AF40" s="241"/>
-      <c r="AG40" s="241"/>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D41" s="238" t="s">
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
+      <c r="K41" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="E41" s="238"/>
-      <c r="F41" s="238"/>
-      <c r="G41" s="238"/>
-      <c r="H41" s="238"/>
-      <c r="I41" s="238"/>
-      <c r="J41" s="238"/>
-      <c r="K41" s="238" t="s">
-        <v>153</v>
-      </c>
-      <c r="L41" s="238"/>
-      <c r="M41" s="238"/>
-      <c r="N41" s="238"/>
-      <c r="O41" s="238"/>
-      <c r="P41" s="238"/>
-      <c r="Q41" s="238"/>
-      <c r="R41" s="238"/>
-      <c r="S41" s="238"/>
-      <c r="T41" s="238"/>
-      <c r="U41" s="238"/>
-      <c r="V41" s="238"/>
-      <c r="W41" s="238"/>
-      <c r="X41" s="238"/>
-      <c r="Y41" s="238"/>
-      <c r="Z41" s="238"/>
-      <c r="AA41" s="238"/>
-      <c r="AB41" s="238"/>
-      <c r="AC41" s="238"/>
-      <c r="AD41" s="238"/>
-      <c r="AE41" s="238"/>
-      <c r="AF41" s="238"/>
-      <c r="AG41" s="238"/>
+      <c r="L41" s="219"/>
+      <c r="M41" s="219"/>
+      <c r="N41" s="219"/>
+      <c r="O41" s="219"/>
+      <c r="P41" s="219"/>
+      <c r="Q41" s="219"/>
+      <c r="R41" s="219"/>
+      <c r="S41" s="219"/>
+      <c r="T41" s="219"/>
+      <c r="U41" s="219"/>
+      <c r="V41" s="219"/>
+      <c r="W41" s="219"/>
+      <c r="X41" s="219"/>
+      <c r="Y41" s="219"/>
+      <c r="Z41" s="219"/>
+      <c r="AA41" s="219"/>
+      <c r="AB41" s="219"/>
+      <c r="AC41" s="219"/>
+      <c r="AD41" s="219"/>
+      <c r="AE41" s="219"/>
+      <c r="AF41" s="219"/>
+      <c r="AG41" s="219"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D42" s="49"/>
@@ -13271,183 +13287,183 @@
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B44" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D51" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="E53" s="233" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="E53" s="223" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="223"/>
-      <c r="G53" s="223"/>
-      <c r="H53" s="223"/>
-      <c r="I53" s="223"/>
-      <c r="J53" s="223"/>
-      <c r="K53" s="223"/>
-      <c r="L53" s="223"/>
-      <c r="M53" s="223"/>
-      <c r="N53" s="223"/>
-      <c r="O53" s="223"/>
-      <c r="P53" s="223"/>
-      <c r="Q53" s="223"/>
-      <c r="R53" s="223"/>
-      <c r="S53" s="223"/>
-      <c r="T53" s="223"/>
-      <c r="U53" s="223"/>
-      <c r="V53" s="223"/>
-      <c r="W53" s="223"/>
-      <c r="X53" s="223"/>
-      <c r="Y53" s="223"/>
-      <c r="Z53" s="223"/>
-      <c r="AA53" s="223"/>
-      <c r="AB53" s="223"/>
-      <c r="AC53" s="223"/>
-      <c r="AD53" s="223"/>
-      <c r="AE53" s="223"/>
-      <c r="AF53" s="223"/>
-      <c r="AG53" s="223"/>
-      <c r="AH53" s="223"/>
+      <c r="F53" s="233"/>
+      <c r="G53" s="233"/>
+      <c r="H53" s="233"/>
+      <c r="I53" s="233"/>
+      <c r="J53" s="233"/>
+      <c r="K53" s="233"/>
+      <c r="L53" s="233"/>
+      <c r="M53" s="233"/>
+      <c r="N53" s="233"/>
+      <c r="O53" s="233"/>
+      <c r="P53" s="233"/>
+      <c r="Q53" s="233"/>
+      <c r="R53" s="233"/>
+      <c r="S53" s="233"/>
+      <c r="T53" s="233"/>
+      <c r="U53" s="233"/>
+      <c r="V53" s="233"/>
+      <c r="W53" s="233"/>
+      <c r="X53" s="233"/>
+      <c r="Y53" s="233"/>
+      <c r="Z53" s="233"/>
+      <c r="AA53" s="233"/>
+      <c r="AB53" s="233"/>
+      <c r="AC53" s="233"/>
+      <c r="AD53" s="233"/>
+      <c r="AE53" s="233"/>
+      <c r="AF53" s="233"/>
+      <c r="AG53" s="233"/>
+      <c r="AH53" s="233"/>
     </row>
     <row r="54" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="E54" s="223"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="223"/>
-      <c r="H54" s="223"/>
-      <c r="I54" s="223"/>
-      <c r="J54" s="223"/>
-      <c r="K54" s="223"/>
-      <c r="L54" s="223"/>
-      <c r="M54" s="223"/>
-      <c r="N54" s="223"/>
-      <c r="O54" s="223"/>
-      <c r="P54" s="223"/>
-      <c r="Q54" s="223"/>
-      <c r="R54" s="223"/>
-      <c r="S54" s="223"/>
-      <c r="T54" s="223"/>
-      <c r="U54" s="223"/>
-      <c r="V54" s="223"/>
-      <c r="W54" s="223"/>
-      <c r="X54" s="223"/>
-      <c r="Y54" s="223"/>
-      <c r="Z54" s="223"/>
-      <c r="AA54" s="223"/>
-      <c r="AB54" s="223"/>
-      <c r="AC54" s="223"/>
-      <c r="AD54" s="223"/>
-      <c r="AE54" s="223"/>
-      <c r="AF54" s="223"/>
-      <c r="AG54" s="223"/>
-      <c r="AH54" s="223"/>
+      <c r="E54" s="233"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="233"/>
+      <c r="H54" s="233"/>
+      <c r="I54" s="233"/>
+      <c r="J54" s="233"/>
+      <c r="K54" s="233"/>
+      <c r="L54" s="233"/>
+      <c r="M54" s="233"/>
+      <c r="N54" s="233"/>
+      <c r="O54" s="233"/>
+      <c r="P54" s="233"/>
+      <c r="Q54" s="233"/>
+      <c r="R54" s="233"/>
+      <c r="S54" s="233"/>
+      <c r="T54" s="233"/>
+      <c r="U54" s="233"/>
+      <c r="V54" s="233"/>
+      <c r="W54" s="233"/>
+      <c r="X54" s="233"/>
+      <c r="Y54" s="233"/>
+      <c r="Z54" s="233"/>
+      <c r="AA54" s="233"/>
+      <c r="AB54" s="233"/>
+      <c r="AC54" s="233"/>
+      <c r="AD54" s="233"/>
+      <c r="AE54" s="233"/>
+      <c r="AF54" s="233"/>
+      <c r="AG54" s="233"/>
+      <c r="AH54" s="233"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E87" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E88" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E89" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E90" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E91" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E92" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C95" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E99" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E100" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D132" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E134" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E135" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E136" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E137" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E138" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B141" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C141" s="48"/>
       <c r="D141" s="48"/>
@@ -13482,7 +13498,7 @@
     <row r="142" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B142" s="48"/>
       <c r="C142" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D142" s="48"/>
       <c r="E142" s="48"/>
@@ -13516,7 +13532,7 @@
     <row r="143" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B143" s="48"/>
       <c r="C143" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D143" s="48"/>
       <c r="E143" s="48"/>
@@ -13582,7 +13598,7 @@
     <row r="145" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B145" s="48"/>
       <c r="C145" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D145" s="51"/>
       <c r="E145" s="51"/>
@@ -13593,10 +13609,10 @@
       <c r="J145" s="51"/>
       <c r="K145" s="52"/>
       <c r="L145" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M145" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N145" s="51"/>
       <c r="O145" s="51"/>
@@ -13659,7 +13675,7 @@
       <c r="B147" s="48"/>
       <c r="C147" s="59"/>
       <c r="D147" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E147" s="61"/>
       <c r="F147" s="61"/>
@@ -13669,10 +13685,10 @@
       <c r="J147" s="61"/>
       <c r="K147" s="62"/>
       <c r="L147" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="M147" s="60" t="s">
         <v>181</v>
-      </c>
-      <c r="M147" s="60" t="s">
-        <v>182</v>
       </c>
       <c r="N147" s="61"/>
       <c r="O147" s="61"/>
@@ -13697,7 +13713,7 @@
       <c r="B148" s="48"/>
       <c r="C148" s="64"/>
       <c r="D148" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E148" s="66"/>
       <c r="F148" s="66"/>
@@ -13707,10 +13723,10 @@
       <c r="J148" s="66"/>
       <c r="K148" s="67"/>
       <c r="L148" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="M148" s="65" t="s">
         <v>184</v>
-      </c>
-      <c r="M148" s="65" t="s">
-        <v>185</v>
       </c>
       <c r="N148" s="66"/>
       <c r="O148" s="66"/>
@@ -13745,10 +13761,10 @@
       <c r="J149" s="55"/>
       <c r="K149" s="58"/>
       <c r="L149" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M149" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N149" s="55"/>
       <c r="O149" s="55"/>
@@ -13782,7 +13798,7 @@
       <c r="K150" s="71"/>
       <c r="L150" s="72"/>
       <c r="M150" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N150" s="70"/>
       <c r="O150" s="70"/>
@@ -13817,29 +13833,29 @@
       <c r="J151" s="55"/>
       <c r="K151" s="58"/>
       <c r="L151" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="M151" s="217" t="s">
-        <v>188</v>
-      </c>
-      <c r="N151" s="218"/>
-      <c r="O151" s="218"/>
-      <c r="P151" s="218"/>
-      <c r="Q151" s="218"/>
-      <c r="R151" s="218"/>
-      <c r="S151" s="218"/>
-      <c r="T151" s="218"/>
-      <c r="U151" s="218"/>
-      <c r="V151" s="218"/>
-      <c r="W151" s="218"/>
-      <c r="X151" s="218"/>
-      <c r="Y151" s="218"/>
-      <c r="Z151" s="218"/>
-      <c r="AA151" s="218"/>
-      <c r="AB151" s="218"/>
-      <c r="AC151" s="218"/>
-      <c r="AD151" s="218"/>
-      <c r="AE151" s="219"/>
+        <v>183</v>
+      </c>
+      <c r="M151" s="227" t="s">
+        <v>187</v>
+      </c>
+      <c r="N151" s="228"/>
+      <c r="O151" s="228"/>
+      <c r="P151" s="228"/>
+      <c r="Q151" s="228"/>
+      <c r="R151" s="228"/>
+      <c r="S151" s="228"/>
+      <c r="T151" s="228"/>
+      <c r="U151" s="228"/>
+      <c r="V151" s="228"/>
+      <c r="W151" s="228"/>
+      <c r="X151" s="228"/>
+      <c r="Y151" s="228"/>
+      <c r="Z151" s="228"/>
+      <c r="AA151" s="228"/>
+      <c r="AB151" s="228"/>
+      <c r="AC151" s="228"/>
+      <c r="AD151" s="228"/>
+      <c r="AE151" s="229"/>
     </row>
     <row r="152" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B152" s="48"/>
@@ -13853,25 +13869,25 @@
       <c r="J152" s="74"/>
       <c r="K152" s="75"/>
       <c r="L152" s="76"/>
-      <c r="M152" s="220"/>
-      <c r="N152" s="221"/>
-      <c r="O152" s="221"/>
-      <c r="P152" s="221"/>
-      <c r="Q152" s="221"/>
-      <c r="R152" s="221"/>
-      <c r="S152" s="221"/>
-      <c r="T152" s="221"/>
-      <c r="U152" s="221"/>
-      <c r="V152" s="221"/>
-      <c r="W152" s="221"/>
-      <c r="X152" s="221"/>
-      <c r="Y152" s="221"/>
-      <c r="Z152" s="221"/>
-      <c r="AA152" s="221"/>
-      <c r="AB152" s="221"/>
-      <c r="AC152" s="221"/>
-      <c r="AD152" s="221"/>
-      <c r="AE152" s="222"/>
+      <c r="M152" s="230"/>
+      <c r="N152" s="231"/>
+      <c r="O152" s="231"/>
+      <c r="P152" s="231"/>
+      <c r="Q152" s="231"/>
+      <c r="R152" s="231"/>
+      <c r="S152" s="231"/>
+      <c r="T152" s="231"/>
+      <c r="U152" s="231"/>
+      <c r="V152" s="231"/>
+      <c r="W152" s="231"/>
+      <c r="X152" s="231"/>
+      <c r="Y152" s="231"/>
+      <c r="Z152" s="231"/>
+      <c r="AA152" s="231"/>
+      <c r="AB152" s="231"/>
+      <c r="AC152" s="231"/>
+      <c r="AD152" s="231"/>
+      <c r="AE152" s="232"/>
     </row>
     <row r="153" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B153" s="48"/>
@@ -13908,7 +13924,7 @@
     <row r="154" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B154" s="48"/>
       <c r="C154" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D154" s="48"/>
       <c r="E154" s="48"/>
@@ -13974,7 +13990,7 @@
     <row r="156" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B156" s="48"/>
       <c r="C156" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D156" s="48"/>
       <c r="F156" s="48"/>
@@ -14007,7 +14023,7 @@
     <row r="157" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B157" s="48"/>
       <c r="C157" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D157" s="48"/>
       <c r="F157" s="48"/>
@@ -14040,7 +14056,7 @@
     <row r="158" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B158" s="48"/>
       <c r="C158" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D158" s="48"/>
       <c r="F158" s="48"/>
@@ -14073,7 +14089,7 @@
     <row r="159" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B159" s="48"/>
       <c r="C159" s="48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D159" s="48"/>
       <c r="F159" s="48"/>
@@ -14106,7 +14122,7 @@
     <row r="160" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B160" s="48"/>
       <c r="C160" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D160" s="48"/>
       <c r="F160" s="48"/>
@@ -14139,7 +14155,7 @@
     <row r="161" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B161" s="48"/>
       <c r="C161" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D161" s="48"/>
       <c r="F161" s="48"/>
@@ -14171,46 +14187,11 @@
     </row>
     <row r="162" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C162" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
     <mergeCell ref="M151:AE152"/>
     <mergeCell ref="E53:AH54"/>
     <mergeCell ref="D19:J19"/>
@@ -14227,6 +14208,41 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14265,750 +14281,790 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="229" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="208" t="str">
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="226" t="s">
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="205">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
       <c r="AJ1" s="38"/>
       <c r="AK1" s="38"/>
       <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="234"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="226" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="228"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
       <c r="AL2" s="38"/>
     </row>
     <row r="3" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="228"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="223"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
       <c r="AJ3" s="38"/>
       <c r="AK3" s="38"/>
       <c r="AL3" s="38"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="284" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="286" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="274" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="278" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="275"/>
-      <c r="M7" s="275"/>
-      <c r="N7" s="276"/>
-      <c r="O7" s="271" t="s">
+      <c r="H7" s="279"/>
+      <c r="I7" s="279"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="279"/>
+      <c r="M7" s="279"/>
+      <c r="N7" s="280"/>
+      <c r="O7" s="277" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="241" t="s">
+      <c r="P7" s="277"/>
+      <c r="Q7" s="277"/>
+      <c r="R7" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="241"/>
-      <c r="T7" s="241"/>
-      <c r="U7" s="241"/>
-      <c r="V7" s="241"/>
-      <c r="W7" s="241"/>
-      <c r="X7" s="292" t="s">
+      <c r="S7" s="221"/>
+      <c r="T7" s="221"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="221"/>
+      <c r="W7" s="221"/>
+      <c r="X7" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="293"/>
-      <c r="AA7" s="293"/>
-      <c r="AB7" s="293"/>
-      <c r="AC7" s="294"/>
-      <c r="AD7" s="271" t="s">
+      <c r="Y7" s="275"/>
+      <c r="Z7" s="275"/>
+      <c r="AA7" s="275"/>
+      <c r="AB7" s="275"/>
+      <c r="AC7" s="276"/>
+      <c r="AD7" s="277" t="s">
         <v>103</v>
       </c>
-      <c r="AE7" s="271"/>
-      <c r="AF7" s="271"/>
-      <c r="AG7" s="271"/>
-      <c r="AH7" s="271"/>
-      <c r="AI7" s="271"/>
+      <c r="AE7" s="277"/>
+      <c r="AF7" s="277"/>
+      <c r="AG7" s="277"/>
+      <c r="AH7" s="277"/>
+      <c r="AI7" s="277"/>
       <c r="AJ7" s="41"/>
-      <c r="AL7" s="245" t="s">
+      <c r="AL7" s="288" t="s">
         <v>76</v>
       </c>
-      <c r="AM7" s="245"/>
-      <c r="AN7" s="245"/>
-      <c r="AO7" s="245"/>
-      <c r="AP7" s="245"/>
-      <c r="AQ7" s="245"/>
-      <c r="AR7" s="245"/>
-      <c r="AS7" s="245"/>
-      <c r="AT7" s="245"/>
-      <c r="AU7" s="245"/>
-      <c r="AV7" s="245"/>
-      <c r="AW7" s="245"/>
-      <c r="AX7" s="245" t="s">
+      <c r="AM7" s="288"/>
+      <c r="AN7" s="288"/>
+      <c r="AO7" s="288"/>
+      <c r="AP7" s="288"/>
+      <c r="AQ7" s="288"/>
+      <c r="AR7" s="288"/>
+      <c r="AS7" s="288"/>
+      <c r="AT7" s="288"/>
+      <c r="AU7" s="288"/>
+      <c r="AV7" s="288"/>
+      <c r="AW7" s="288"/>
+      <c r="AX7" s="288" t="s">
         <v>104</v>
       </c>
-      <c r="AY7" s="245"/>
-      <c r="AZ7" s="245"/>
-      <c r="BA7" s="245"/>
-      <c r="BB7" s="245"/>
-      <c r="BC7" s="258" t="s">
+      <c r="AY7" s="288"/>
+      <c r="AZ7" s="288"/>
+      <c r="BA7" s="288"/>
+      <c r="BB7" s="288"/>
+      <c r="BC7" s="289" t="s">
         <v>105</v>
       </c>
-      <c r="BD7" s="259"/>
-      <c r="BE7" s="259"/>
-      <c r="BF7" s="259"/>
-      <c r="BG7" s="260"/>
-      <c r="BH7" s="245" t="s">
+      <c r="BD7" s="290"/>
+      <c r="BE7" s="290"/>
+      <c r="BF7" s="290"/>
+      <c r="BG7" s="291"/>
+      <c r="BH7" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="BI7" s="245"/>
-      <c r="BJ7" s="245"/>
-      <c r="BK7" s="245"/>
-      <c r="BL7" s="245"/>
-      <c r="BM7" s="245"/>
-      <c r="BN7" s="245"/>
+      <c r="BI7" s="288"/>
+      <c r="BJ7" s="288"/>
+      <c r="BK7" s="288"/>
+      <c r="BL7" s="288"/>
+      <c r="BM7" s="288"/>
+      <c r="BN7" s="288"/>
     </row>
     <row r="8" spans="1:66" s="42" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="267"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="278"/>
-      <c r="N8" s="279"/>
-      <c r="O8" s="271"/>
-      <c r="P8" s="271"/>
-      <c r="Q8" s="271"/>
-      <c r="R8" s="269" t="s">
+      <c r="A8" s="285"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="281"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="282"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="282"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="277"/>
+      <c r="P8" s="277"/>
+      <c r="Q8" s="277"/>
+      <c r="R8" s="287" t="s">
         <v>107</v>
       </c>
-      <c r="S8" s="270"/>
-      <c r="T8" s="270" t="s">
+      <c r="S8" s="273"/>
+      <c r="T8" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="U8" s="270"/>
-      <c r="V8" s="289" t="s">
+      <c r="U8" s="273"/>
+      <c r="V8" s="270" t="s">
         <v>109</v>
       </c>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291" t="s">
+      <c r="W8" s="271"/>
+      <c r="X8" s="272" t="s">
         <v>110</v>
       </c>
-      <c r="Y8" s="270"/>
-      <c r="Z8" s="270"/>
-      <c r="AA8" s="270" t="s">
+      <c r="Y8" s="273"/>
+      <c r="Z8" s="273"/>
+      <c r="AA8" s="273" t="s">
         <v>111</v>
       </c>
-      <c r="AB8" s="270"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="271"/>
-      <c r="AE8" s="271"/>
-      <c r="AF8" s="271"/>
-      <c r="AG8" s="271"/>
-      <c r="AH8" s="271"/>
-      <c r="AI8" s="271"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="271"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="277"/>
       <c r="AJ8" s="41"/>
-      <c r="AL8" s="245"/>
-      <c r="AM8" s="245"/>
-      <c r="AN8" s="245"/>
-      <c r="AO8" s="245"/>
-      <c r="AP8" s="245"/>
-      <c r="AQ8" s="245"/>
-      <c r="AR8" s="245"/>
-      <c r="AS8" s="245"/>
-      <c r="AT8" s="245"/>
-      <c r="AU8" s="245"/>
-      <c r="AV8" s="245"/>
-      <c r="AW8" s="245"/>
-      <c r="AX8" s="245"/>
-      <c r="AY8" s="245"/>
-      <c r="AZ8" s="245"/>
-      <c r="BA8" s="245"/>
-      <c r="BB8" s="245"/>
-      <c r="BC8" s="261"/>
-      <c r="BD8" s="262"/>
-      <c r="BE8" s="262"/>
-      <c r="BF8" s="262"/>
-      <c r="BG8" s="263"/>
-      <c r="BH8" s="245"/>
-      <c r="BI8" s="245"/>
-      <c r="BJ8" s="245"/>
-      <c r="BK8" s="245"/>
-      <c r="BL8" s="245"/>
-      <c r="BM8" s="245"/>
-      <c r="BN8" s="245"/>
+      <c r="AL8" s="288"/>
+      <c r="AM8" s="288"/>
+      <c r="AN8" s="288"/>
+      <c r="AO8" s="288"/>
+      <c r="AP8" s="288"/>
+      <c r="AQ8" s="288"/>
+      <c r="AR8" s="288"/>
+      <c r="AS8" s="288"/>
+      <c r="AT8" s="288"/>
+      <c r="AU8" s="288"/>
+      <c r="AV8" s="288"/>
+      <c r="AW8" s="288"/>
+      <c r="AX8" s="288"/>
+      <c r="AY8" s="288"/>
+      <c r="AZ8" s="288"/>
+      <c r="BA8" s="288"/>
+      <c r="BB8" s="288"/>
+      <c r="BC8" s="292"/>
+      <c r="BD8" s="293"/>
+      <c r="BE8" s="293"/>
+      <c r="BF8" s="293"/>
+      <c r="BG8" s="294"/>
+      <c r="BH8" s="288"/>
+      <c r="BI8" s="288"/>
+      <c r="BJ8" s="288"/>
+      <c r="BK8" s="288"/>
+      <c r="BL8" s="288"/>
+      <c r="BM8" s="288"/>
+      <c r="BN8" s="288"/>
     </row>
     <row r="9" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="283" t="s">
+      <c r="B9" s="252" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="284"/>
-      <c r="D9" s="284"/>
-      <c r="E9" s="284"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="251" t="s">
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="252"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="252"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="252"/>
-      <c r="N9" s="253"/>
-      <c r="O9" s="280" t="s">
+      <c r="H9" s="263"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="263"/>
+      <c r="L9" s="263"/>
+      <c r="M9" s="263"/>
+      <c r="N9" s="264"/>
+      <c r="O9" s="249" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="281"/>
-      <c r="Q9" s="282"/>
-      <c r="R9" s="272"/>
-      <c r="S9" s="273"/>
-      <c r="T9" s="286">
+      <c r="P9" s="250"/>
+      <c r="Q9" s="251"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="259"/>
+      <c r="T9" s="247">
         <v>10</v>
       </c>
-      <c r="U9" s="287"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="247"/>
-      <c r="X9" s="288"/>
-      <c r="Y9" s="256"/>
-      <c r="Z9" s="256"/>
-      <c r="AA9" s="256"/>
-      <c r="AB9" s="256"/>
-      <c r="AC9" s="257"/>
-      <c r="AD9" s="251"/>
-      <c r="AE9" s="252"/>
-      <c r="AF9" s="252"/>
-      <c r="AG9" s="252"/>
-      <c r="AH9" s="252"/>
-      <c r="AI9" s="253"/>
+      <c r="U9" s="248"/>
+      <c r="V9" s="265"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="267"/>
+      <c r="Y9" s="268"/>
+      <c r="Z9" s="268"/>
+      <c r="AA9" s="268"/>
+      <c r="AB9" s="268"/>
+      <c r="AC9" s="269"/>
+      <c r="AD9" s="262"/>
+      <c r="AE9" s="263"/>
+      <c r="AF9" s="263"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="264"/>
       <c r="AJ9" s="44"/>
-      <c r="AL9" s="248" t="s">
+      <c r="AL9" s="295" t="s">
         <v>89</v>
       </c>
-      <c r="AM9" s="254"/>
-      <c r="AN9" s="254"/>
-      <c r="AO9" s="254"/>
-      <c r="AP9" s="254"/>
-      <c r="AQ9" s="254"/>
-      <c r="AR9" s="254"/>
-      <c r="AS9" s="254"/>
-      <c r="AT9" s="254"/>
-      <c r="AU9" s="254"/>
-      <c r="AV9" s="254"/>
-      <c r="AW9" s="255"/>
-      <c r="AX9" s="264" t="s">
+      <c r="AM9" s="256"/>
+      <c r="AN9" s="256"/>
+      <c r="AO9" s="256"/>
+      <c r="AP9" s="256"/>
+      <c r="AQ9" s="256"/>
+      <c r="AR9" s="256"/>
+      <c r="AS9" s="256"/>
+      <c r="AT9" s="256"/>
+      <c r="AU9" s="256"/>
+      <c r="AV9" s="256"/>
+      <c r="AW9" s="257"/>
+      <c r="AX9" s="246" t="s">
         <v>114</v>
       </c>
-      <c r="AY9" s="264"/>
-      <c r="AZ9" s="264"/>
-      <c r="BA9" s="264"/>
-      <c r="BB9" s="264"/>
-      <c r="BC9" s="248"/>
-      <c r="BD9" s="249"/>
-      <c r="BE9" s="249"/>
-      <c r="BF9" s="249"/>
-      <c r="BG9" s="250"/>
-      <c r="BH9" s="265"/>
-      <c r="BI9" s="265"/>
-      <c r="BJ9" s="265"/>
-      <c r="BK9" s="265"/>
-      <c r="BL9" s="265"/>
-      <c r="BM9" s="265"/>
-      <c r="BN9" s="265"/>
+      <c r="AY9" s="246"/>
+      <c r="AZ9" s="246"/>
+      <c r="BA9" s="246"/>
+      <c r="BB9" s="246"/>
+      <c r="BC9" s="295"/>
+      <c r="BD9" s="296"/>
+      <c r="BE9" s="296"/>
+      <c r="BF9" s="296"/>
+      <c r="BG9" s="297"/>
+      <c r="BH9" s="245"/>
+      <c r="BI9" s="245"/>
+      <c r="BJ9" s="245"/>
+      <c r="BK9" s="245"/>
+      <c r="BL9" s="245"/>
+      <c r="BM9" s="245"/>
+      <c r="BN9" s="245"/>
     </row>
     <row r="10" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="283" t="s">
+      <c r="B10" s="252" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="284"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="284"/>
-      <c r="F10" s="285"/>
-      <c r="G10" s="251" t="s">
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="252"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="252"/>
-      <c r="N10" s="253"/>
-      <c r="O10" s="280" t="s">
+      <c r="H10" s="263"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="263"/>
+      <c r="K10" s="263"/>
+      <c r="L10" s="263"/>
+      <c r="M10" s="263"/>
+      <c r="N10" s="264"/>
+      <c r="O10" s="249" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="281"/>
-      <c r="Q10" s="282"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="273"/>
-      <c r="T10" s="286">
+      <c r="P10" s="250"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="247">
         <v>128</v>
       </c>
-      <c r="U10" s="287"/>
-      <c r="V10" s="246"/>
-      <c r="W10" s="247"/>
-      <c r="X10" s="288"/>
-      <c r="Y10" s="256"/>
-      <c r="Z10" s="256"/>
-      <c r="AA10" s="256"/>
-      <c r="AB10" s="256"/>
-      <c r="AC10" s="257"/>
-      <c r="AD10" s="251"/>
-      <c r="AE10" s="252"/>
-      <c r="AF10" s="252"/>
-      <c r="AG10" s="252"/>
-      <c r="AH10" s="252"/>
-      <c r="AI10" s="253"/>
+      <c r="U10" s="248"/>
+      <c r="V10" s="265"/>
+      <c r="W10" s="266"/>
+      <c r="X10" s="267"/>
+      <c r="Y10" s="268"/>
+      <c r="Z10" s="268"/>
+      <c r="AA10" s="268"/>
+      <c r="AB10" s="268"/>
+      <c r="AC10" s="269"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="263"/>
+      <c r="AF10" s="263"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="264"/>
       <c r="AJ10" s="46"/>
-      <c r="AL10" s="248" t="s">
+      <c r="AL10" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="AM10" s="254"/>
-      <c r="AN10" s="254"/>
-      <c r="AO10" s="254"/>
-      <c r="AP10" s="254"/>
-      <c r="AQ10" s="254"/>
-      <c r="AR10" s="254"/>
-      <c r="AS10" s="254"/>
-      <c r="AT10" s="254"/>
-      <c r="AU10" s="254"/>
-      <c r="AV10" s="254"/>
-      <c r="AW10" s="255"/>
-      <c r="AX10" s="264" t="s">
+      <c r="AM10" s="256"/>
+      <c r="AN10" s="256"/>
+      <c r="AO10" s="256"/>
+      <c r="AP10" s="256"/>
+      <c r="AQ10" s="256"/>
+      <c r="AR10" s="256"/>
+      <c r="AS10" s="256"/>
+      <c r="AT10" s="256"/>
+      <c r="AU10" s="256"/>
+      <c r="AV10" s="256"/>
+      <c r="AW10" s="257"/>
+      <c r="AX10" s="246" t="s">
         <v>118</v>
       </c>
-      <c r="AY10" s="264"/>
-      <c r="AZ10" s="264"/>
-      <c r="BA10" s="264"/>
-      <c r="BB10" s="264"/>
-      <c r="BC10" s="248" t="s">
+      <c r="AY10" s="246"/>
+      <c r="AZ10" s="246"/>
+      <c r="BA10" s="246"/>
+      <c r="BB10" s="246"/>
+      <c r="BC10" s="295" t="s">
         <v>105</v>
       </c>
-      <c r="BD10" s="249"/>
-      <c r="BE10" s="249"/>
-      <c r="BF10" s="249"/>
-      <c r="BG10" s="250"/>
-      <c r="BH10" s="265"/>
-      <c r="BI10" s="265"/>
-      <c r="BJ10" s="265"/>
-      <c r="BK10" s="265"/>
-      <c r="BL10" s="265"/>
-      <c r="BM10" s="265"/>
-      <c r="BN10" s="265"/>
+      <c r="BD10" s="296"/>
+      <c r="BE10" s="296"/>
+      <c r="BF10" s="296"/>
+      <c r="BG10" s="297"/>
+      <c r="BH10" s="245"/>
+      <c r="BI10" s="245"/>
+      <c r="BJ10" s="245"/>
+      <c r="BK10" s="245"/>
+      <c r="BL10" s="245"/>
+      <c r="BM10" s="245"/>
+      <c r="BN10" s="245"/>
     </row>
     <row r="11" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <v>3</v>
       </c>
-      <c r="B11" s="283" t="s">
+      <c r="B11" s="252" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="284"/>
-      <c r="D11" s="284"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="285"/>
-      <c r="G11" s="251" t="s">
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="252"/>
-      <c r="N11" s="253"/>
-      <c r="O11" s="280" t="s">
+      <c r="H11" s="263"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="263"/>
+      <c r="K11" s="263"/>
+      <c r="L11" s="263"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="264"/>
+      <c r="O11" s="249" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="281"/>
-      <c r="Q11" s="282"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="273"/>
-      <c r="T11" s="286">
+      <c r="P11" s="250"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="258"/>
+      <c r="S11" s="259"/>
+      <c r="T11" s="247">
         <v>2</v>
       </c>
-      <c r="U11" s="287"/>
-      <c r="V11" s="246"/>
-      <c r="W11" s="247"/>
-      <c r="X11" s="288" t="s">
+      <c r="U11" s="248"/>
+      <c r="V11" s="265"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="267" t="s">
         <v>121</v>
       </c>
-      <c r="Y11" s="256"/>
-      <c r="Z11" s="256"/>
-      <c r="AA11" s="256"/>
-      <c r="AB11" s="256"/>
-      <c r="AC11" s="257"/>
-      <c r="AD11" s="251"/>
-      <c r="AE11" s="252"/>
-      <c r="AF11" s="252"/>
-      <c r="AG11" s="252"/>
-      <c r="AH11" s="252"/>
-      <c r="AI11" s="253"/>
+      <c r="Y11" s="268"/>
+      <c r="Z11" s="268"/>
+      <c r="AA11" s="268"/>
+      <c r="AB11" s="268"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="262"/>
+      <c r="AE11" s="263"/>
+      <c r="AF11" s="263"/>
+      <c r="AG11" s="263"/>
+      <c r="AH11" s="263"/>
+      <c r="AI11" s="264"/>
       <c r="AJ11" s="44"/>
       <c r="AK11" s="47"/>
-      <c r="AL11" s="248" t="s">
+      <c r="AL11" s="295" t="s">
         <v>93</v>
       </c>
-      <c r="AM11" s="249"/>
-      <c r="AN11" s="249"/>
-      <c r="AO11" s="249"/>
-      <c r="AP11" s="249"/>
-      <c r="AQ11" s="249"/>
-      <c r="AR11" s="249"/>
-      <c r="AS11" s="249"/>
-      <c r="AT11" s="249"/>
-      <c r="AU11" s="249"/>
-      <c r="AV11" s="249"/>
-      <c r="AW11" s="250"/>
-      <c r="AX11" s="264" t="s">
+      <c r="AM11" s="296"/>
+      <c r="AN11" s="296"/>
+      <c r="AO11" s="296"/>
+      <c r="AP11" s="296"/>
+      <c r="AQ11" s="296"/>
+      <c r="AR11" s="296"/>
+      <c r="AS11" s="296"/>
+      <c r="AT11" s="296"/>
+      <c r="AU11" s="296"/>
+      <c r="AV11" s="296"/>
+      <c r="AW11" s="297"/>
+      <c r="AX11" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="AY11" s="264"/>
-      <c r="AZ11" s="264"/>
-      <c r="BA11" s="264"/>
-      <c r="BB11" s="264"/>
-      <c r="BC11" s="248"/>
-      <c r="BD11" s="249"/>
-      <c r="BE11" s="249"/>
-      <c r="BF11" s="249"/>
-      <c r="BG11" s="250"/>
-      <c r="BH11" s="265"/>
-      <c r="BI11" s="265"/>
-      <c r="BJ11" s="265"/>
-      <c r="BK11" s="265"/>
-      <c r="BL11" s="265"/>
-      <c r="BM11" s="265"/>
-      <c r="BN11" s="265"/>
+      <c r="AY11" s="246"/>
+      <c r="AZ11" s="246"/>
+      <c r="BA11" s="246"/>
+      <c r="BB11" s="246"/>
+      <c r="BC11" s="295"/>
+      <c r="BD11" s="296"/>
+      <c r="BE11" s="296"/>
+      <c r="BF11" s="296"/>
+      <c r="BG11" s="297"/>
+      <c r="BH11" s="245"/>
+      <c r="BI11" s="245"/>
+      <c r="BJ11" s="245"/>
+      <c r="BK11" s="245"/>
+      <c r="BL11" s="245"/>
+      <c r="BM11" s="245"/>
+      <c r="BN11" s="245"/>
     </row>
     <row r="12" spans="1:66" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <v>4</v>
       </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="284"/>
-      <c r="D12" s="284"/>
-      <c r="E12" s="284"/>
-      <c r="F12" s="285"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="253"/>
-      <c r="O12" s="280"/>
-      <c r="P12" s="281"/>
-      <c r="Q12" s="282"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="297"/>
-      <c r="T12" s="286"/>
-      <c r="U12" s="287"/>
-      <c r="V12" s="246"/>
-      <c r="W12" s="247"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="256"/>
-      <c r="Z12" s="256"/>
-      <c r="AA12" s="256"/>
-      <c r="AB12" s="256"/>
-      <c r="AC12" s="257"/>
-      <c r="AD12" s="251"/>
-      <c r="AE12" s="252"/>
-      <c r="AF12" s="252"/>
-      <c r="AG12" s="252"/>
-      <c r="AH12" s="252"/>
-      <c r="AI12" s="253"/>
+      <c r="B12" s="252"/>
+      <c r="C12" s="253"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="263"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="264"/>
+      <c r="O12" s="249"/>
+      <c r="P12" s="250"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="260"/>
+      <c r="S12" s="261"/>
+      <c r="T12" s="247"/>
+      <c r="U12" s="248"/>
+      <c r="V12" s="265"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="267"/>
+      <c r="Y12" s="268"/>
+      <c r="Z12" s="268"/>
+      <c r="AA12" s="268"/>
+      <c r="AB12" s="268"/>
+      <c r="AC12" s="269"/>
+      <c r="AD12" s="262"/>
+      <c r="AE12" s="263"/>
+      <c r="AF12" s="263"/>
+      <c r="AG12" s="263"/>
+      <c r="AH12" s="263"/>
+      <c r="AI12" s="264"/>
       <c r="AJ12" s="44"/>
-      <c r="AL12" s="248"/>
-      <c r="AM12" s="254"/>
-      <c r="AN12" s="254"/>
-      <c r="AO12" s="254"/>
-      <c r="AP12" s="254"/>
-      <c r="AQ12" s="254"/>
-      <c r="AR12" s="254"/>
-      <c r="AS12" s="254"/>
-      <c r="AT12" s="254"/>
-      <c r="AU12" s="254"/>
-      <c r="AV12" s="254"/>
-      <c r="AW12" s="255"/>
-      <c r="AX12" s="264"/>
-      <c r="AY12" s="264"/>
-      <c r="AZ12" s="264"/>
-      <c r="BA12" s="264"/>
-      <c r="BB12" s="264"/>
-      <c r="BC12" s="248"/>
-      <c r="BD12" s="249"/>
-      <c r="BE12" s="249"/>
-      <c r="BF12" s="249"/>
-      <c r="BG12" s="250"/>
-      <c r="BH12" s="265"/>
-      <c r="BI12" s="265"/>
-      <c r="BJ12" s="265"/>
-      <c r="BK12" s="265"/>
-      <c r="BL12" s="265"/>
-      <c r="BM12" s="265"/>
-      <c r="BN12" s="265"/>
+      <c r="AL12" s="295"/>
+      <c r="AM12" s="256"/>
+      <c r="AN12" s="256"/>
+      <c r="AO12" s="256"/>
+      <c r="AP12" s="256"/>
+      <c r="AQ12" s="256"/>
+      <c r="AR12" s="256"/>
+      <c r="AS12" s="256"/>
+      <c r="AT12" s="256"/>
+      <c r="AU12" s="256"/>
+      <c r="AV12" s="256"/>
+      <c r="AW12" s="257"/>
+      <c r="AX12" s="246"/>
+      <c r="AY12" s="246"/>
+      <c r="AZ12" s="246"/>
+      <c r="BA12" s="246"/>
+      <c r="BB12" s="246"/>
+      <c r="BC12" s="295"/>
+      <c r="BD12" s="296"/>
+      <c r="BE12" s="296"/>
+      <c r="BF12" s="296"/>
+      <c r="BG12" s="297"/>
+      <c r="BH12" s="245"/>
+      <c r="BI12" s="245"/>
+      <c r="BJ12" s="245"/>
+      <c r="BK12" s="245"/>
+      <c r="BL12" s="245"/>
+      <c r="BM12" s="245"/>
+      <c r="BN12" s="245"/>
     </row>
     <row r="13" spans="1:66" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <v>5</v>
       </c>
-      <c r="B13" s="295"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="252"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="252"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="252"/>
-      <c r="N13" s="253"/>
-      <c r="O13" s="280"/>
-      <c r="P13" s="281"/>
-      <c r="Q13" s="282"/>
-      <c r="R13" s="272"/>
-      <c r="S13" s="273"/>
-      <c r="T13" s="286"/>
-      <c r="U13" s="287"/>
-      <c r="V13" s="246"/>
-      <c r="W13" s="247"/>
-      <c r="X13" s="288"/>
-      <c r="Y13" s="256"/>
-      <c r="Z13" s="256"/>
-      <c r="AA13" s="256"/>
-      <c r="AB13" s="256"/>
-      <c r="AC13" s="257"/>
-      <c r="AD13" s="251"/>
-      <c r="AE13" s="252"/>
-      <c r="AF13" s="252"/>
-      <c r="AG13" s="252"/>
-      <c r="AH13" s="252"/>
-      <c r="AI13" s="253"/>
+      <c r="B13" s="255"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="264"/>
+      <c r="O13" s="249"/>
+      <c r="P13" s="250"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="258"/>
+      <c r="S13" s="259"/>
+      <c r="T13" s="247"/>
+      <c r="U13" s="248"/>
+      <c r="V13" s="265"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="267"/>
+      <c r="Y13" s="268"/>
+      <c r="Z13" s="268"/>
+      <c r="AA13" s="268"/>
+      <c r="AB13" s="268"/>
+      <c r="AC13" s="269"/>
+      <c r="AD13" s="262"/>
+      <c r="AE13" s="263"/>
+      <c r="AF13" s="263"/>
+      <c r="AG13" s="263"/>
+      <c r="AH13" s="263"/>
+      <c r="AI13" s="264"/>
       <c r="AJ13" s="44"/>
-      <c r="AL13" s="248"/>
-      <c r="AM13" s="254"/>
-      <c r="AN13" s="254"/>
-      <c r="AO13" s="254"/>
-      <c r="AP13" s="254"/>
-      <c r="AQ13" s="254"/>
-      <c r="AR13" s="254"/>
-      <c r="AS13" s="254"/>
-      <c r="AT13" s="254"/>
-      <c r="AU13" s="254"/>
-      <c r="AV13" s="254"/>
-      <c r="AW13" s="255"/>
-      <c r="AX13" s="264"/>
-      <c r="AY13" s="264"/>
-      <c r="AZ13" s="264"/>
-      <c r="BA13" s="264"/>
-      <c r="BB13" s="264"/>
-      <c r="BC13" s="248"/>
-      <c r="BD13" s="249"/>
-      <c r="BE13" s="249"/>
-      <c r="BF13" s="249"/>
-      <c r="BG13" s="250"/>
-      <c r="BH13" s="265"/>
-      <c r="BI13" s="265"/>
-      <c r="BJ13" s="265"/>
-      <c r="BK13" s="265"/>
-      <c r="BL13" s="265"/>
-      <c r="BM13" s="265"/>
-      <c r="BN13" s="265"/>
+      <c r="AL13" s="295"/>
+      <c r="AM13" s="256"/>
+      <c r="AN13" s="256"/>
+      <c r="AO13" s="256"/>
+      <c r="AP13" s="256"/>
+      <c r="AQ13" s="256"/>
+      <c r="AR13" s="256"/>
+      <c r="AS13" s="256"/>
+      <c r="AT13" s="256"/>
+      <c r="AU13" s="256"/>
+      <c r="AV13" s="256"/>
+      <c r="AW13" s="257"/>
+      <c r="AX13" s="246"/>
+      <c r="AY13" s="246"/>
+      <c r="AZ13" s="246"/>
+      <c r="BA13" s="246"/>
+      <c r="BB13" s="246"/>
+      <c r="BC13" s="295"/>
+      <c r="BD13" s="296"/>
+      <c r="BE13" s="296"/>
+      <c r="BF13" s="296"/>
+      <c r="BG13" s="297"/>
+      <c r="BH13" s="245"/>
+      <c r="BI13" s="245"/>
+      <c r="BJ13" s="245"/>
+      <c r="BK13" s="245"/>
+      <c r="BL13" s="245"/>
+      <c r="BM13" s="245"/>
+      <c r="BN13" s="245"/>
     </row>
     <row r="14" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="AX7:BB8"/>
+    <mergeCell ref="BH7:BN8"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="BC7:BG8"/>
+    <mergeCell ref="BC9:BG9"/>
+    <mergeCell ref="BC10:BG10"/>
+    <mergeCell ref="BC11:BG11"/>
+    <mergeCell ref="BC12:BG12"/>
+    <mergeCell ref="BC13:BG13"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AL13:AW13"/>
+    <mergeCell ref="BH9:BN9"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V10:W10"/>
     <mergeCell ref="AD13:AI13"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="AA1:AB1"/>
@@ -15025,67 +15081,27 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="AX7:BB8"/>
-    <mergeCell ref="BH7:BN8"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="BC7:BG8"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BC11:BG11"/>
-    <mergeCell ref="BC12:BG12"/>
-    <mergeCell ref="BC13:BG13"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AL13:AW13"/>
-    <mergeCell ref="BH9:BN9"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="AX10:BB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15121,157 +15137,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="229" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="208" t="str">
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="226" t="s">
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="205">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
     </row>
     <row r="2" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="234"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="226" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="228"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
     </row>
     <row r="3" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="228"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="223"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -15280,53 +15296,53 @@
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="307" t="s">
+      <c r="B8" s="301" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="308"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="308"/>
-      <c r="G8" s="308"/>
-      <c r="H8" s="308"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="307" t="s">
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="303"/>
+      <c r="J8" s="301" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="308"/>
-      <c r="L8" s="308"/>
-      <c r="M8" s="308"/>
-      <c r="N8" s="308"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="308"/>
-      <c r="R8" s="308"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="308"/>
-      <c r="V8" s="308"/>
-      <c r="W8" s="308"/>
-      <c r="X8" s="309"/>
-      <c r="Y8" s="268" t="s">
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="302"/>
+      <c r="O8" s="302"/>
+      <c r="P8" s="302"/>
+      <c r="Q8" s="302"/>
+      <c r="R8" s="302"/>
+      <c r="S8" s="302"/>
+      <c r="T8" s="302"/>
+      <c r="U8" s="302"/>
+      <c r="V8" s="302"/>
+      <c r="W8" s="302"/>
+      <c r="X8" s="303"/>
+      <c r="Y8" s="286" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
-      <c r="AI8" s="268"/>
+      <c r="Z8" s="286"/>
+      <c r="AA8" s="286"/>
+      <c r="AB8" s="286"/>
+      <c r="AC8" s="286"/>
+      <c r="AD8" s="286"/>
+      <c r="AE8" s="286"/>
+      <c r="AF8" s="286"/>
+      <c r="AG8" s="286"/>
+      <c r="AH8" s="286"/>
+      <c r="AI8" s="286"/>
       <c r="BM8" s="32"/>
       <c r="BN8" s="32"/>
       <c r="BO8" s="32"/>
@@ -15335,45 +15351,45 @@
       <c r="BR8" s="32"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
-      <c r="B9" s="310"/>
-      <c r="C9" s="311"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
-      <c r="I9" s="312"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="311"/>
-      <c r="N9" s="311"/>
-      <c r="O9" s="311"/>
-      <c r="P9" s="311"/>
-      <c r="Q9" s="311"/>
-      <c r="R9" s="311"/>
-      <c r="S9" s="311"/>
-      <c r="T9" s="311"/>
-      <c r="U9" s="311"/>
-      <c r="V9" s="311"/>
-      <c r="W9" s="311"/>
-      <c r="X9" s="312"/>
-      <c r="Y9" s="268" t="s">
+      <c r="A9" s="221"/>
+      <c r="B9" s="304"/>
+      <c r="C9" s="305"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="304"/>
+      <c r="K9" s="305"/>
+      <c r="L9" s="305"/>
+      <c r="M9" s="305"/>
+      <c r="N9" s="305"/>
+      <c r="O9" s="305"/>
+      <c r="P9" s="305"/>
+      <c r="Q9" s="305"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="305"/>
+      <c r="T9" s="305"/>
+      <c r="U9" s="305"/>
+      <c r="V9" s="305"/>
+      <c r="W9" s="305"/>
+      <c r="X9" s="306"/>
+      <c r="Y9" s="286" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="268" t="s">
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="286"/>
+      <c r="AB9" s="286"/>
+      <c r="AC9" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="268"/>
-      <c r="AF9" s="268"/>
-      <c r="AG9" s="268"/>
-      <c r="AH9" s="268"/>
-      <c r="AI9" s="268"/>
+      <c r="AD9" s="286"/>
+      <c r="AE9" s="286"/>
+      <c r="AF9" s="286"/>
+      <c r="AG9" s="286"/>
+      <c r="AH9" s="286"/>
+      <c r="AI9" s="286"/>
       <c r="AJ9" s="32"/>
       <c r="AK9" s="32"/>
       <c r="AL9" s="32"/>
@@ -15414,33 +15430,33 @@
       <c r="A10" s="34">
         <v>1</v>
       </c>
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="299" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="303"/>
-      <c r="I10" s="303"/>
-      <c r="J10" s="299" t="s">
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="299"/>
+      <c r="J10" s="300" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="299"/>
-      <c r="L10" s="299"/>
-      <c r="M10" s="299"/>
-      <c r="N10" s="299"/>
-      <c r="O10" s="299"/>
-      <c r="P10" s="299"/>
-      <c r="Q10" s="299"/>
-      <c r="R10" s="299"/>
-      <c r="S10" s="299"/>
-      <c r="T10" s="299"/>
-      <c r="U10" s="299"/>
-      <c r="V10" s="299"/>
-      <c r="W10" s="299"/>
-      <c r="X10" s="299"/>
+      <c r="K10" s="300"/>
+      <c r="L10" s="300"/>
+      <c r="M10" s="300"/>
+      <c r="N10" s="300"/>
+      <c r="O10" s="300"/>
+      <c r="P10" s="300"/>
+      <c r="Q10" s="300"/>
+      <c r="R10" s="300"/>
+      <c r="S10" s="300"/>
+      <c r="T10" s="300"/>
+      <c r="U10" s="300"/>
+      <c r="V10" s="300"/>
+      <c r="W10" s="300"/>
+      <c r="X10" s="300"/>
       <c r="Y10" s="298"/>
       <c r="Z10" s="298"/>
       <c r="AA10" s="298"/>
@@ -15492,33 +15508,33 @@
       <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="303" t="s">
+      <c r="B11" s="299" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="303"/>
-      <c r="D11" s="303"/>
-      <c r="E11" s="303"/>
-      <c r="F11" s="303"/>
-      <c r="G11" s="303"/>
-      <c r="H11" s="303"/>
-      <c r="I11" s="303"/>
-      <c r="J11" s="299" t="s">
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="299"/>
+      <c r="H11" s="299"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="300" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="299"/>
-      <c r="L11" s="299"/>
-      <c r="M11" s="299"/>
-      <c r="N11" s="299"/>
-      <c r="O11" s="299"/>
-      <c r="P11" s="299"/>
-      <c r="Q11" s="299"/>
-      <c r="R11" s="299"/>
-      <c r="S11" s="299"/>
-      <c r="T11" s="299"/>
-      <c r="U11" s="299"/>
-      <c r="V11" s="299"/>
-      <c r="W11" s="299"/>
-      <c r="X11" s="299"/>
+      <c r="K11" s="300"/>
+      <c r="L11" s="300"/>
+      <c r="M11" s="300"/>
+      <c r="N11" s="300"/>
+      <c r="O11" s="300"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="300"/>
+      <c r="R11" s="300"/>
+      <c r="S11" s="300"/>
+      <c r="T11" s="300"/>
+      <c r="U11" s="300"/>
+      <c r="V11" s="300"/>
+      <c r="W11" s="300"/>
+      <c r="X11" s="300"/>
       <c r="Y11" s="298"/>
       <c r="Z11" s="298"/>
       <c r="AA11" s="298"/>
@@ -15570,33 +15586,33 @@
       <c r="A12" s="34">
         <v>3</v>
       </c>
-      <c r="B12" s="302" t="s">
+      <c r="B12" s="307" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="300"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="300"/>
-      <c r="H12" s="300"/>
-      <c r="I12" s="300"/>
-      <c r="J12" s="299" t="s">
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="308"/>
+      <c r="G12" s="308"/>
+      <c r="H12" s="308"/>
+      <c r="I12" s="308"/>
+      <c r="J12" s="300" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
-      <c r="N12" s="299"/>
-      <c r="O12" s="299"/>
-      <c r="P12" s="299"/>
-      <c r="Q12" s="299"/>
-      <c r="R12" s="299"/>
-      <c r="S12" s="299"/>
-      <c r="T12" s="299"/>
-      <c r="U12" s="299"/>
-      <c r="V12" s="299"/>
-      <c r="W12" s="299"/>
-      <c r="X12" s="299"/>
+      <c r="K12" s="300"/>
+      <c r="L12" s="300"/>
+      <c r="M12" s="300"/>
+      <c r="N12" s="300"/>
+      <c r="O12" s="300"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="300"/>
+      <c r="R12" s="300"/>
+      <c r="S12" s="300"/>
+      <c r="T12" s="300"/>
+      <c r="U12" s="300"/>
+      <c r="V12" s="300"/>
+      <c r="W12" s="300"/>
+      <c r="X12" s="300"/>
       <c r="Y12" s="298"/>
       <c r="Z12" s="298"/>
       <c r="AA12" s="298"/>
@@ -15648,33 +15664,33 @@
       <c r="A13" s="34">
         <v>4</v>
       </c>
-      <c r="B13" s="304" t="s">
+      <c r="B13" s="309" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="305"/>
-      <c r="D13" s="305"/>
-      <c r="E13" s="305"/>
-      <c r="F13" s="305"/>
-      <c r="G13" s="305"/>
-      <c r="H13" s="305"/>
-      <c r="I13" s="306"/>
-      <c r="J13" s="299" t="s">
+      <c r="C13" s="310"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="311"/>
+      <c r="J13" s="300" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="299"/>
-      <c r="L13" s="299"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="299"/>
-      <c r="O13" s="299"/>
-      <c r="P13" s="299"/>
-      <c r="Q13" s="299"/>
-      <c r="R13" s="299"/>
-      <c r="S13" s="299"/>
-      <c r="T13" s="299"/>
-      <c r="U13" s="299"/>
-      <c r="V13" s="299"/>
-      <c r="W13" s="299"/>
-      <c r="X13" s="299"/>
+      <c r="K13" s="300"/>
+      <c r="L13" s="300"/>
+      <c r="M13" s="300"/>
+      <c r="N13" s="300"/>
+      <c r="O13" s="300"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="300"/>
+      <c r="R13" s="300"/>
+      <c r="S13" s="300"/>
+      <c r="T13" s="300"/>
+      <c r="U13" s="300"/>
+      <c r="V13" s="300"/>
+      <c r="W13" s="300"/>
+      <c r="X13" s="300"/>
       <c r="Y13" s="298"/>
       <c r="Z13" s="298"/>
       <c r="AA13" s="298"/>
@@ -15726,33 +15742,33 @@
       <c r="A14" s="34">
         <v>5</v>
       </c>
-      <c r="B14" s="302" t="s">
+      <c r="B14" s="307" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="300"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="300"/>
-      <c r="H14" s="300"/>
-      <c r="I14" s="300"/>
-      <c r="J14" s="299" t="s">
+      <c r="C14" s="308"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="308"/>
+      <c r="F14" s="308"/>
+      <c r="G14" s="308"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="308"/>
+      <c r="J14" s="300" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="299"/>
-      <c r="P14" s="299"/>
-      <c r="Q14" s="299"/>
-      <c r="R14" s="299"/>
-      <c r="S14" s="299"/>
-      <c r="T14" s="299"/>
-      <c r="U14" s="299"/>
-      <c r="V14" s="299"/>
-      <c r="W14" s="299"/>
-      <c r="X14" s="299"/>
+      <c r="K14" s="300"/>
+      <c r="L14" s="300"/>
+      <c r="M14" s="300"/>
+      <c r="N14" s="300"/>
+      <c r="O14" s="300"/>
+      <c r="P14" s="300"/>
+      <c r="Q14" s="300"/>
+      <c r="R14" s="300"/>
+      <c r="S14" s="300"/>
+      <c r="T14" s="300"/>
+      <c r="U14" s="300"/>
+      <c r="V14" s="300"/>
+      <c r="W14" s="300"/>
+      <c r="X14" s="300"/>
       <c r="Y14" s="298"/>
       <c r="Z14" s="298"/>
       <c r="AA14" s="298"/>
@@ -15804,33 +15820,33 @@
       <c r="A15" s="34">
         <v>6</v>
       </c>
-      <c r="B15" s="302" t="s">
+      <c r="B15" s="307" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="300"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="300"/>
-      <c r="H15" s="300"/>
-      <c r="I15" s="300"/>
-      <c r="J15" s="299" t="s">
+      <c r="C15" s="308"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="308"/>
+      <c r="J15" s="300" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="299"/>
-      <c r="P15" s="299"/>
-      <c r="Q15" s="299"/>
-      <c r="R15" s="299"/>
-      <c r="S15" s="299"/>
-      <c r="T15" s="299"/>
-      <c r="U15" s="299"/>
-      <c r="V15" s="299"/>
-      <c r="W15" s="299"/>
-      <c r="X15" s="299"/>
+      <c r="K15" s="300"/>
+      <c r="L15" s="300"/>
+      <c r="M15" s="300"/>
+      <c r="N15" s="300"/>
+      <c r="O15" s="300"/>
+      <c r="P15" s="300"/>
+      <c r="Q15" s="300"/>
+      <c r="R15" s="300"/>
+      <c r="S15" s="300"/>
+      <c r="T15" s="300"/>
+      <c r="U15" s="300"/>
+      <c r="V15" s="300"/>
+      <c r="W15" s="300"/>
+      <c r="X15" s="300"/>
       <c r="Y15" s="298"/>
       <c r="Z15" s="298"/>
       <c r="AA15" s="298"/>
@@ -15882,33 +15898,33 @@
       <c r="A16" s="34">
         <v>7</v>
       </c>
-      <c r="B16" s="300" t="s">
+      <c r="B16" s="308" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
-      <c r="J16" s="301" t="s">
+      <c r="C16" s="308"/>
+      <c r="D16" s="308"/>
+      <c r="E16" s="308"/>
+      <c r="F16" s="308"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="308"/>
+      <c r="J16" s="312" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="301"/>
-      <c r="L16" s="301"/>
-      <c r="M16" s="301"/>
-      <c r="N16" s="301"/>
-      <c r="O16" s="301"/>
-      <c r="P16" s="301"/>
-      <c r="Q16" s="301"/>
-      <c r="R16" s="301"/>
-      <c r="S16" s="301"/>
-      <c r="T16" s="301"/>
-      <c r="U16" s="301"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="301"/>
-      <c r="X16" s="301"/>
+      <c r="K16" s="312"/>
+      <c r="L16" s="312"/>
+      <c r="M16" s="312"/>
+      <c r="N16" s="312"/>
+      <c r="O16" s="312"/>
+      <c r="P16" s="312"/>
+      <c r="Q16" s="312"/>
+      <c r="R16" s="312"/>
+      <c r="S16" s="312"/>
+      <c r="T16" s="312"/>
+      <c r="U16" s="312"/>
+      <c r="V16" s="312"/>
+      <c r="W16" s="312"/>
+      <c r="X16" s="312"/>
       <c r="Y16" s="298"/>
       <c r="Z16" s="298"/>
       <c r="AA16" s="298"/>
@@ -15960,33 +15976,33 @@
       <c r="A17" s="34">
         <v>8</v>
       </c>
-      <c r="B17" s="300" t="s">
+      <c r="B17" s="308" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="300"/>
-      <c r="D17" s="300"/>
-      <c r="E17" s="300"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="300"/>
-      <c r="H17" s="300"/>
-      <c r="I17" s="300"/>
-      <c r="J17" s="301" t="s">
+      <c r="C17" s="308"/>
+      <c r="D17" s="308"/>
+      <c r="E17" s="308"/>
+      <c r="F17" s="308"/>
+      <c r="G17" s="308"/>
+      <c r="H17" s="308"/>
+      <c r="I17" s="308"/>
+      <c r="J17" s="312" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="301"/>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
+      <c r="K17" s="312"/>
+      <c r="L17" s="312"/>
+      <c r="M17" s="312"/>
+      <c r="N17" s="312"/>
+      <c r="O17" s="312"/>
+      <c r="P17" s="312"/>
+      <c r="Q17" s="312"/>
+      <c r="R17" s="312"/>
+      <c r="S17" s="312"/>
+      <c r="T17" s="312"/>
+      <c r="U17" s="312"/>
+      <c r="V17" s="312"/>
+      <c r="W17" s="312"/>
+      <c r="X17" s="312"/>
       <c r="Y17" s="298"/>
       <c r="Z17" s="298"/>
       <c r="AA17" s="298"/>
@@ -16038,33 +16054,33 @@
       <c r="A18" s="34">
         <v>9</v>
       </c>
-      <c r="B18" s="300" t="s">
+      <c r="B18" s="308" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="300"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="300"/>
-      <c r="F18" s="300"/>
-      <c r="G18" s="300"/>
-      <c r="H18" s="300"/>
-      <c r="I18" s="300"/>
-      <c r="J18" s="301" t="s">
+      <c r="C18" s="308"/>
+      <c r="D18" s="308"/>
+      <c r="E18" s="308"/>
+      <c r="F18" s="308"/>
+      <c r="G18" s="308"/>
+      <c r="H18" s="308"/>
+      <c r="I18" s="308"/>
+      <c r="J18" s="312" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="301"/>
-      <c r="L18" s="301"/>
-      <c r="M18" s="301"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="301"/>
-      <c r="P18" s="301"/>
-      <c r="Q18" s="301"/>
-      <c r="R18" s="301"/>
-      <c r="S18" s="301"/>
-      <c r="T18" s="301"/>
-      <c r="U18" s="301"/>
-      <c r="V18" s="301"/>
-      <c r="W18" s="301"/>
-      <c r="X18" s="301"/>
+      <c r="K18" s="312"/>
+      <c r="L18" s="312"/>
+      <c r="M18" s="312"/>
+      <c r="N18" s="312"/>
+      <c r="O18" s="312"/>
+      <c r="P18" s="312"/>
+      <c r="Q18" s="312"/>
+      <c r="R18" s="312"/>
+      <c r="S18" s="312"/>
+      <c r="T18" s="312"/>
+      <c r="U18" s="312"/>
+      <c r="V18" s="312"/>
+      <c r="W18" s="312"/>
+      <c r="X18" s="312"/>
       <c r="Y18" s="298"/>
       <c r="Z18" s="298"/>
       <c r="AA18" s="298"/>
@@ -16674,49 +16690,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
     <mergeCell ref="AC16:AI16"/>
     <mergeCell ref="J14:X14"/>
     <mergeCell ref="AC18:AI18"/>
@@ -16733,6 +16706,49 @@
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -16762,157 +16778,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="229" t="s">
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="236" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="208" t="str">
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="226" t="s">
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="205">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
     </row>
     <row r="2" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="234"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="226" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="228"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
     </row>
     <row r="3" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="228"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="243"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="223"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -16921,53 +16937,53 @@
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="307" t="s">
+      <c r="B8" s="301" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="308"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="308"/>
-      <c r="G8" s="308"/>
-      <c r="H8" s="308"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="307" t="s">
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="303"/>
+      <c r="J8" s="301" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="308"/>
-      <c r="L8" s="308"/>
-      <c r="M8" s="308"/>
-      <c r="N8" s="308"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="308"/>
-      <c r="R8" s="308"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="308"/>
-      <c r="V8" s="308"/>
-      <c r="W8" s="308"/>
-      <c r="X8" s="309"/>
-      <c r="Y8" s="268" t="s">
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="302"/>
+      <c r="O8" s="302"/>
+      <c r="P8" s="302"/>
+      <c r="Q8" s="302"/>
+      <c r="R8" s="302"/>
+      <c r="S8" s="302"/>
+      <c r="T8" s="302"/>
+      <c r="U8" s="302"/>
+      <c r="V8" s="302"/>
+      <c r="W8" s="302"/>
+      <c r="X8" s="303"/>
+      <c r="Y8" s="286" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
-      <c r="AI8" s="268"/>
+      <c r="Z8" s="286"/>
+      <c r="AA8" s="286"/>
+      <c r="AB8" s="286"/>
+      <c r="AC8" s="286"/>
+      <c r="AD8" s="286"/>
+      <c r="AE8" s="286"/>
+      <c r="AF8" s="286"/>
+      <c r="AG8" s="286"/>
+      <c r="AH8" s="286"/>
+      <c r="AI8" s="286"/>
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32"/>
@@ -17005,45 +17021,45 @@
       <c r="BR8" s="32"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
-      <c r="B9" s="310"/>
-      <c r="C9" s="311"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
-      <c r="I9" s="312"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="311"/>
-      <c r="N9" s="311"/>
-      <c r="O9" s="311"/>
-      <c r="P9" s="311"/>
-      <c r="Q9" s="311"/>
-      <c r="R9" s="311"/>
-      <c r="S9" s="311"/>
-      <c r="T9" s="311"/>
-      <c r="U9" s="311"/>
-      <c r="V9" s="311"/>
-      <c r="W9" s="311"/>
-      <c r="X9" s="312"/>
-      <c r="Y9" s="268" t="s">
+      <c r="A9" s="221"/>
+      <c r="B9" s="304"/>
+      <c r="C9" s="305"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="304"/>
+      <c r="K9" s="305"/>
+      <c r="L9" s="305"/>
+      <c r="M9" s="305"/>
+      <c r="N9" s="305"/>
+      <c r="O9" s="305"/>
+      <c r="P9" s="305"/>
+      <c r="Q9" s="305"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="305"/>
+      <c r="T9" s="305"/>
+      <c r="U9" s="305"/>
+      <c r="V9" s="305"/>
+      <c r="W9" s="305"/>
+      <c r="X9" s="306"/>
+      <c r="Y9" s="286" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="268" t="s">
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="286"/>
+      <c r="AB9" s="286"/>
+      <c r="AC9" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="268"/>
-      <c r="AF9" s="268"/>
-      <c r="AG9" s="268"/>
-      <c r="AH9" s="268"/>
-      <c r="AI9" s="268"/>
+      <c r="AD9" s="286"/>
+      <c r="AE9" s="286"/>
+      <c r="AF9" s="286"/>
+      <c r="AG9" s="286"/>
+      <c r="AH9" s="286"/>
+      <c r="AI9" s="286"/>
       <c r="AJ9" s="32"/>
       <c r="AK9" s="32"/>
       <c r="AL9" s="32"/>
@@ -17082,29 +17098,29 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="301"/>
-      <c r="K10" s="301"/>
-      <c r="L10" s="301"/>
-      <c r="M10" s="301"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="301"/>
-      <c r="P10" s="301"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="301"/>
-      <c r="S10" s="301"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="301"/>
-      <c r="V10" s="301"/>
-      <c r="W10" s="301"/>
-      <c r="X10" s="301"/>
+      <c r="B10" s="300"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="300"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="300"/>
+      <c r="H10" s="300"/>
+      <c r="I10" s="300"/>
+      <c r="J10" s="312"/>
+      <c r="K10" s="312"/>
+      <c r="L10" s="312"/>
+      <c r="M10" s="312"/>
+      <c r="N10" s="312"/>
+      <c r="O10" s="312"/>
+      <c r="P10" s="312"/>
+      <c r="Q10" s="312"/>
+      <c r="R10" s="312"/>
+      <c r="S10" s="312"/>
+      <c r="T10" s="312"/>
+      <c r="U10" s="312"/>
+      <c r="V10" s="312"/>
+      <c r="W10" s="312"/>
+      <c r="X10" s="312"/>
       <c r="Y10" s="298"/>
       <c r="Z10" s="298"/>
       <c r="AA10" s="298"/>
@@ -17154,29 +17170,29 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
-      <c r="B11" s="299"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="299"/>
-      <c r="H11" s="299"/>
-      <c r="I11" s="299"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="299"/>
-      <c r="L11" s="299"/>
-      <c r="M11" s="299"/>
-      <c r="N11" s="299"/>
-      <c r="O11" s="299"/>
-      <c r="P11" s="299"/>
-      <c r="Q11" s="299"/>
-      <c r="R11" s="299"/>
-      <c r="S11" s="299"/>
-      <c r="T11" s="299"/>
-      <c r="U11" s="299"/>
-      <c r="V11" s="299"/>
-      <c r="W11" s="299"/>
-      <c r="X11" s="299"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="300"/>
+      <c r="H11" s="300"/>
+      <c r="I11" s="300"/>
+      <c r="J11" s="300"/>
+      <c r="K11" s="300"/>
+      <c r="L11" s="300"/>
+      <c r="M11" s="300"/>
+      <c r="N11" s="300"/>
+      <c r="O11" s="300"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="300"/>
+      <c r="R11" s="300"/>
+      <c r="S11" s="300"/>
+      <c r="T11" s="300"/>
+      <c r="U11" s="300"/>
+      <c r="V11" s="300"/>
+      <c r="W11" s="300"/>
+      <c r="X11" s="300"/>
       <c r="Y11" s="298"/>
       <c r="Z11" s="298"/>
       <c r="AA11" s="298"/>
@@ -17226,29 +17242,29 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
-      <c r="B12" s="299"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
-      <c r="G12" s="299"/>
-      <c r="H12" s="299"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
-      <c r="N12" s="299"/>
-      <c r="O12" s="299"/>
-      <c r="P12" s="299"/>
-      <c r="Q12" s="299"/>
-      <c r="R12" s="299"/>
-      <c r="S12" s="299"/>
-      <c r="T12" s="299"/>
-      <c r="U12" s="299"/>
-      <c r="V12" s="299"/>
-      <c r="W12" s="299"/>
-      <c r="X12" s="299"/>
+      <c r="B12" s="300"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="300"/>
+      <c r="E12" s="300"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="300"/>
+      <c r="H12" s="300"/>
+      <c r="I12" s="300"/>
+      <c r="J12" s="300"/>
+      <c r="K12" s="300"/>
+      <c r="L12" s="300"/>
+      <c r="M12" s="300"/>
+      <c r="N12" s="300"/>
+      <c r="O12" s="300"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="300"/>
+      <c r="R12" s="300"/>
+      <c r="S12" s="300"/>
+      <c r="T12" s="300"/>
+      <c r="U12" s="300"/>
+      <c r="V12" s="300"/>
+      <c r="W12" s="300"/>
+      <c r="X12" s="300"/>
       <c r="Y12" s="298"/>
       <c r="Z12" s="298"/>
       <c r="AA12" s="298"/>
@@ -17298,29 +17314,29 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
-      <c r="B13" s="299"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="299"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="299"/>
-      <c r="O13" s="299"/>
-      <c r="P13" s="299"/>
-      <c r="Q13" s="299"/>
-      <c r="R13" s="299"/>
-      <c r="S13" s="299"/>
-      <c r="T13" s="299"/>
-      <c r="U13" s="299"/>
-      <c r="V13" s="299"/>
-      <c r="W13" s="299"/>
-      <c r="X13" s="299"/>
+      <c r="B13" s="300"/>
+      <c r="C13" s="300"/>
+      <c r="D13" s="300"/>
+      <c r="E13" s="300"/>
+      <c r="F13" s="300"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="300"/>
+      <c r="K13" s="300"/>
+      <c r="L13" s="300"/>
+      <c r="M13" s="300"/>
+      <c r="N13" s="300"/>
+      <c r="O13" s="300"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="300"/>
+      <c r="R13" s="300"/>
+      <c r="S13" s="300"/>
+      <c r="T13" s="300"/>
+      <c r="U13" s="300"/>
+      <c r="V13" s="300"/>
+      <c r="W13" s="300"/>
+      <c r="X13" s="300"/>
       <c r="Y13" s="298"/>
       <c r="Z13" s="298"/>
       <c r="AA13" s="298"/>
@@ -17370,29 +17386,29 @@
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
-      <c r="B14" s="302"/>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="300"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="300"/>
-      <c r="H14" s="300"/>
-      <c r="I14" s="300"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="299"/>
-      <c r="P14" s="299"/>
-      <c r="Q14" s="299"/>
-      <c r="R14" s="299"/>
-      <c r="S14" s="299"/>
-      <c r="T14" s="299"/>
-      <c r="U14" s="299"/>
-      <c r="V14" s="299"/>
-      <c r="W14" s="299"/>
-      <c r="X14" s="299"/>
+      <c r="B14" s="307"/>
+      <c r="C14" s="308"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="308"/>
+      <c r="F14" s="308"/>
+      <c r="G14" s="308"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="308"/>
+      <c r="J14" s="300"/>
+      <c r="K14" s="300"/>
+      <c r="L14" s="300"/>
+      <c r="M14" s="300"/>
+      <c r="N14" s="300"/>
+      <c r="O14" s="300"/>
+      <c r="P14" s="300"/>
+      <c r="Q14" s="300"/>
+      <c r="R14" s="300"/>
+      <c r="S14" s="300"/>
+      <c r="T14" s="300"/>
+      <c r="U14" s="300"/>
+      <c r="V14" s="300"/>
+      <c r="W14" s="300"/>
+      <c r="X14" s="300"/>
       <c r="Y14" s="298"/>
       <c r="Z14" s="298"/>
       <c r="AA14" s="298"/>
@@ -17442,29 +17458,29 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
-      <c r="B15" s="304"/>
-      <c r="C15" s="305"/>
-      <c r="D15" s="305"/>
-      <c r="E15" s="305"/>
-      <c r="F15" s="305"/>
-      <c r="G15" s="305"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="306"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="299"/>
-      <c r="P15" s="299"/>
-      <c r="Q15" s="299"/>
-      <c r="R15" s="299"/>
-      <c r="S15" s="299"/>
-      <c r="T15" s="299"/>
-      <c r="U15" s="299"/>
-      <c r="V15" s="299"/>
-      <c r="W15" s="299"/>
-      <c r="X15" s="299"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="310"/>
+      <c r="H15" s="310"/>
+      <c r="I15" s="311"/>
+      <c r="J15" s="300"/>
+      <c r="K15" s="300"/>
+      <c r="L15" s="300"/>
+      <c r="M15" s="300"/>
+      <c r="N15" s="300"/>
+      <c r="O15" s="300"/>
+      <c r="P15" s="300"/>
+      <c r="Q15" s="300"/>
+      <c r="R15" s="300"/>
+      <c r="S15" s="300"/>
+      <c r="T15" s="300"/>
+      <c r="U15" s="300"/>
+      <c r="V15" s="300"/>
+      <c r="W15" s="300"/>
+      <c r="X15" s="300"/>
       <c r="Y15" s="298"/>
       <c r="Z15" s="298"/>
       <c r="AA15" s="298"/>
@@ -17514,29 +17530,29 @@
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="302"/>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="299"/>
-      <c r="M16" s="299"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="299"/>
-      <c r="P16" s="299"/>
-      <c r="Q16" s="299"/>
-      <c r="R16" s="299"/>
-      <c r="S16" s="299"/>
-      <c r="T16" s="299"/>
-      <c r="U16" s="299"/>
-      <c r="V16" s="299"/>
-      <c r="W16" s="299"/>
-      <c r="X16" s="299"/>
+      <c r="B16" s="307"/>
+      <c r="C16" s="308"/>
+      <c r="D16" s="308"/>
+      <c r="E16" s="308"/>
+      <c r="F16" s="308"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="308"/>
+      <c r="J16" s="300"/>
+      <c r="K16" s="300"/>
+      <c r="L16" s="300"/>
+      <c r="M16" s="300"/>
+      <c r="N16" s="300"/>
+      <c r="O16" s="300"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="300"/>
+      <c r="R16" s="300"/>
+      <c r="S16" s="300"/>
+      <c r="T16" s="300"/>
+      <c r="U16" s="300"/>
+      <c r="V16" s="300"/>
+      <c r="W16" s="300"/>
+      <c r="X16" s="300"/>
       <c r="Y16" s="298"/>
       <c r="Z16" s="298"/>
       <c r="AA16" s="298"/>
@@ -17586,29 +17602,29 @@
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="302"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="299"/>
-      <c r="M17" s="299"/>
-      <c r="N17" s="299"/>
-      <c r="O17" s="299"/>
-      <c r="P17" s="299"/>
-      <c r="Q17" s="299"/>
-      <c r="R17" s="299"/>
-      <c r="S17" s="299"/>
-      <c r="T17" s="299"/>
-      <c r="U17" s="299"/>
-      <c r="V17" s="299"/>
-      <c r="W17" s="299"/>
-      <c r="X17" s="299"/>
+      <c r="B17" s="307"/>
+      <c r="C17" s="307"/>
+      <c r="D17" s="307"/>
+      <c r="E17" s="307"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="307"/>
+      <c r="H17" s="307"/>
+      <c r="I17" s="307"/>
+      <c r="J17" s="300"/>
+      <c r="K17" s="300"/>
+      <c r="L17" s="300"/>
+      <c r="M17" s="300"/>
+      <c r="N17" s="300"/>
+      <c r="O17" s="300"/>
+      <c r="P17" s="300"/>
+      <c r="Q17" s="300"/>
+      <c r="R17" s="300"/>
+      <c r="S17" s="300"/>
+      <c r="T17" s="300"/>
+      <c r="U17" s="300"/>
+      <c r="V17" s="300"/>
+      <c r="W17" s="300"/>
+      <c r="X17" s="300"/>
       <c r="Y17" s="298"/>
       <c r="Z17" s="298"/>
       <c r="AA17" s="298"/>
@@ -17658,29 +17674,29 @@
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
-      <c r="B18" s="299"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="299"/>
-      <c r="M18" s="299"/>
-      <c r="N18" s="299"/>
-      <c r="O18" s="299"/>
-      <c r="P18" s="299"/>
-      <c r="Q18" s="299"/>
-      <c r="R18" s="299"/>
-      <c r="S18" s="299"/>
-      <c r="T18" s="299"/>
-      <c r="U18" s="299"/>
-      <c r="V18" s="299"/>
-      <c r="W18" s="299"/>
-      <c r="X18" s="299"/>
+      <c r="B18" s="300"/>
+      <c r="C18" s="300"/>
+      <c r="D18" s="300"/>
+      <c r="E18" s="300"/>
+      <c r="F18" s="300"/>
+      <c r="G18" s="300"/>
+      <c r="H18" s="300"/>
+      <c r="I18" s="300"/>
+      <c r="J18" s="300"/>
+      <c r="K18" s="300"/>
+      <c r="L18" s="300"/>
+      <c r="M18" s="300"/>
+      <c r="N18" s="300"/>
+      <c r="O18" s="300"/>
+      <c r="P18" s="300"/>
+      <c r="Q18" s="300"/>
+      <c r="R18" s="300"/>
+      <c r="S18" s="300"/>
+      <c r="T18" s="300"/>
+      <c r="U18" s="300"/>
+      <c r="V18" s="300"/>
+      <c r="W18" s="300"/>
+      <c r="X18" s="300"/>
       <c r="Y18" s="298"/>
       <c r="Z18" s="298"/>
       <c r="AA18" s="298"/>
@@ -17730,29 +17746,29 @@
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="299"/>
-      <c r="O19" s="299"/>
-      <c r="P19" s="299"/>
-      <c r="Q19" s="299"/>
-      <c r="R19" s="299"/>
-      <c r="S19" s="299"/>
-      <c r="T19" s="299"/>
-      <c r="U19" s="299"/>
-      <c r="V19" s="299"/>
-      <c r="W19" s="299"/>
-      <c r="X19" s="299"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="300"/>
+      <c r="J19" s="300"/>
+      <c r="K19" s="300"/>
+      <c r="L19" s="300"/>
+      <c r="M19" s="300"/>
+      <c r="N19" s="300"/>
+      <c r="O19" s="300"/>
+      <c r="P19" s="300"/>
+      <c r="Q19" s="300"/>
+      <c r="R19" s="300"/>
+      <c r="S19" s="300"/>
+      <c r="T19" s="300"/>
+      <c r="U19" s="300"/>
+      <c r="V19" s="300"/>
+      <c r="W19" s="300"/>
+      <c r="X19" s="300"/>
       <c r="Y19" s="298"/>
       <c r="Z19" s="298"/>
       <c r="AA19" s="298"/>
@@ -17802,29 +17818,29 @@
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
-      <c r="B20" s="301"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="299"/>
-      <c r="L20" s="299"/>
-      <c r="M20" s="299"/>
-      <c r="N20" s="299"/>
-      <c r="O20" s="299"/>
-      <c r="P20" s="299"/>
-      <c r="Q20" s="299"/>
-      <c r="R20" s="299"/>
-      <c r="S20" s="299"/>
-      <c r="T20" s="299"/>
-      <c r="U20" s="299"/>
-      <c r="V20" s="299"/>
-      <c r="W20" s="299"/>
-      <c r="X20" s="299"/>
+      <c r="B20" s="312"/>
+      <c r="C20" s="300"/>
+      <c r="D20" s="300"/>
+      <c r="E20" s="300"/>
+      <c r="F20" s="300"/>
+      <c r="G20" s="300"/>
+      <c r="H20" s="300"/>
+      <c r="I20" s="300"/>
+      <c r="J20" s="300"/>
+      <c r="K20" s="300"/>
+      <c r="L20" s="300"/>
+      <c r="M20" s="300"/>
+      <c r="N20" s="300"/>
+      <c r="O20" s="300"/>
+      <c r="P20" s="300"/>
+      <c r="Q20" s="300"/>
+      <c r="R20" s="300"/>
+      <c r="S20" s="300"/>
+      <c r="T20" s="300"/>
+      <c r="U20" s="300"/>
+      <c r="V20" s="300"/>
+      <c r="W20" s="300"/>
+      <c r="X20" s="300"/>
       <c r="Y20" s="298"/>
       <c r="Z20" s="298"/>
       <c r="AA20" s="298"/>
@@ -17839,29 +17855,29 @@
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
-      <c r="B21" s="301"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
-      <c r="K21" s="299"/>
-      <c r="L21" s="299"/>
-      <c r="M21" s="299"/>
-      <c r="N21" s="299"/>
-      <c r="O21" s="299"/>
-      <c r="P21" s="299"/>
-      <c r="Q21" s="299"/>
-      <c r="R21" s="299"/>
-      <c r="S21" s="299"/>
-      <c r="T21" s="299"/>
-      <c r="U21" s="299"/>
-      <c r="V21" s="299"/>
-      <c r="W21" s="299"/>
-      <c r="X21" s="299"/>
+      <c r="B21" s="312"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
+      <c r="F21" s="300"/>
+      <c r="G21" s="300"/>
+      <c r="H21" s="300"/>
+      <c r="I21" s="300"/>
+      <c r="J21" s="300"/>
+      <c r="K21" s="300"/>
+      <c r="L21" s="300"/>
+      <c r="M21" s="300"/>
+      <c r="N21" s="300"/>
+      <c r="O21" s="300"/>
+      <c r="P21" s="300"/>
+      <c r="Q21" s="300"/>
+      <c r="R21" s="300"/>
+      <c r="S21" s="300"/>
+      <c r="T21" s="300"/>
+      <c r="U21" s="300"/>
+      <c r="V21" s="300"/>
+      <c r="W21" s="300"/>
+      <c r="X21" s="300"/>
       <c r="Y21" s="298"/>
       <c r="Z21" s="298"/>
       <c r="AA21" s="298"/>
@@ -17876,29 +17892,29 @@
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
-      <c r="B22" s="301"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
-      <c r="K22" s="299"/>
-      <c r="L22" s="299"/>
-      <c r="M22" s="299"/>
-      <c r="N22" s="299"/>
-      <c r="O22" s="299"/>
-      <c r="P22" s="299"/>
-      <c r="Q22" s="299"/>
-      <c r="R22" s="299"/>
-      <c r="S22" s="299"/>
-      <c r="T22" s="299"/>
-      <c r="U22" s="299"/>
-      <c r="V22" s="299"/>
-      <c r="W22" s="299"/>
-      <c r="X22" s="299"/>
+      <c r="B22" s="312"/>
+      <c r="C22" s="300"/>
+      <c r="D22" s="300"/>
+      <c r="E22" s="300"/>
+      <c r="F22" s="300"/>
+      <c r="G22" s="300"/>
+      <c r="H22" s="300"/>
+      <c r="I22" s="300"/>
+      <c r="J22" s="300"/>
+      <c r="K22" s="300"/>
+      <c r="L22" s="300"/>
+      <c r="M22" s="300"/>
+      <c r="N22" s="300"/>
+      <c r="O22" s="300"/>
+      <c r="P22" s="300"/>
+      <c r="Q22" s="300"/>
+      <c r="R22" s="300"/>
+      <c r="S22" s="300"/>
+      <c r="T22" s="300"/>
+      <c r="U22" s="300"/>
+      <c r="V22" s="300"/>
+      <c r="W22" s="300"/>
+      <c r="X22" s="300"/>
       <c r="Y22" s="298"/>
       <c r="Z22" s="298"/>
       <c r="AA22" s="298"/>
@@ -17913,29 +17929,29 @@
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="301"/>
-      <c r="K23" s="301"/>
-      <c r="L23" s="301"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="301"/>
-      <c r="T23" s="301"/>
-      <c r="U23" s="301"/>
-      <c r="V23" s="301"/>
-      <c r="W23" s="301"/>
-      <c r="X23" s="301"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="300"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="300"/>
+      <c r="F23" s="300"/>
+      <c r="G23" s="300"/>
+      <c r="H23" s="300"/>
+      <c r="I23" s="300"/>
+      <c r="J23" s="312"/>
+      <c r="K23" s="312"/>
+      <c r="L23" s="312"/>
+      <c r="M23" s="312"/>
+      <c r="N23" s="312"/>
+      <c r="O23" s="312"/>
+      <c r="P23" s="312"/>
+      <c r="Q23" s="312"/>
+      <c r="R23" s="312"/>
+      <c r="S23" s="312"/>
+      <c r="T23" s="312"/>
+      <c r="U23" s="312"/>
+      <c r="V23" s="312"/>
+      <c r="W23" s="312"/>
+      <c r="X23" s="312"/>
       <c r="Y23" s="298"/>
       <c r="Z23" s="298"/>
       <c r="AA23" s="298"/>
@@ -17950,29 +17966,29 @@
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301"/>
-      <c r="L24" s="301"/>
-      <c r="M24" s="301"/>
-      <c r="N24" s="301"/>
-      <c r="O24" s="301"/>
-      <c r="P24" s="301"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="301"/>
-      <c r="S24" s="301"/>
-      <c r="T24" s="301"/>
-      <c r="U24" s="301"/>
-      <c r="V24" s="301"/>
-      <c r="W24" s="301"/>
-      <c r="X24" s="301"/>
+      <c r="B24" s="300"/>
+      <c r="C24" s="300"/>
+      <c r="D24" s="300"/>
+      <c r="E24" s="300"/>
+      <c r="F24" s="300"/>
+      <c r="G24" s="300"/>
+      <c r="H24" s="300"/>
+      <c r="I24" s="300"/>
+      <c r="J24" s="312"/>
+      <c r="K24" s="312"/>
+      <c r="L24" s="312"/>
+      <c r="M24" s="312"/>
+      <c r="N24" s="312"/>
+      <c r="O24" s="312"/>
+      <c r="P24" s="312"/>
+      <c r="Q24" s="312"/>
+      <c r="R24" s="312"/>
+      <c r="S24" s="312"/>
+      <c r="T24" s="312"/>
+      <c r="U24" s="312"/>
+      <c r="V24" s="312"/>
+      <c r="W24" s="312"/>
+      <c r="X24" s="312"/>
       <c r="Y24" s="298"/>
       <c r="Z24" s="298"/>
       <c r="AA24" s="298"/>
@@ -17987,29 +18003,29 @@
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
-      <c r="I25" s="299"/>
-      <c r="J25" s="301"/>
-      <c r="K25" s="301"/>
-      <c r="L25" s="301"/>
-      <c r="M25" s="301"/>
-      <c r="N25" s="301"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="301"/>
-      <c r="T25" s="301"/>
-      <c r="U25" s="301"/>
-      <c r="V25" s="301"/>
-      <c r="W25" s="301"/>
-      <c r="X25" s="301"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="300"/>
+      <c r="D25" s="300"/>
+      <c r="E25" s="300"/>
+      <c r="F25" s="300"/>
+      <c r="G25" s="300"/>
+      <c r="H25" s="300"/>
+      <c r="I25" s="300"/>
+      <c r="J25" s="312"/>
+      <c r="K25" s="312"/>
+      <c r="L25" s="312"/>
+      <c r="M25" s="312"/>
+      <c r="N25" s="312"/>
+      <c r="O25" s="312"/>
+      <c r="P25" s="312"/>
+      <c r="Q25" s="312"/>
+      <c r="R25" s="312"/>
+      <c r="S25" s="312"/>
+      <c r="T25" s="312"/>
+      <c r="U25" s="312"/>
+      <c r="V25" s="312"/>
+      <c r="W25" s="312"/>
+      <c r="X25" s="312"/>
       <c r="Y25" s="298"/>
       <c r="Z25" s="298"/>
       <c r="AA25" s="298"/>
@@ -18024,50 +18040,33 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AC1:AF1"/>
@@ -18084,33 +18083,50 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Customer_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/070_Data_Model_Design/Domain_Definition_B1_Customer_Management_System.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A674EF-2EEF-4A85-95E5-D265FEE9C0C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCCE25-BDF7-4189-A1DB-0804342718B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2490" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2970" windowWidth="24000" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -1718,7 +1718,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1988,6 +1988,138 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1997,10 +2129,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2012,166 +2174,58 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2183,21 +2237,6 @@
     <xf numFmtId="177" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2225,134 +2264,238 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2362,77 +2505,10 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2445,10 +2521,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2458,95 +2530,41 @@
     <xf numFmtId="0" fontId="37" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2572,23 +2590,17 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -9102,57 +9114,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="183" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="171" t="s">
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="139" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="128" t="s">
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="130" t="str">
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="184" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="133">
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="141">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="135"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="143"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -9160,53 +9172,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="183" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="128" t="s">
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="133" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="141" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="135"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="143"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -9214,43 +9226,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="133"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="135"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="185"/>
+      <c r="AE3" s="185"/>
+      <c r="AF3" s="186"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="143"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -9389,52 +9401,52 @@
       <c r="A7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="154" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="154" t="s">
+      <c r="E7" s="149"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="156"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="154" t="s">
+      <c r="H7" s="149"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="154" t="s">
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="156"/>
-      <c r="W7" s="156"/>
-      <c r="X7" s="156"/>
-      <c r="Y7" s="156"/>
-      <c r="Z7" s="156"/>
-      <c r="AA7" s="156"/>
-      <c r="AB7" s="156"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="155"/>
-      <c r="AF7" s="154" t="s">
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="156"/>
-      <c r="AH7" s="156"/>
-      <c r="AI7" s="155"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="148"/>
       <c r="AJ7" s="29"/>
       <c r="AK7" s="29"/>
       <c r="AL7" s="29"/>
@@ -9445,52 +9457,52 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159">
+      <c r="C8" s="151"/>
+      <c r="D8" s="152">
         <v>43718</v>
       </c>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="157" t="s">
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="166" t="s">
+      <c r="H8" s="155"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="167" t="s">
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="168"/>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="168"/>
-      <c r="AB8" s="168"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="168"/>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="163" t="s">
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="AG8" s="164"/>
-      <c r="AH8" s="164"/>
-      <c r="AI8" s="165"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="158"/>
       <c r="AJ8" s="29"/>
       <c r="AK8" s="29"/>
       <c r="AL8" s="29"/>
@@ -9499,40 +9511,40 @@
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="137"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="137"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="137"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="127"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="174"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="171"/>
       <c r="AJ9" s="29"/>
       <c r="AK9" s="29"/>
       <c r="AL9" s="29"/>
@@ -9541,40 +9553,40 @@
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="137"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="127"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="174"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="171"/>
       <c r="AJ10" s="29"/>
       <c r="AK10" s="29"/>
       <c r="AL10" s="29"/>
@@ -9583,40 +9595,40 @@
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="137"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="126"/>
-      <c r="AI11" s="127"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="173"/>
+      <c r="V11" s="173"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="174"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="170"/>
+      <c r="AH11" s="170"/>
+      <c r="AI11" s="171"/>
       <c r="AJ11" s="29"/>
       <c r="AK11" s="29"/>
       <c r="AL11" s="29"/>
@@ -9625,40 +9637,40 @@
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="137"/>
-      <c r="T12" s="137"/>
-      <c r="U12" s="137"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="125"/>
-      <c r="AG12" s="126"/>
-      <c r="AH12" s="126"/>
-      <c r="AI12" s="127"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="173"/>
+      <c r="S12" s="173"/>
+      <c r="T12" s="173"/>
+      <c r="U12" s="173"/>
+      <c r="V12" s="173"/>
+      <c r="W12" s="173"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="174"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="170"/>
+      <c r="AH12" s="170"/>
+      <c r="AI12" s="171"/>
       <c r="AJ12" s="29"/>
       <c r="AK12" s="29"/>
       <c r="AL12" s="29"/>
@@ -9667,40 +9679,40 @@
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="125"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="127"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="173"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="173"/>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="169"/>
+      <c r="AG13" s="170"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="171"/>
       <c r="AJ13" s="29"/>
       <c r="AK13" s="29"/>
       <c r="AL13" s="29"/>
@@ -9709,40 +9721,40 @@
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="127"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="171"/>
+      <c r="Q14" s="172"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="173"/>
+      <c r="T14" s="173"/>
+      <c r="U14" s="173"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="173"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="173"/>
+      <c r="Z14" s="173"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="169"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="171"/>
       <c r="AJ14" s="29"/>
       <c r="AK14" s="29"/>
       <c r="AL14" s="29"/>
@@ -9751,40 +9763,40 @@
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="137"/>
-      <c r="AB15" s="137"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="126"/>
-      <c r="AH15" s="126"/>
-      <c r="AI15" s="127"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="173"/>
+      <c r="T15" s="173"/>
+      <c r="U15" s="173"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="174"/>
+      <c r="AF15" s="169"/>
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="171"/>
       <c r="AJ15" s="29"/>
       <c r="AK15" s="29"/>
       <c r="AL15" s="29"/>
@@ -9793,40 +9805,40 @@
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="127"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="173"/>
+      <c r="V16" s="173"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="173"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="174"/>
+      <c r="AF16" s="169"/>
+      <c r="AG16" s="170"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="171"/>
       <c r="AJ16" s="29"/>
       <c r="AK16" s="29"/>
       <c r="AL16" s="29"/>
@@ -9835,40 +9847,40 @@
     </row>
     <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="138"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="126"/>
-      <c r="AH17" s="126"/>
-      <c r="AI17" s="127"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="173"/>
+      <c r="T17" s="173"/>
+      <c r="U17" s="173"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="173"/>
+      <c r="X17" s="173"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="174"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="170"/>
+      <c r="AH17" s="170"/>
+      <c r="AI17" s="171"/>
       <c r="AJ17" s="29"/>
       <c r="AK17" s="29"/>
       <c r="AL17" s="29"/>
@@ -9877,40 +9889,40 @@
     </row>
     <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="138"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="126"/>
-      <c r="AH18" s="126"/>
-      <c r="AI18" s="127"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="173"/>
+      <c r="S18" s="173"/>
+      <c r="T18" s="173"/>
+      <c r="U18" s="173"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="173"/>
+      <c r="X18" s="173"/>
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="174"/>
+      <c r="AF18" s="169"/>
+      <c r="AG18" s="170"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="171"/>
       <c r="AJ18" s="29"/>
       <c r="AK18" s="29"/>
       <c r="AL18" s="29"/>
@@ -9919,40 +9931,40 @@
     </row>
     <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="137"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="137"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="137"/>
-      <c r="AB19" s="137"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="125"/>
-      <c r="AG19" s="126"/>
-      <c r="AH19" s="126"/>
-      <c r="AI19" s="127"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="171"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="173"/>
+      <c r="T19" s="173"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="173"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="174"/>
+      <c r="AF19" s="169"/>
+      <c r="AG19" s="170"/>
+      <c r="AH19" s="170"/>
+      <c r="AI19" s="171"/>
       <c r="AJ19" s="29"/>
       <c r="AK19" s="29"/>
       <c r="AL19" s="29"/>
@@ -9961,40 +9973,40 @@
     </row>
     <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="137"/>
-      <c r="AA20" s="137"/>
-      <c r="AB20" s="137"/>
-      <c r="AC20" s="137"/>
-      <c r="AD20" s="137"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="125"/>
-      <c r="AG20" s="126"/>
-      <c r="AH20" s="126"/>
-      <c r="AI20" s="127"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="171"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="174"/>
+      <c r="AF20" s="169"/>
+      <c r="AG20" s="170"/>
+      <c r="AH20" s="170"/>
+      <c r="AI20" s="171"/>
       <c r="AJ20" s="29"/>
       <c r="AK20" s="29"/>
       <c r="AL20" s="29"/>
@@ -10003,40 +10015,40 @@
     </row>
     <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="125"/>
-      <c r="AG21" s="126"/>
-      <c r="AH21" s="126"/>
-      <c r="AI21" s="127"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="173"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="174"/>
+      <c r="AF21" s="169"/>
+      <c r="AG21" s="170"/>
+      <c r="AH21" s="170"/>
+      <c r="AI21" s="171"/>
       <c r="AJ21" s="29"/>
       <c r="AK21" s="29"/>
       <c r="AL21" s="29"/>
@@ -10045,40 +10057,40 @@
     </row>
     <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="136"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="137"/>
-      <c r="AB22" s="137"/>
-      <c r="AC22" s="137"/>
-      <c r="AD22" s="137"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="126"/>
-      <c r="AH22" s="126"/>
-      <c r="AI22" s="127"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="171"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="173"/>
+      <c r="T22" s="173"/>
+      <c r="U22" s="173"/>
+      <c r="V22" s="173"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="173"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="174"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="170"/>
+      <c r="AH22" s="170"/>
+      <c r="AI22" s="171"/>
       <c r="AJ22" s="29"/>
       <c r="AK22" s="29"/>
       <c r="AL22" s="29"/>
@@ -10087,40 +10099,40 @@
     </row>
     <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="126"/>
-      <c r="AH23" s="126"/>
-      <c r="AI23" s="127"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="171"/>
+      <c r="Q23" s="172"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="174"/>
+      <c r="AF23" s="169"/>
+      <c r="AG23" s="170"/>
+      <c r="AH23" s="170"/>
+      <c r="AI23" s="171"/>
       <c r="AJ23" s="29"/>
       <c r="AK23" s="29"/>
       <c r="AL23" s="29"/>
@@ -10129,40 +10141,40 @@
     </row>
     <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="136"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="126"/>
-      <c r="AH24" s="126"/>
-      <c r="AI24" s="127"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="174"/>
+      <c r="AF24" s="169"/>
+      <c r="AG24" s="170"/>
+      <c r="AH24" s="170"/>
+      <c r="AI24" s="171"/>
       <c r="AJ24" s="29"/>
       <c r="AK24" s="29"/>
       <c r="AL24" s="29"/>
@@ -10171,40 +10183,40 @@
     </row>
     <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="136"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="125"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="126"/>
-      <c r="AI25" s="127"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="174"/>
+      <c r="AF25" s="169"/>
+      <c r="AG25" s="170"/>
+      <c r="AH25" s="170"/>
+      <c r="AI25" s="171"/>
       <c r="AJ25" s="29"/>
       <c r="AK25" s="29"/>
       <c r="AL25" s="29"/>
@@ -10213,40 +10225,40 @@
     </row>
     <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="136"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="125"/>
-      <c r="AG26" s="126"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="127"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="173"/>
+      <c r="S26" s="173"/>
+      <c r="T26" s="173"/>
+      <c r="U26" s="173"/>
+      <c r="V26" s="173"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="174"/>
+      <c r="AF26" s="169"/>
+      <c r="AG26" s="170"/>
+      <c r="AH26" s="170"/>
+      <c r="AI26" s="171"/>
       <c r="AJ26" s="29"/>
       <c r="AK26" s="29"/>
       <c r="AL26" s="29"/>
@@ -10255,40 +10267,40 @@
     </row>
     <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="125"/>
-      <c r="AG27" s="126"/>
-      <c r="AH27" s="126"/>
-      <c r="AI27" s="127"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="171"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="173"/>
+      <c r="T27" s="173"/>
+      <c r="U27" s="173"/>
+      <c r="V27" s="173"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
+      <c r="AC27" s="173"/>
+      <c r="AD27" s="173"/>
+      <c r="AE27" s="174"/>
+      <c r="AF27" s="169"/>
+      <c r="AG27" s="170"/>
+      <c r="AH27" s="170"/>
+      <c r="AI27" s="171"/>
       <c r="AJ27" s="29"/>
       <c r="AK27" s="29"/>
       <c r="AL27" s="29"/>
@@ -10297,40 +10309,40 @@
     </row>
     <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="125"/>
-      <c r="AG28" s="126"/>
-      <c r="AH28" s="126"/>
-      <c r="AI28" s="127"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="174"/>
+      <c r="AF28" s="169"/>
+      <c r="AG28" s="170"/>
+      <c r="AH28" s="170"/>
+      <c r="AI28" s="171"/>
       <c r="AJ28" s="29"/>
       <c r="AK28" s="29"/>
       <c r="AL28" s="29"/>
@@ -10339,40 +10351,40 @@
     </row>
     <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="126"/>
-      <c r="AH29" s="126"/>
-      <c r="AI29" s="127"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="173"/>
+      <c r="AD29" s="173"/>
+      <c r="AE29" s="174"/>
+      <c r="AF29" s="169"/>
+      <c r="AG29" s="170"/>
+      <c r="AH29" s="170"/>
+      <c r="AI29" s="171"/>
       <c r="AJ29" s="29"/>
       <c r="AK29" s="29"/>
       <c r="AL29" s="29"/>
@@ -10381,40 +10393,40 @@
     </row>
     <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="136"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="126"/>
-      <c r="AH30" s="126"/>
-      <c r="AI30" s="127"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="173"/>
+      <c r="T30" s="173"/>
+      <c r="U30" s="173"/>
+      <c r="V30" s="173"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
+      <c r="AE30" s="174"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="170"/>
+      <c r="AH30" s="170"/>
+      <c r="AI30" s="171"/>
       <c r="AJ30" s="29"/>
       <c r="AK30" s="29"/>
       <c r="AL30" s="29"/>
@@ -10423,40 +10435,40 @@
     </row>
     <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="137"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="137"/>
-      <c r="Z31" s="137"/>
-      <c r="AA31" s="137"/>
-      <c r="AB31" s="137"/>
-      <c r="AC31" s="137"/>
-      <c r="AD31" s="137"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="125"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="126"/>
-      <c r="AI31" s="127"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="172"/>
+      <c r="R31" s="173"/>
+      <c r="S31" s="173"/>
+      <c r="T31" s="173"/>
+      <c r="U31" s="173"/>
+      <c r="V31" s="173"/>
+      <c r="W31" s="173"/>
+      <c r="X31" s="173"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="173"/>
+      <c r="AD31" s="173"/>
+      <c r="AE31" s="174"/>
+      <c r="AF31" s="169"/>
+      <c r="AG31" s="170"/>
+      <c r="AH31" s="170"/>
+      <c r="AI31" s="171"/>
       <c r="AJ31" s="29"/>
       <c r="AK31" s="29"/>
       <c r="AL31" s="29"/>
@@ -10465,40 +10477,40 @@
     </row>
     <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="136"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="137"/>
-      <c r="V32" s="137"/>
-      <c r="W32" s="137"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="137"/>
-      <c r="Z32" s="137"/>
-      <c r="AA32" s="137"/>
-      <c r="AB32" s="137"/>
-      <c r="AC32" s="137"/>
-      <c r="AD32" s="137"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="125"/>
-      <c r="AG32" s="126"/>
-      <c r="AH32" s="126"/>
-      <c r="AI32" s="127"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="171"/>
+      <c r="Q32" s="172"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="173"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="174"/>
+      <c r="AF32" s="169"/>
+      <c r="AG32" s="170"/>
+      <c r="AH32" s="170"/>
+      <c r="AI32" s="171"/>
       <c r="AJ32" s="29"/>
       <c r="AK32" s="29"/>
       <c r="AL32" s="29"/>
@@ -10507,40 +10519,40 @@
     </row>
     <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="137"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="126"/>
-      <c r="AH33" s="126"/>
-      <c r="AI33" s="127"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="173"/>
+      <c r="V33" s="173"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+      <c r="AC33" s="173"/>
+      <c r="AD33" s="173"/>
+      <c r="AE33" s="174"/>
+      <c r="AF33" s="169"/>
+      <c r="AG33" s="170"/>
+      <c r="AH33" s="170"/>
+      <c r="AI33" s="171"/>
       <c r="AJ33" s="29"/>
       <c r="AK33" s="29"/>
       <c r="AL33" s="29"/>
@@ -10633,40 +10645,127 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
@@ -10691,127 +10790,40 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -10965,157 +10977,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="205" t="str">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="208" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="195" t="str">
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="190" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="205">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="205" t="str">
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="190" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="191"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="205" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="216"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="191"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="4" spans="1:35" s="79" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77"/>
@@ -12415,6 +12427,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12426,12 +12444,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12447,7 +12459,7 @@
   </sheetPr>
   <dimension ref="A1:AI162"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -12459,157 +12471,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="205" t="str">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="236" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="195" t="str">
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="222" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="205">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="205" t="str">
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="222" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="228"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="205" t="str">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="223"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
@@ -12637,146 +12649,146 @@
       </c>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D17" s="221" t="s">
+      <c r="D17" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
-      <c r="K17" s="221" t="s">
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="241" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="221"/>
-      <c r="M17" s="221"/>
-      <c r="N17" s="221"/>
-      <c r="O17" s="221"/>
-      <c r="P17" s="221"/>
-      <c r="Q17" s="221"/>
-      <c r="R17" s="221"/>
-      <c r="S17" s="221"/>
-      <c r="T17" s="221"/>
-      <c r="U17" s="221"/>
-      <c r="V17" s="221"/>
-      <c r="W17" s="221"/>
-      <c r="X17" s="221"/>
-      <c r="Y17" s="221"/>
-      <c r="Z17" s="221"/>
-      <c r="AA17" s="221"/>
-      <c r="AB17" s="221"/>
-      <c r="AC17" s="221"/>
-      <c r="AD17" s="221"/>
-      <c r="AE17" s="221"/>
-      <c r="AF17" s="221"/>
-      <c r="AG17" s="221"/>
+      <c r="L17" s="241"/>
+      <c r="M17" s="241"/>
+      <c r="N17" s="241"/>
+      <c r="O17" s="241"/>
+      <c r="P17" s="241"/>
+      <c r="Q17" s="241"/>
+      <c r="R17" s="241"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="241"/>
+      <c r="U17" s="241"/>
+      <c r="V17" s="241"/>
+      <c r="W17" s="241"/>
+      <c r="X17" s="241"/>
+      <c r="Y17" s="241"/>
+      <c r="Z17" s="241"/>
+      <c r="AA17" s="241"/>
+      <c r="AB17" s="241"/>
+      <c r="AC17" s="241"/>
+      <c r="AD17" s="241"/>
+      <c r="AE17" s="241"/>
+      <c r="AF17" s="241"/>
+      <c r="AG17" s="241"/>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="219" t="s">
+      <c r="E18" s="238"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="238"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="219"/>
-      <c r="M18" s="219"/>
-      <c r="N18" s="219"/>
-      <c r="O18" s="219"/>
-      <c r="P18" s="219"/>
-      <c r="Q18" s="219"/>
-      <c r="R18" s="219"/>
-      <c r="S18" s="219"/>
-      <c r="T18" s="219"/>
-      <c r="U18" s="219"/>
-      <c r="V18" s="219"/>
-      <c r="W18" s="219"/>
-      <c r="X18" s="219"/>
-      <c r="Y18" s="219"/>
-      <c r="Z18" s="219"/>
-      <c r="AA18" s="219"/>
-      <c r="AB18" s="219"/>
-      <c r="AC18" s="219"/>
-      <c r="AD18" s="219"/>
-      <c r="AE18" s="219"/>
-      <c r="AF18" s="219"/>
-      <c r="AG18" s="219"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="238"/>
+      <c r="O18" s="238"/>
+      <c r="P18" s="238"/>
+      <c r="Q18" s="238"/>
+      <c r="R18" s="238"/>
+      <c r="S18" s="238"/>
+      <c r="T18" s="238"/>
+      <c r="U18" s="238"/>
+      <c r="V18" s="238"/>
+      <c r="W18" s="238"/>
+      <c r="X18" s="238"/>
+      <c r="Y18" s="238"/>
+      <c r="Z18" s="238"/>
+      <c r="AA18" s="238"/>
+      <c r="AB18" s="238"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="238"/>
+      <c r="AE18" s="238"/>
+      <c r="AF18" s="238"/>
+      <c r="AG18" s="238"/>
     </row>
     <row r="19" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D19" s="234" t="s">
+      <c r="D19" s="224" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="234"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="235" t="s">
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="225" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="234"/>
-      <c r="Q19" s="234"/>
-      <c r="R19" s="234"/>
-      <c r="S19" s="234"/>
-      <c r="T19" s="234"/>
-      <c r="U19" s="234"/>
-      <c r="V19" s="234"/>
-      <c r="W19" s="234"/>
-      <c r="X19" s="234"/>
-      <c r="Y19" s="234"/>
-      <c r="Z19" s="234"/>
-      <c r="AA19" s="234"/>
-      <c r="AB19" s="234"/>
-      <c r="AC19" s="234"/>
-      <c r="AD19" s="234"/>
-      <c r="AE19" s="234"/>
-      <c r="AF19" s="234"/>
-      <c r="AG19" s="234"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="224"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="224"/>
+      <c r="U19" s="224"/>
+      <c r="V19" s="224"/>
+      <c r="W19" s="224"/>
+      <c r="X19" s="224"/>
+      <c r="Y19" s="224"/>
+      <c r="Z19" s="224"/>
+      <c r="AA19" s="224"/>
+      <c r="AB19" s="224"/>
+      <c r="AC19" s="224"/>
+      <c r="AD19" s="224"/>
+      <c r="AE19" s="224"/>
+      <c r="AF19" s="224"/>
+      <c r="AG19" s="224"/>
     </row>
     <row r="20" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="225" t="s">
+      <c r="D20" s="239"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="239"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="L20" s="224"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="224"/>
-      <c r="P20" s="224"/>
-      <c r="Q20" s="224"/>
-      <c r="R20" s="224"/>
-      <c r="S20" s="224"/>
-      <c r="T20" s="224"/>
-      <c r="U20" s="224"/>
-      <c r="V20" s="224"/>
-      <c r="W20" s="224"/>
-      <c r="X20" s="224"/>
-      <c r="Y20" s="224"/>
-      <c r="Z20" s="224"/>
-      <c r="AA20" s="224"/>
-      <c r="AB20" s="224"/>
-      <c r="AC20" s="224"/>
-      <c r="AD20" s="224"/>
-      <c r="AE20" s="224"/>
-      <c r="AF20" s="224"/>
-      <c r="AG20" s="224"/>
+      <c r="L20" s="239"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="239"/>
+      <c r="O20" s="239"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="239"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="239"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="239"/>
+      <c r="V20" s="239"/>
+      <c r="W20" s="239"/>
+      <c r="X20" s="239"/>
+      <c r="Y20" s="239"/>
+      <c r="Z20" s="239"/>
+      <c r="AA20" s="239"/>
+      <c r="AB20" s="239"/>
+      <c r="AC20" s="239"/>
+      <c r="AD20" s="239"/>
+      <c r="AE20" s="239"/>
+      <c r="AF20" s="239"/>
+      <c r="AG20" s="239"/>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="32" t="s">
@@ -12784,148 +12796,148 @@
       </c>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D24" s="221" t="s">
+      <c r="D24" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="221" t="s">
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241" t="s">
         <v>128</v>
       </c>
-      <c r="L24" s="221"/>
-      <c r="M24" s="221"/>
-      <c r="N24" s="221"/>
-      <c r="O24" s="221"/>
-      <c r="P24" s="221"/>
-      <c r="Q24" s="221"/>
-      <c r="R24" s="221"/>
-      <c r="S24" s="221"/>
-      <c r="T24" s="221"/>
-      <c r="U24" s="221"/>
-      <c r="V24" s="221"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="221"/>
-      <c r="Y24" s="221"/>
-      <c r="Z24" s="221"/>
-      <c r="AA24" s="221"/>
-      <c r="AB24" s="221"/>
-      <c r="AC24" s="221"/>
-      <c r="AD24" s="221"/>
-      <c r="AE24" s="221"/>
-      <c r="AF24" s="221"/>
-      <c r="AG24" s="221"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241"/>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
+      <c r="U24" s="241"/>
+      <c r="V24" s="241"/>
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="241"/>
+      <c r="AB24" s="241"/>
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="241"/>
+      <c r="AE24" s="241"/>
+      <c r="AF24" s="241"/>
+      <c r="AG24" s="241"/>
     </row>
     <row r="25" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D25" s="219" t="s">
+      <c r="D25" s="238" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219" t="s">
+      <c r="E25" s="238"/>
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="238" t="s">
         <v>136</v>
       </c>
-      <c r="L25" s="219"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="219"/>
-      <c r="O25" s="219"/>
-      <c r="P25" s="219"/>
-      <c r="Q25" s="219"/>
-      <c r="R25" s="219"/>
-      <c r="S25" s="219"/>
-      <c r="T25" s="219"/>
-      <c r="U25" s="219"/>
-      <c r="V25" s="219"/>
-      <c r="W25" s="219"/>
-      <c r="X25" s="219"/>
-      <c r="Y25" s="219"/>
-      <c r="Z25" s="219"/>
-      <c r="AA25" s="219"/>
-      <c r="AB25" s="219"/>
-      <c r="AC25" s="219"/>
-      <c r="AD25" s="219"/>
-      <c r="AE25" s="219"/>
-      <c r="AF25" s="219"/>
-      <c r="AG25" s="219"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="238"/>
+      <c r="Q25" s="238"/>
+      <c r="R25" s="238"/>
+      <c r="S25" s="238"/>
+      <c r="T25" s="238"/>
+      <c r="U25" s="238"/>
+      <c r="V25" s="238"/>
+      <c r="W25" s="238"/>
+      <c r="X25" s="238"/>
+      <c r="Y25" s="238"/>
+      <c r="Z25" s="238"/>
+      <c r="AA25" s="238"/>
+      <c r="AB25" s="238"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="238"/>
+      <c r="AE25" s="238"/>
+      <c r="AF25" s="238"/>
+      <c r="AG25" s="238"/>
     </row>
     <row r="26" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D26" s="219" t="s">
+      <c r="D26" s="238" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219" t="s">
+      <c r="E26" s="238"/>
+      <c r="F26" s="238"/>
+      <c r="G26" s="238"/>
+      <c r="H26" s="238"/>
+      <c r="I26" s="238"/>
+      <c r="J26" s="238"/>
+      <c r="K26" s="238" t="s">
         <v>138</v>
       </c>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
-      <c r="N26" s="219"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="219"/>
-      <c r="Q26" s="219"/>
-      <c r="R26" s="219"/>
-      <c r="S26" s="219"/>
-      <c r="T26" s="219"/>
-      <c r="U26" s="219"/>
-      <c r="V26" s="219"/>
-      <c r="W26" s="219"/>
-      <c r="X26" s="219"/>
-      <c r="Y26" s="219"/>
-      <c r="Z26" s="219"/>
-      <c r="AA26" s="219"/>
-      <c r="AB26" s="219"/>
-      <c r="AC26" s="219"/>
-      <c r="AD26" s="219"/>
-      <c r="AE26" s="219"/>
-      <c r="AF26" s="219"/>
-      <c r="AG26" s="219"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="238"/>
+      <c r="N26" s="238"/>
+      <c r="O26" s="238"/>
+      <c r="P26" s="238"/>
+      <c r="Q26" s="238"/>
+      <c r="R26" s="238"/>
+      <c r="S26" s="238"/>
+      <c r="T26" s="238"/>
+      <c r="U26" s="238"/>
+      <c r="V26" s="238"/>
+      <c r="W26" s="238"/>
+      <c r="X26" s="238"/>
+      <c r="Y26" s="238"/>
+      <c r="Z26" s="238"/>
+      <c r="AA26" s="238"/>
+      <c r="AB26" s="238"/>
+      <c r="AC26" s="238"/>
+      <c r="AD26" s="238"/>
+      <c r="AE26" s="238"/>
+      <c r="AF26" s="238"/>
+      <c r="AG26" s="238"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D27" s="219" t="s">
+      <c r="D27" s="238" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="219"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="219" t="s">
+      <c r="E27" s="238"/>
+      <c r="F27" s="238"/>
+      <c r="G27" s="238"/>
+      <c r="H27" s="238"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="219"/>
-      <c r="R27" s="219"/>
-      <c r="S27" s="219"/>
-      <c r="T27" s="219"/>
-      <c r="U27" s="219"/>
-      <c r="V27" s="219"/>
-      <c r="W27" s="219"/>
-      <c r="X27" s="219"/>
-      <c r="Y27" s="219"/>
-      <c r="Z27" s="219"/>
-      <c r="AA27" s="219"/>
-      <c r="AB27" s="219"/>
-      <c r="AC27" s="219"/>
-      <c r="AD27" s="219"/>
-      <c r="AE27" s="219"/>
-      <c r="AF27" s="219"/>
-      <c r="AG27" s="219"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="238"/>
+      <c r="N27" s="238"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="238"/>
+      <c r="Q27" s="238"/>
+      <c r="R27" s="238"/>
+      <c r="S27" s="238"/>
+      <c r="T27" s="238"/>
+      <c r="U27" s="238"/>
+      <c r="V27" s="238"/>
+      <c r="W27" s="238"/>
+      <c r="X27" s="238"/>
+      <c r="Y27" s="238"/>
+      <c r="Z27" s="238"/>
+      <c r="AA27" s="238"/>
+      <c r="AB27" s="238"/>
+      <c r="AC27" s="238"/>
+      <c r="AD27" s="238"/>
+      <c r="AE27" s="238"/>
+      <c r="AF27" s="238"/>
+      <c r="AG27" s="238"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="32" t="s">
@@ -12933,216 +12945,216 @@
       </c>
     </row>
     <row r="31" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D31" s="221" t="s">
+      <c r="D31" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
-      <c r="K31" s="221" t="s">
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
+      <c r="I31" s="241"/>
+      <c r="J31" s="241"/>
+      <c r="K31" s="241" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="221"/>
-      <c r="M31" s="221"/>
-      <c r="N31" s="221"/>
-      <c r="O31" s="221"/>
-      <c r="P31" s="221"/>
-      <c r="Q31" s="221"/>
-      <c r="R31" s="221"/>
-      <c r="S31" s="221"/>
-      <c r="T31" s="221"/>
-      <c r="U31" s="221"/>
-      <c r="V31" s="221"/>
-      <c r="W31" s="221"/>
-      <c r="X31" s="221"/>
-      <c r="Y31" s="221"/>
-      <c r="Z31" s="221"/>
-      <c r="AA31" s="221"/>
-      <c r="AB31" s="221"/>
-      <c r="AC31" s="221"/>
-      <c r="AD31" s="221"/>
-      <c r="AE31" s="221"/>
-      <c r="AF31" s="221"/>
-      <c r="AG31" s="221"/>
+      <c r="L31" s="241"/>
+      <c r="M31" s="241"/>
+      <c r="N31" s="241"/>
+      <c r="O31" s="241"/>
+      <c r="P31" s="241"/>
+      <c r="Q31" s="241"/>
+      <c r="R31" s="241"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="241"/>
+      <c r="U31" s="241"/>
+      <c r="V31" s="241"/>
+      <c r="W31" s="241"/>
+      <c r="X31" s="241"/>
+      <c r="Y31" s="241"/>
+      <c r="Z31" s="241"/>
+      <c r="AA31" s="241"/>
+      <c r="AB31" s="241"/>
+      <c r="AC31" s="241"/>
+      <c r="AD31" s="241"/>
+      <c r="AE31" s="241"/>
+      <c r="AF31" s="241"/>
+      <c r="AG31" s="241"/>
     </row>
     <row r="32" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D32" s="218" t="s">
+      <c r="D32" s="242" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="218" t="s">
+      <c r="E32" s="242"/>
+      <c r="F32" s="242"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="242"/>
+      <c r="K32" s="242" t="s">
         <v>143</v>
       </c>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="218"/>
-      <c r="Q32" s="218"/>
-      <c r="R32" s="218"/>
-      <c r="S32" s="218"/>
-      <c r="T32" s="218"/>
-      <c r="U32" s="218"/>
-      <c r="V32" s="218"/>
-      <c r="W32" s="218"/>
-      <c r="X32" s="218"/>
-      <c r="Y32" s="218"/>
-      <c r="Z32" s="218"/>
-      <c r="AA32" s="218"/>
-      <c r="AB32" s="218"/>
-      <c r="AC32" s="218"/>
-      <c r="AD32" s="218"/>
-      <c r="AE32" s="218"/>
-      <c r="AF32" s="218"/>
-      <c r="AG32" s="218"/>
+      <c r="L32" s="242"/>
+      <c r="M32" s="242"/>
+      <c r="N32" s="242"/>
+      <c r="O32" s="242"/>
+      <c r="P32" s="242"/>
+      <c r="Q32" s="242"/>
+      <c r="R32" s="242"/>
+      <c r="S32" s="242"/>
+      <c r="T32" s="242"/>
+      <c r="U32" s="242"/>
+      <c r="V32" s="242"/>
+      <c r="W32" s="242"/>
+      <c r="X32" s="242"/>
+      <c r="Y32" s="242"/>
+      <c r="Z32" s="242"/>
+      <c r="AA32" s="242"/>
+      <c r="AB32" s="242"/>
+      <c r="AC32" s="242"/>
+      <c r="AD32" s="242"/>
+      <c r="AE32" s="242"/>
+      <c r="AF32" s="242"/>
+      <c r="AG32" s="242"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="217"/>
-      <c r="K33" s="217" t="s">
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="243"/>
+      <c r="K33" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="L33" s="217"/>
-      <c r="M33" s="217"/>
-      <c r="N33" s="217"/>
-      <c r="O33" s="217"/>
-      <c r="P33" s="217"/>
-      <c r="Q33" s="217"/>
-      <c r="R33" s="217"/>
-      <c r="S33" s="217"/>
-      <c r="T33" s="217"/>
-      <c r="U33" s="217"/>
-      <c r="V33" s="217"/>
-      <c r="W33" s="217"/>
-      <c r="X33" s="217"/>
-      <c r="Y33" s="217"/>
-      <c r="Z33" s="217"/>
-      <c r="AA33" s="217"/>
-      <c r="AB33" s="217"/>
-      <c r="AC33" s="217"/>
-      <c r="AD33" s="217"/>
-      <c r="AE33" s="217"/>
-      <c r="AF33" s="217"/>
-      <c r="AG33" s="217"/>
+      <c r="L33" s="243"/>
+      <c r="M33" s="243"/>
+      <c r="N33" s="243"/>
+      <c r="O33" s="243"/>
+      <c r="P33" s="243"/>
+      <c r="Q33" s="243"/>
+      <c r="R33" s="243"/>
+      <c r="S33" s="243"/>
+      <c r="T33" s="243"/>
+      <c r="U33" s="243"/>
+      <c r="V33" s="243"/>
+      <c r="W33" s="243"/>
+      <c r="X33" s="243"/>
+      <c r="Y33" s="243"/>
+      <c r="Z33" s="243"/>
+      <c r="AA33" s="243"/>
+      <c r="AB33" s="243"/>
+      <c r="AC33" s="243"/>
+      <c r="AD33" s="243"/>
+      <c r="AE33" s="243"/>
+      <c r="AF33" s="243"/>
+      <c r="AG33" s="243"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D34" s="218" t="s">
+      <c r="D34" s="242" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="218"/>
-      <c r="F34" s="218"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="218"/>
-      <c r="J34" s="218"/>
-      <c r="K34" s="218" t="s">
+      <c r="E34" s="242"/>
+      <c r="F34" s="242"/>
+      <c r="G34" s="242"/>
+      <c r="H34" s="242"/>
+      <c r="I34" s="242"/>
+      <c r="J34" s="242"/>
+      <c r="K34" s="242" t="s">
         <v>146</v>
       </c>
-      <c r="L34" s="218"/>
-      <c r="M34" s="218"/>
-      <c r="N34" s="218"/>
-      <c r="O34" s="218"/>
-      <c r="P34" s="218"/>
-      <c r="Q34" s="218"/>
-      <c r="R34" s="218"/>
-      <c r="S34" s="218"/>
-      <c r="T34" s="218"/>
-      <c r="U34" s="218"/>
-      <c r="V34" s="218"/>
-      <c r="W34" s="218"/>
-      <c r="X34" s="218"/>
-      <c r="Y34" s="218"/>
-      <c r="Z34" s="218"/>
-      <c r="AA34" s="218"/>
-      <c r="AB34" s="218"/>
-      <c r="AC34" s="218"/>
-      <c r="AD34" s="218"/>
-      <c r="AE34" s="218"/>
-      <c r="AF34" s="218"/>
-      <c r="AG34" s="218"/>
+      <c r="L34" s="242"/>
+      <c r="M34" s="242"/>
+      <c r="N34" s="242"/>
+      <c r="O34" s="242"/>
+      <c r="P34" s="242"/>
+      <c r="Q34" s="242"/>
+      <c r="R34" s="242"/>
+      <c r="S34" s="242"/>
+      <c r="T34" s="242"/>
+      <c r="U34" s="242"/>
+      <c r="V34" s="242"/>
+      <c r="W34" s="242"/>
+      <c r="X34" s="242"/>
+      <c r="Y34" s="242"/>
+      <c r="Z34" s="242"/>
+      <c r="AA34" s="242"/>
+      <c r="AB34" s="242"/>
+      <c r="AC34" s="242"/>
+      <c r="AD34" s="242"/>
+      <c r="AE34" s="242"/>
+      <c r="AF34" s="242"/>
+      <c r="AG34" s="242"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="217"/>
-      <c r="J35" s="217"/>
-      <c r="K35" s="217" t="s">
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="243"/>
+      <c r="H35" s="243"/>
+      <c r="I35" s="243"/>
+      <c r="J35" s="243"/>
+      <c r="K35" s="243" t="s">
         <v>147</v>
       </c>
-      <c r="L35" s="217"/>
-      <c r="M35" s="217"/>
-      <c r="N35" s="217"/>
-      <c r="O35" s="217"/>
-      <c r="P35" s="217"/>
-      <c r="Q35" s="217"/>
-      <c r="R35" s="217"/>
-      <c r="S35" s="217"/>
-      <c r="T35" s="217"/>
-      <c r="U35" s="217"/>
-      <c r="V35" s="217"/>
-      <c r="W35" s="217"/>
-      <c r="X35" s="217"/>
-      <c r="Y35" s="217"/>
-      <c r="Z35" s="217"/>
-      <c r="AA35" s="217"/>
-      <c r="AB35" s="217"/>
-      <c r="AC35" s="217"/>
-      <c r="AD35" s="217"/>
-      <c r="AE35" s="217"/>
-      <c r="AF35" s="217"/>
-      <c r="AG35" s="217"/>
+      <c r="L35" s="243"/>
+      <c r="M35" s="243"/>
+      <c r="N35" s="243"/>
+      <c r="O35" s="243"/>
+      <c r="P35" s="243"/>
+      <c r="Q35" s="243"/>
+      <c r="R35" s="243"/>
+      <c r="S35" s="243"/>
+      <c r="T35" s="243"/>
+      <c r="U35" s="243"/>
+      <c r="V35" s="243"/>
+      <c r="W35" s="243"/>
+      <c r="X35" s="243"/>
+      <c r="Y35" s="243"/>
+      <c r="Z35" s="243"/>
+      <c r="AA35" s="243"/>
+      <c r="AB35" s="243"/>
+      <c r="AC35" s="243"/>
+      <c r="AD35" s="243"/>
+      <c r="AE35" s="243"/>
+      <c r="AF35" s="243"/>
+      <c r="AG35" s="243"/>
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="220" t="s">
+      <c r="D36" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="220"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="220"/>
-      <c r="J36" s="220"/>
-      <c r="K36" s="220" t="s">
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="244"/>
+      <c r="J36" s="244"/>
+      <c r="K36" s="244" t="s">
         <v>149</v>
       </c>
-      <c r="L36" s="220"/>
-      <c r="M36" s="220"/>
-      <c r="N36" s="220"/>
-      <c r="O36" s="220"/>
-      <c r="P36" s="220"/>
-      <c r="Q36" s="220"/>
-      <c r="R36" s="220"/>
-      <c r="S36" s="220"/>
-      <c r="T36" s="220"/>
-      <c r="U36" s="220"/>
-      <c r="V36" s="220"/>
-      <c r="W36" s="220"/>
-      <c r="X36" s="220"/>
-      <c r="Y36" s="220"/>
-      <c r="Z36" s="220"/>
-      <c r="AA36" s="220"/>
-      <c r="AB36" s="220"/>
-      <c r="AC36" s="220"/>
-      <c r="AD36" s="220"/>
-      <c r="AE36" s="220"/>
-      <c r="AF36" s="220"/>
-      <c r="AG36" s="220"/>
+      <c r="L36" s="244"/>
+      <c r="M36" s="244"/>
+      <c r="N36" s="244"/>
+      <c r="O36" s="244"/>
+      <c r="P36" s="244"/>
+      <c r="Q36" s="244"/>
+      <c r="R36" s="244"/>
+      <c r="S36" s="244"/>
+      <c r="T36" s="244"/>
+      <c r="U36" s="244"/>
+      <c r="V36" s="244"/>
+      <c r="W36" s="244"/>
+      <c r="X36" s="244"/>
+      <c r="Y36" s="244"/>
+      <c r="Z36" s="244"/>
+      <c r="AA36" s="244"/>
+      <c r="AB36" s="244"/>
+      <c r="AC36" s="244"/>
+      <c r="AD36" s="244"/>
+      <c r="AE36" s="244"/>
+      <c r="AF36" s="244"/>
+      <c r="AG36" s="244"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D37" s="48"/>
@@ -13182,76 +13194,76 @@
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D40" s="221" t="s">
+      <c r="D40" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="221"/>
-      <c r="F40" s="221"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="221"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="221"/>
-      <c r="K40" s="221" t="s">
+      <c r="E40" s="241"/>
+      <c r="F40" s="241"/>
+      <c r="G40" s="241"/>
+      <c r="H40" s="241"/>
+      <c r="I40" s="241"/>
+      <c r="J40" s="241"/>
+      <c r="K40" s="241" t="s">
         <v>128</v>
       </c>
-      <c r="L40" s="221"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="221"/>
-      <c r="O40" s="221"/>
-      <c r="P40" s="221"/>
-      <c r="Q40" s="221"/>
-      <c r="R40" s="221"/>
-      <c r="S40" s="221"/>
-      <c r="T40" s="221"/>
-      <c r="U40" s="221"/>
-      <c r="V40" s="221"/>
-      <c r="W40" s="221"/>
-      <c r="X40" s="221"/>
-      <c r="Y40" s="221"/>
-      <c r="Z40" s="221"/>
-      <c r="AA40" s="221"/>
-      <c r="AB40" s="221"/>
-      <c r="AC40" s="221"/>
-      <c r="AD40" s="221"/>
-      <c r="AE40" s="221"/>
-      <c r="AF40" s="221"/>
-      <c r="AG40" s="221"/>
+      <c r="L40" s="241"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="241"/>
+      <c r="O40" s="241"/>
+      <c r="P40" s="241"/>
+      <c r="Q40" s="241"/>
+      <c r="R40" s="241"/>
+      <c r="S40" s="241"/>
+      <c r="T40" s="241"/>
+      <c r="U40" s="241"/>
+      <c r="V40" s="241"/>
+      <c r="W40" s="241"/>
+      <c r="X40" s="241"/>
+      <c r="Y40" s="241"/>
+      <c r="Z40" s="241"/>
+      <c r="AA40" s="241"/>
+      <c r="AB40" s="241"/>
+      <c r="AC40" s="241"/>
+      <c r="AD40" s="241"/>
+      <c r="AE40" s="241"/>
+      <c r="AF40" s="241"/>
+      <c r="AG40" s="241"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D41" s="219" t="s">
+      <c r="D41" s="238" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
-      <c r="K41" s="219" t="s">
+      <c r="E41" s="238"/>
+      <c r="F41" s="238"/>
+      <c r="G41" s="238"/>
+      <c r="H41" s="238"/>
+      <c r="I41" s="238"/>
+      <c r="J41" s="238"/>
+      <c r="K41" s="238" t="s">
         <v>152</v>
       </c>
-      <c r="L41" s="219"/>
-      <c r="M41" s="219"/>
-      <c r="N41" s="219"/>
-      <c r="O41" s="219"/>
-      <c r="P41" s="219"/>
-      <c r="Q41" s="219"/>
-      <c r="R41" s="219"/>
-      <c r="S41" s="219"/>
-      <c r="T41" s="219"/>
-      <c r="U41" s="219"/>
-      <c r="V41" s="219"/>
-      <c r="W41" s="219"/>
-      <c r="X41" s="219"/>
-      <c r="Y41" s="219"/>
-      <c r="Z41" s="219"/>
-      <c r="AA41" s="219"/>
-      <c r="AB41" s="219"/>
-      <c r="AC41" s="219"/>
-      <c r="AD41" s="219"/>
-      <c r="AE41" s="219"/>
-      <c r="AF41" s="219"/>
-      <c r="AG41" s="219"/>
+      <c r="L41" s="238"/>
+      <c r="M41" s="238"/>
+      <c r="N41" s="238"/>
+      <c r="O41" s="238"/>
+      <c r="P41" s="238"/>
+      <c r="Q41" s="238"/>
+      <c r="R41" s="238"/>
+      <c r="S41" s="238"/>
+      <c r="T41" s="238"/>
+      <c r="U41" s="238"/>
+      <c r="V41" s="238"/>
+      <c r="W41" s="238"/>
+      <c r="X41" s="238"/>
+      <c r="Y41" s="238"/>
+      <c r="Z41" s="238"/>
+      <c r="AA41" s="238"/>
+      <c r="AB41" s="238"/>
+      <c r="AC41" s="238"/>
+      <c r="AD41" s="238"/>
+      <c r="AE41" s="238"/>
+      <c r="AF41" s="238"/>
+      <c r="AG41" s="238"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D42" s="49"/>
@@ -13311,70 +13323,70 @@
       </c>
     </row>
     <row r="53" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="E53" s="233" t="s">
+      <c r="E53" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="233"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="233"/>
-      <c r="I53" s="233"/>
-      <c r="J53" s="233"/>
-      <c r="K53" s="233"/>
-      <c r="L53" s="233"/>
-      <c r="M53" s="233"/>
-      <c r="N53" s="233"/>
-      <c r="O53" s="233"/>
-      <c r="P53" s="233"/>
-      <c r="Q53" s="233"/>
-      <c r="R53" s="233"/>
-      <c r="S53" s="233"/>
-      <c r="T53" s="233"/>
-      <c r="U53" s="233"/>
-      <c r="V53" s="233"/>
-      <c r="W53" s="233"/>
-      <c r="X53" s="233"/>
-      <c r="Y53" s="233"/>
-      <c r="Z53" s="233"/>
-      <c r="AA53" s="233"/>
-      <c r="AB53" s="233"/>
-      <c r="AC53" s="233"/>
-      <c r="AD53" s="233"/>
-      <c r="AE53" s="233"/>
-      <c r="AF53" s="233"/>
-      <c r="AG53" s="233"/>
-      <c r="AH53" s="233"/>
+      <c r="F53" s="223"/>
+      <c r="G53" s="223"/>
+      <c r="H53" s="223"/>
+      <c r="I53" s="223"/>
+      <c r="J53" s="223"/>
+      <c r="K53" s="223"/>
+      <c r="L53" s="223"/>
+      <c r="M53" s="223"/>
+      <c r="N53" s="223"/>
+      <c r="O53" s="223"/>
+      <c r="P53" s="223"/>
+      <c r="Q53" s="223"/>
+      <c r="R53" s="223"/>
+      <c r="S53" s="223"/>
+      <c r="T53" s="223"/>
+      <c r="U53" s="223"/>
+      <c r="V53" s="223"/>
+      <c r="W53" s="223"/>
+      <c r="X53" s="223"/>
+      <c r="Y53" s="223"/>
+      <c r="Z53" s="223"/>
+      <c r="AA53" s="223"/>
+      <c r="AB53" s="223"/>
+      <c r="AC53" s="223"/>
+      <c r="AD53" s="223"/>
+      <c r="AE53" s="223"/>
+      <c r="AF53" s="223"/>
+      <c r="AG53" s="223"/>
+      <c r="AH53" s="223"/>
     </row>
     <row r="54" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="E54" s="233"/>
-      <c r="F54" s="233"/>
-      <c r="G54" s="233"/>
-      <c r="H54" s="233"/>
-      <c r="I54" s="233"/>
-      <c r="J54" s="233"/>
-      <c r="K54" s="233"/>
-      <c r="L54" s="233"/>
-      <c r="M54" s="233"/>
-      <c r="N54" s="233"/>
-      <c r="O54" s="233"/>
-      <c r="P54" s="233"/>
-      <c r="Q54" s="233"/>
-      <c r="R54" s="233"/>
-      <c r="S54" s="233"/>
-      <c r="T54" s="233"/>
-      <c r="U54" s="233"/>
-      <c r="V54" s="233"/>
-      <c r="W54" s="233"/>
-      <c r="X54" s="233"/>
-      <c r="Y54" s="233"/>
-      <c r="Z54" s="233"/>
-      <c r="AA54" s="233"/>
-      <c r="AB54" s="233"/>
-      <c r="AC54" s="233"/>
-      <c r="AD54" s="233"/>
-      <c r="AE54" s="233"/>
-      <c r="AF54" s="233"/>
-      <c r="AG54" s="233"/>
-      <c r="AH54" s="233"/>
+      <c r="E54" s="223"/>
+      <c r="F54" s="223"/>
+      <c r="G54" s="223"/>
+      <c r="H54" s="223"/>
+      <c r="I54" s="223"/>
+      <c r="J54" s="223"/>
+      <c r="K54" s="223"/>
+      <c r="L54" s="223"/>
+      <c r="M54" s="223"/>
+      <c r="N54" s="223"/>
+      <c r="O54" s="223"/>
+      <c r="P54" s="223"/>
+      <c r="Q54" s="223"/>
+      <c r="R54" s="223"/>
+      <c r="S54" s="223"/>
+      <c r="T54" s="223"/>
+      <c r="U54" s="223"/>
+      <c r="V54" s="223"/>
+      <c r="W54" s="223"/>
+      <c r="X54" s="223"/>
+      <c r="Y54" s="223"/>
+      <c r="Z54" s="223"/>
+      <c r="AA54" s="223"/>
+      <c r="AB54" s="223"/>
+      <c r="AC54" s="223"/>
+      <c r="AD54" s="223"/>
+      <c r="AE54" s="223"/>
+      <c r="AF54" s="223"/>
+      <c r="AG54" s="223"/>
+      <c r="AH54" s="223"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" s="32" t="s">
@@ -13835,27 +13847,27 @@
       <c r="L151" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="M151" s="227" t="s">
+      <c r="M151" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="N151" s="228"/>
-      <c r="O151" s="228"/>
-      <c r="P151" s="228"/>
-      <c r="Q151" s="228"/>
-      <c r="R151" s="228"/>
-      <c r="S151" s="228"/>
-      <c r="T151" s="228"/>
-      <c r="U151" s="228"/>
-      <c r="V151" s="228"/>
-      <c r="W151" s="228"/>
-      <c r="X151" s="228"/>
-      <c r="Y151" s="228"/>
-      <c r="Z151" s="228"/>
-      <c r="AA151" s="228"/>
-      <c r="AB151" s="228"/>
-      <c r="AC151" s="228"/>
-      <c r="AD151" s="228"/>
-      <c r="AE151" s="229"/>
+      <c r="N151" s="218"/>
+      <c r="O151" s="218"/>
+      <c r="P151" s="218"/>
+      <c r="Q151" s="218"/>
+      <c r="R151" s="218"/>
+      <c r="S151" s="218"/>
+      <c r="T151" s="218"/>
+      <c r="U151" s="218"/>
+      <c r="V151" s="218"/>
+      <c r="W151" s="218"/>
+      <c r="X151" s="218"/>
+      <c r="Y151" s="218"/>
+      <c r="Z151" s="218"/>
+      <c r="AA151" s="218"/>
+      <c r="AB151" s="218"/>
+      <c r="AC151" s="218"/>
+      <c r="AD151" s="218"/>
+      <c r="AE151" s="219"/>
     </row>
     <row r="152" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B152" s="48"/>
@@ -13869,25 +13881,25 @@
       <c r="J152" s="74"/>
       <c r="K152" s="75"/>
       <c r="L152" s="76"/>
-      <c r="M152" s="230"/>
-      <c r="N152" s="231"/>
-      <c r="O152" s="231"/>
-      <c r="P152" s="231"/>
-      <c r="Q152" s="231"/>
-      <c r="R152" s="231"/>
-      <c r="S152" s="231"/>
-      <c r="T152" s="231"/>
-      <c r="U152" s="231"/>
-      <c r="V152" s="231"/>
-      <c r="W152" s="231"/>
-      <c r="X152" s="231"/>
-      <c r="Y152" s="231"/>
-      <c r="Z152" s="231"/>
-      <c r="AA152" s="231"/>
-      <c r="AB152" s="231"/>
-      <c r="AC152" s="231"/>
-      <c r="AD152" s="231"/>
-      <c r="AE152" s="232"/>
+      <c r="M152" s="220"/>
+      <c r="N152" s="221"/>
+      <c r="O152" s="221"/>
+      <c r="P152" s="221"/>
+      <c r="Q152" s="221"/>
+      <c r="R152" s="221"/>
+      <c r="S152" s="221"/>
+      <c r="T152" s="221"/>
+      <c r="U152" s="221"/>
+      <c r="V152" s="221"/>
+      <c r="W152" s="221"/>
+      <c r="X152" s="221"/>
+      <c r="Y152" s="221"/>
+      <c r="Z152" s="221"/>
+      <c r="AA152" s="221"/>
+      <c r="AB152" s="221"/>
+      <c r="AC152" s="221"/>
+      <c r="AD152" s="221"/>
+      <c r="AE152" s="222"/>
     </row>
     <row r="153" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B153" s="48"/>
@@ -14192,6 +14204,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
     <mergeCell ref="M151:AE152"/>
     <mergeCell ref="E53:AH54"/>
     <mergeCell ref="D19:J19"/>
@@ -14208,41 +14255,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14281,163 +14293,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="205" t="str">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="236" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="195" t="str">
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="222" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="205">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
       <c r="AJ1" s="38"/>
       <c r="AK1" s="38"/>
       <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="226" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="205" t="str">
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="222" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="228"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
       <c r="AL2" s="38"/>
     </row>
     <row r="3" spans="1:66" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="205" t="str">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="223"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
       <c r="AJ3" s="38"/>
       <c r="AK3" s="38"/>
       <c r="AL3" s="38"/>
@@ -14448,571 +14460,635 @@
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A7" s="284" t="s">
+      <c r="A7" s="266" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="286" t="s">
+      <c r="B7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="278" t="s">
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="274" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="279"/>
-      <c r="I7" s="279"/>
-      <c r="J7" s="279"/>
-      <c r="K7" s="279"/>
-      <c r="L7" s="279"/>
-      <c r="M7" s="279"/>
-      <c r="N7" s="280"/>
-      <c r="O7" s="277" t="s">
+      <c r="H7" s="275"/>
+      <c r="I7" s="275"/>
+      <c r="J7" s="275"/>
+      <c r="K7" s="275"/>
+      <c r="L7" s="275"/>
+      <c r="M7" s="275"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="271" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="277"/>
-      <c r="Q7" s="277"/>
-      <c r="R7" s="221" t="s">
+      <c r="P7" s="271"/>
+      <c r="Q7" s="271"/>
+      <c r="R7" s="241" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="221"/>
-      <c r="T7" s="221"/>
-      <c r="U7" s="221"/>
-      <c r="V7" s="221"/>
-      <c r="W7" s="221"/>
-      <c r="X7" s="274" t="s">
+      <c r="S7" s="241"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="241"/>
+      <c r="V7" s="241"/>
+      <c r="W7" s="241"/>
+      <c r="X7" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="275"/>
-      <c r="Z7" s="275"/>
-      <c r="AA7" s="275"/>
-      <c r="AB7" s="275"/>
-      <c r="AC7" s="276"/>
-      <c r="AD7" s="277" t="s">
+      <c r="Y7" s="293"/>
+      <c r="Z7" s="293"/>
+      <c r="AA7" s="293"/>
+      <c r="AB7" s="293"/>
+      <c r="AC7" s="294"/>
+      <c r="AD7" s="271" t="s">
         <v>103</v>
       </c>
-      <c r="AE7" s="277"/>
-      <c r="AF7" s="277"/>
-      <c r="AG7" s="277"/>
-      <c r="AH7" s="277"/>
-      <c r="AI7" s="277"/>
+      <c r="AE7" s="271"/>
+      <c r="AF7" s="271"/>
+      <c r="AG7" s="271"/>
+      <c r="AH7" s="271"/>
+      <c r="AI7" s="271"/>
       <c r="AJ7" s="41"/>
-      <c r="AL7" s="288" t="s">
+      <c r="AL7" s="245" t="s">
         <v>76</v>
       </c>
-      <c r="AM7" s="288"/>
-      <c r="AN7" s="288"/>
-      <c r="AO7" s="288"/>
-      <c r="AP7" s="288"/>
-      <c r="AQ7" s="288"/>
-      <c r="AR7" s="288"/>
-      <c r="AS7" s="288"/>
-      <c r="AT7" s="288"/>
-      <c r="AU7" s="288"/>
-      <c r="AV7" s="288"/>
-      <c r="AW7" s="288"/>
-      <c r="AX7" s="288" t="s">
+      <c r="AM7" s="245"/>
+      <c r="AN7" s="245"/>
+      <c r="AO7" s="245"/>
+      <c r="AP7" s="245"/>
+      <c r="AQ7" s="245"/>
+      <c r="AR7" s="245"/>
+      <c r="AS7" s="245"/>
+      <c r="AT7" s="245"/>
+      <c r="AU7" s="245"/>
+      <c r="AV7" s="245"/>
+      <c r="AW7" s="245"/>
+      <c r="AX7" s="245" t="s">
         <v>104</v>
       </c>
-      <c r="AY7" s="288"/>
-      <c r="AZ7" s="288"/>
-      <c r="BA7" s="288"/>
-      <c r="BB7" s="288"/>
-      <c r="BC7" s="289" t="s">
+      <c r="AY7" s="245"/>
+      <c r="AZ7" s="245"/>
+      <c r="BA7" s="245"/>
+      <c r="BB7" s="245"/>
+      <c r="BC7" s="258" t="s">
         <v>105</v>
       </c>
-      <c r="BD7" s="290"/>
-      <c r="BE7" s="290"/>
-      <c r="BF7" s="290"/>
-      <c r="BG7" s="291"/>
-      <c r="BH7" s="288" t="s">
+      <c r="BD7" s="259"/>
+      <c r="BE7" s="259"/>
+      <c r="BF7" s="259"/>
+      <c r="BG7" s="260"/>
+      <c r="BH7" s="245" t="s">
         <v>106</v>
       </c>
-      <c r="BI7" s="288"/>
-      <c r="BJ7" s="288"/>
-      <c r="BK7" s="288"/>
-      <c r="BL7" s="288"/>
-      <c r="BM7" s="288"/>
-      <c r="BN7" s="288"/>
+      <c r="BI7" s="245"/>
+      <c r="BJ7" s="245"/>
+      <c r="BK7" s="245"/>
+      <c r="BL7" s="245"/>
+      <c r="BM7" s="245"/>
+      <c r="BN7" s="245"/>
     </row>
     <row r="8" spans="1:66" s="42" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="285"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="281"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="277"/>
-      <c r="P8" s="277"/>
-      <c r="Q8" s="277"/>
-      <c r="R8" s="287" t="s">
+      <c r="A8" s="267"/>
+      <c r="B8" s="268"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="277"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="279"/>
+      <c r="O8" s="271"/>
+      <c r="P8" s="271"/>
+      <c r="Q8" s="271"/>
+      <c r="R8" s="269" t="s">
         <v>107</v>
       </c>
-      <c r="S8" s="273"/>
-      <c r="T8" s="273" t="s">
+      <c r="S8" s="270"/>
+      <c r="T8" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="U8" s="273"/>
-      <c r="V8" s="270" t="s">
+      <c r="U8" s="270"/>
+      <c r="V8" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="W8" s="271"/>
-      <c r="X8" s="272" t="s">
+      <c r="W8" s="290"/>
+      <c r="X8" s="291" t="s">
         <v>110</v>
       </c>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="273" t="s">
+      <c r="Y8" s="270"/>
+      <c r="Z8" s="270"/>
+      <c r="AA8" s="270" t="s">
         <v>111</v>
       </c>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="271"/>
-      <c r="AD8" s="277"/>
-      <c r="AE8" s="277"/>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="277"/>
-      <c r="AI8" s="277"/>
+      <c r="AB8" s="270"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="271"/>
+      <c r="AE8" s="271"/>
+      <c r="AF8" s="271"/>
+      <c r="AG8" s="271"/>
+      <c r="AH8" s="271"/>
+      <c r="AI8" s="271"/>
       <c r="AJ8" s="41"/>
-      <c r="AL8" s="288"/>
-      <c r="AM8" s="288"/>
-      <c r="AN8" s="288"/>
-      <c r="AO8" s="288"/>
-      <c r="AP8" s="288"/>
-      <c r="AQ8" s="288"/>
-      <c r="AR8" s="288"/>
-      <c r="AS8" s="288"/>
-      <c r="AT8" s="288"/>
-      <c r="AU8" s="288"/>
-      <c r="AV8" s="288"/>
-      <c r="AW8" s="288"/>
-      <c r="AX8" s="288"/>
-      <c r="AY8" s="288"/>
-      <c r="AZ8" s="288"/>
-      <c r="BA8" s="288"/>
-      <c r="BB8" s="288"/>
-      <c r="BC8" s="292"/>
-      <c r="BD8" s="293"/>
-      <c r="BE8" s="293"/>
-      <c r="BF8" s="293"/>
-      <c r="BG8" s="294"/>
-      <c r="BH8" s="288"/>
-      <c r="BI8" s="288"/>
-      <c r="BJ8" s="288"/>
-      <c r="BK8" s="288"/>
-      <c r="BL8" s="288"/>
-      <c r="BM8" s="288"/>
-      <c r="BN8" s="288"/>
+      <c r="AL8" s="245"/>
+      <c r="AM8" s="245"/>
+      <c r="AN8" s="245"/>
+      <c r="AO8" s="245"/>
+      <c r="AP8" s="245"/>
+      <c r="AQ8" s="245"/>
+      <c r="AR8" s="245"/>
+      <c r="AS8" s="245"/>
+      <c r="AT8" s="245"/>
+      <c r="AU8" s="245"/>
+      <c r="AV8" s="245"/>
+      <c r="AW8" s="245"/>
+      <c r="AX8" s="245"/>
+      <c r="AY8" s="245"/>
+      <c r="AZ8" s="245"/>
+      <c r="BA8" s="245"/>
+      <c r="BB8" s="245"/>
+      <c r="BC8" s="261"/>
+      <c r="BD8" s="262"/>
+      <c r="BE8" s="262"/>
+      <c r="BF8" s="262"/>
+      <c r="BG8" s="263"/>
+      <c r="BH8" s="245"/>
+      <c r="BI8" s="245"/>
+      <c r="BJ8" s="245"/>
+      <c r="BK8" s="245"/>
+      <c r="BL8" s="245"/>
+      <c r="BM8" s="245"/>
+      <c r="BN8" s="245"/>
     </row>
     <row r="9" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="252" t="s">
+      <c r="B9" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="262" t="s">
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="284"/>
+      <c r="F9" s="285"/>
+      <c r="G9" s="251" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="263"/>
-      <c r="I9" s="263"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="263"/>
-      <c r="L9" s="263"/>
-      <c r="M9" s="263"/>
-      <c r="N9" s="264"/>
-      <c r="O9" s="249" t="s">
+      <c r="H9" s="252"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="253"/>
+      <c r="O9" s="280" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="250"/>
-      <c r="Q9" s="251"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="259"/>
-      <c r="T9" s="247">
+      <c r="P9" s="281"/>
+      <c r="Q9" s="282"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="273"/>
+      <c r="T9" s="286">
         <v>10</v>
       </c>
-      <c r="U9" s="248"/>
-      <c r="V9" s="265"/>
-      <c r="W9" s="266"/>
-      <c r="X9" s="267"/>
-      <c r="Y9" s="268"/>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="262"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
-      <c r="AI9" s="264"/>
+      <c r="U9" s="287"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="247"/>
+      <c r="X9" s="288"/>
+      <c r="Y9" s="256"/>
+      <c r="Z9" s="256"/>
+      <c r="AA9" s="256"/>
+      <c r="AB9" s="256"/>
+      <c r="AC9" s="257"/>
+      <c r="AD9" s="251"/>
+      <c r="AE9" s="252"/>
+      <c r="AF9" s="252"/>
+      <c r="AG9" s="252"/>
+      <c r="AH9" s="252"/>
+      <c r="AI9" s="253"/>
       <c r="AJ9" s="44"/>
-      <c r="AL9" s="295" t="s">
+      <c r="AL9" s="248" t="s">
         <v>89</v>
       </c>
-      <c r="AM9" s="256"/>
-      <c r="AN9" s="256"/>
-      <c r="AO9" s="256"/>
-      <c r="AP9" s="256"/>
-      <c r="AQ9" s="256"/>
-      <c r="AR9" s="256"/>
-      <c r="AS9" s="256"/>
-      <c r="AT9" s="256"/>
-      <c r="AU9" s="256"/>
-      <c r="AV9" s="256"/>
-      <c r="AW9" s="257"/>
-      <c r="AX9" s="246" t="s">
+      <c r="AM9" s="254"/>
+      <c r="AN9" s="254"/>
+      <c r="AO9" s="254"/>
+      <c r="AP9" s="254"/>
+      <c r="AQ9" s="254"/>
+      <c r="AR9" s="254"/>
+      <c r="AS9" s="254"/>
+      <c r="AT9" s="254"/>
+      <c r="AU9" s="254"/>
+      <c r="AV9" s="254"/>
+      <c r="AW9" s="255"/>
+      <c r="AX9" s="264" t="s">
         <v>114</v>
       </c>
-      <c r="AY9" s="246"/>
-      <c r="AZ9" s="246"/>
-      <c r="BA9" s="246"/>
-      <c r="BB9" s="246"/>
-      <c r="BC9" s="295"/>
-      <c r="BD9" s="296"/>
-      <c r="BE9" s="296"/>
-      <c r="BF9" s="296"/>
-      <c r="BG9" s="297"/>
-      <c r="BH9" s="245"/>
-      <c r="BI9" s="245"/>
-      <c r="BJ9" s="245"/>
-      <c r="BK9" s="245"/>
-      <c r="BL9" s="245"/>
-      <c r="BM9" s="245"/>
-      <c r="BN9" s="245"/>
+      <c r="AY9" s="264"/>
+      <c r="AZ9" s="264"/>
+      <c r="BA9" s="264"/>
+      <c r="BB9" s="264"/>
+      <c r="BC9" s="248"/>
+      <c r="BD9" s="249"/>
+      <c r="BE9" s="249"/>
+      <c r="BF9" s="249"/>
+      <c r="BG9" s="250"/>
+      <c r="BH9" s="265"/>
+      <c r="BI9" s="265"/>
+      <c r="BJ9" s="265"/>
+      <c r="BK9" s="265"/>
+      <c r="BL9" s="265"/>
+      <c r="BM9" s="265"/>
+      <c r="BN9" s="265"/>
     </row>
     <row r="10" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="252" t="s">
+      <c r="B10" s="283" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="262" t="s">
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="251" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="263"/>
-      <c r="I10" s="263"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="263"/>
-      <c r="L10" s="263"/>
-      <c r="M10" s="263"/>
-      <c r="N10" s="264"/>
-      <c r="O10" s="249" t="s">
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="252"/>
+      <c r="N10" s="253"/>
+      <c r="O10" s="280" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="250"/>
-      <c r="Q10" s="251"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="259"/>
-      <c r="T10" s="247">
+      <c r="P10" s="281"/>
+      <c r="Q10" s="282"/>
+      <c r="R10" s="272"/>
+      <c r="S10" s="273"/>
+      <c r="T10" s="286">
         <v>128</v>
       </c>
-      <c r="U10" s="248"/>
-      <c r="V10" s="265"/>
-      <c r="W10" s="266"/>
-      <c r="X10" s="267"/>
-      <c r="Y10" s="268"/>
-      <c r="Z10" s="268"/>
-      <c r="AA10" s="268"/>
-      <c r="AB10" s="268"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="262"/>
-      <c r="AE10" s="263"/>
-      <c r="AF10" s="263"/>
-      <c r="AG10" s="263"/>
-      <c r="AH10" s="263"/>
-      <c r="AI10" s="264"/>
+      <c r="U10" s="287"/>
+      <c r="V10" s="246"/>
+      <c r="W10" s="247"/>
+      <c r="X10" s="288"/>
+      <c r="Y10" s="256"/>
+      <c r="Z10" s="256"/>
+      <c r="AA10" s="256"/>
+      <c r="AB10" s="256"/>
+      <c r="AC10" s="257"/>
+      <c r="AD10" s="251"/>
+      <c r="AE10" s="252"/>
+      <c r="AF10" s="252"/>
+      <c r="AG10" s="252"/>
+      <c r="AH10" s="252"/>
+      <c r="AI10" s="253"/>
       <c r="AJ10" s="46"/>
-      <c r="AL10" s="295" t="s">
+      <c r="AL10" s="248" t="s">
         <v>117</v>
       </c>
-      <c r="AM10" s="256"/>
-      <c r="AN10" s="256"/>
-      <c r="AO10" s="256"/>
-      <c r="AP10" s="256"/>
-      <c r="AQ10" s="256"/>
-      <c r="AR10" s="256"/>
-      <c r="AS10" s="256"/>
-      <c r="AT10" s="256"/>
-      <c r="AU10" s="256"/>
-      <c r="AV10" s="256"/>
-      <c r="AW10" s="257"/>
-      <c r="AX10" s="246" t="s">
+      <c r="AM10" s="254"/>
+      <c r="AN10" s="254"/>
+      <c r="AO10" s="254"/>
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="254"/>
+      <c r="AR10" s="254"/>
+      <c r="AS10" s="254"/>
+      <c r="AT10" s="254"/>
+      <c r="AU10" s="254"/>
+      <c r="AV10" s="254"/>
+      <c r="AW10" s="255"/>
+      <c r="AX10" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="AY10" s="246"/>
-      <c r="AZ10" s="246"/>
-      <c r="BA10" s="246"/>
-      <c r="BB10" s="246"/>
-      <c r="BC10" s="295" t="s">
+      <c r="AY10" s="264"/>
+      <c r="AZ10" s="264"/>
+      <c r="BA10" s="264"/>
+      <c r="BB10" s="264"/>
+      <c r="BC10" s="248" t="s">
         <v>105</v>
       </c>
-      <c r="BD10" s="296"/>
-      <c r="BE10" s="296"/>
-      <c r="BF10" s="296"/>
-      <c r="BG10" s="297"/>
-      <c r="BH10" s="245"/>
-      <c r="BI10" s="245"/>
-      <c r="BJ10" s="245"/>
-      <c r="BK10" s="245"/>
-      <c r="BL10" s="245"/>
-      <c r="BM10" s="245"/>
-      <c r="BN10" s="245"/>
+      <c r="BD10" s="249"/>
+      <c r="BE10" s="249"/>
+      <c r="BF10" s="249"/>
+      <c r="BG10" s="250"/>
+      <c r="BH10" s="265"/>
+      <c r="BI10" s="265"/>
+      <c r="BJ10" s="265"/>
+      <c r="BK10" s="265"/>
+      <c r="BL10" s="265"/>
+      <c r="BM10" s="265"/>
+      <c r="BN10" s="265"/>
     </row>
     <row r="11" spans="1:66" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <v>3</v>
       </c>
-      <c r="B11" s="252" t="s">
+      <c r="B11" s="283" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="262" t="s">
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="284"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="263"/>
-      <c r="I11" s="263"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="263"/>
-      <c r="L11" s="263"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="264"/>
-      <c r="O11" s="249" t="s">
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="253"/>
+      <c r="O11" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="250"/>
-      <c r="Q11" s="251"/>
-      <c r="R11" s="258"/>
-      <c r="S11" s="259"/>
-      <c r="T11" s="247">
+      <c r="P11" s="281"/>
+      <c r="Q11" s="282"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="273"/>
+      <c r="T11" s="286">
         <v>2</v>
       </c>
-      <c r="U11" s="248"/>
-      <c r="V11" s="265"/>
-      <c r="W11" s="266"/>
-      <c r="X11" s="267" t="s">
+      <c r="U11" s="287"/>
+      <c r="V11" s="246"/>
+      <c r="W11" s="247"/>
+      <c r="X11" s="288" t="s">
         <v>121</v>
       </c>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="262"/>
-      <c r="AE11" s="263"/>
-      <c r="AF11" s="263"/>
-      <c r="AG11" s="263"/>
-      <c r="AH11" s="263"/>
-      <c r="AI11" s="264"/>
+      <c r="Y11" s="256"/>
+      <c r="Z11" s="256"/>
+      <c r="AA11" s="256"/>
+      <c r="AB11" s="256"/>
+      <c r="AC11" s="257"/>
+      <c r="AD11" s="251"/>
+      <c r="AE11" s="252"/>
+      <c r="AF11" s="252"/>
+      <c r="AG11" s="252"/>
+      <c r="AH11" s="252"/>
+      <c r="AI11" s="253"/>
       <c r="AJ11" s="44"/>
       <c r="AK11" s="47"/>
-      <c r="AL11" s="295" t="s">
+      <c r="AL11" s="248" t="s">
         <v>93</v>
       </c>
-      <c r="AM11" s="296"/>
-      <c r="AN11" s="296"/>
-      <c r="AO11" s="296"/>
-      <c r="AP11" s="296"/>
-      <c r="AQ11" s="296"/>
-      <c r="AR11" s="296"/>
-      <c r="AS11" s="296"/>
-      <c r="AT11" s="296"/>
-      <c r="AU11" s="296"/>
-      <c r="AV11" s="296"/>
-      <c r="AW11" s="297"/>
-      <c r="AX11" s="246" t="s">
+      <c r="AM11" s="249"/>
+      <c r="AN11" s="249"/>
+      <c r="AO11" s="249"/>
+      <c r="AP11" s="249"/>
+      <c r="AQ11" s="249"/>
+      <c r="AR11" s="249"/>
+      <c r="AS11" s="249"/>
+      <c r="AT11" s="249"/>
+      <c r="AU11" s="249"/>
+      <c r="AV11" s="249"/>
+      <c r="AW11" s="250"/>
+      <c r="AX11" s="264" t="s">
         <v>122</v>
       </c>
-      <c r="AY11" s="246"/>
-      <c r="AZ11" s="246"/>
-      <c r="BA11" s="246"/>
-      <c r="BB11" s="246"/>
-      <c r="BC11" s="295"/>
-      <c r="BD11" s="296"/>
-      <c r="BE11" s="296"/>
-      <c r="BF11" s="296"/>
-      <c r="BG11" s="297"/>
-      <c r="BH11" s="245"/>
-      <c r="BI11" s="245"/>
-      <c r="BJ11" s="245"/>
-      <c r="BK11" s="245"/>
-      <c r="BL11" s="245"/>
-      <c r="BM11" s="245"/>
-      <c r="BN11" s="245"/>
+      <c r="AY11" s="264"/>
+      <c r="AZ11" s="264"/>
+      <c r="BA11" s="264"/>
+      <c r="BB11" s="264"/>
+      <c r="BC11" s="248"/>
+      <c r="BD11" s="249"/>
+      <c r="BE11" s="249"/>
+      <c r="BF11" s="249"/>
+      <c r="BG11" s="250"/>
+      <c r="BH11" s="265"/>
+      <c r="BI11" s="265"/>
+      <c r="BJ11" s="265"/>
+      <c r="BK11" s="265"/>
+      <c r="BL11" s="265"/>
+      <c r="BM11" s="265"/>
+      <c r="BN11" s="265"/>
     </row>
     <row r="12" spans="1:66" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <v>4</v>
       </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="262"/>
-      <c r="H12" s="263"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="264"/>
-      <c r="O12" s="249"/>
-      <c r="P12" s="250"/>
-      <c r="Q12" s="251"/>
-      <c r="R12" s="260"/>
-      <c r="S12" s="261"/>
-      <c r="T12" s="247"/>
-      <c r="U12" s="248"/>
-      <c r="V12" s="265"/>
-      <c r="W12" s="266"/>
-      <c r="X12" s="267"/>
-      <c r="Y12" s="268"/>
-      <c r="Z12" s="268"/>
-      <c r="AA12" s="268"/>
-      <c r="AB12" s="268"/>
-      <c r="AC12" s="269"/>
-      <c r="AD12" s="262"/>
-      <c r="AE12" s="263"/>
-      <c r="AF12" s="263"/>
-      <c r="AG12" s="263"/>
-      <c r="AH12" s="263"/>
-      <c r="AI12" s="264"/>
+      <c r="B12" s="283"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="284"/>
+      <c r="F12" s="285"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="252"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="252"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="252"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="280"/>
+      <c r="P12" s="281"/>
+      <c r="Q12" s="282"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="297"/>
+      <c r="T12" s="286"/>
+      <c r="U12" s="287"/>
+      <c r="V12" s="246"/>
+      <c r="W12" s="247"/>
+      <c r="X12" s="288"/>
+      <c r="Y12" s="256"/>
+      <c r="Z12" s="256"/>
+      <c r="AA12" s="256"/>
+      <c r="AB12" s="256"/>
+      <c r="AC12" s="257"/>
+      <c r="AD12" s="251"/>
+      <c r="AE12" s="252"/>
+      <c r="AF12" s="252"/>
+      <c r="AG12" s="252"/>
+      <c r="AH12" s="252"/>
+      <c r="AI12" s="253"/>
       <c r="AJ12" s="44"/>
-      <c r="AL12" s="295"/>
-      <c r="AM12" s="256"/>
-      <c r="AN12" s="256"/>
-      <c r="AO12" s="256"/>
-      <c r="AP12" s="256"/>
-      <c r="AQ12" s="256"/>
-      <c r="AR12" s="256"/>
-      <c r="AS12" s="256"/>
-      <c r="AT12" s="256"/>
-      <c r="AU12" s="256"/>
-      <c r="AV12" s="256"/>
-      <c r="AW12" s="257"/>
-      <c r="AX12" s="246"/>
-      <c r="AY12" s="246"/>
-      <c r="AZ12" s="246"/>
-      <c r="BA12" s="246"/>
-      <c r="BB12" s="246"/>
-      <c r="BC12" s="295"/>
-      <c r="BD12" s="296"/>
-      <c r="BE12" s="296"/>
-      <c r="BF12" s="296"/>
-      <c r="BG12" s="297"/>
-      <c r="BH12" s="245"/>
-      <c r="BI12" s="245"/>
-      <c r="BJ12" s="245"/>
-      <c r="BK12" s="245"/>
-      <c r="BL12" s="245"/>
-      <c r="BM12" s="245"/>
-      <c r="BN12" s="245"/>
+      <c r="AL12" s="248"/>
+      <c r="AM12" s="254"/>
+      <c r="AN12" s="254"/>
+      <c r="AO12" s="254"/>
+      <c r="AP12" s="254"/>
+      <c r="AQ12" s="254"/>
+      <c r="AR12" s="254"/>
+      <c r="AS12" s="254"/>
+      <c r="AT12" s="254"/>
+      <c r="AU12" s="254"/>
+      <c r="AV12" s="254"/>
+      <c r="AW12" s="255"/>
+      <c r="AX12" s="264"/>
+      <c r="AY12" s="264"/>
+      <c r="AZ12" s="264"/>
+      <c r="BA12" s="264"/>
+      <c r="BB12" s="264"/>
+      <c r="BC12" s="248"/>
+      <c r="BD12" s="249"/>
+      <c r="BE12" s="249"/>
+      <c r="BF12" s="249"/>
+      <c r="BG12" s="250"/>
+      <c r="BH12" s="265"/>
+      <c r="BI12" s="265"/>
+      <c r="BJ12" s="265"/>
+      <c r="BK12" s="265"/>
+      <c r="BL12" s="265"/>
+      <c r="BM12" s="265"/>
+      <c r="BN12" s="265"/>
     </row>
     <row r="13" spans="1:66" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <v>5</v>
       </c>
-      <c r="B13" s="255"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="257"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="264"/>
-      <c r="O13" s="249"/>
-      <c r="P13" s="250"/>
-      <c r="Q13" s="251"/>
-      <c r="R13" s="258"/>
-      <c r="S13" s="259"/>
-      <c r="T13" s="247"/>
-      <c r="U13" s="248"/>
-      <c r="V13" s="265"/>
-      <c r="W13" s="266"/>
-      <c r="X13" s="267"/>
-      <c r="Y13" s="268"/>
-      <c r="Z13" s="268"/>
-      <c r="AA13" s="268"/>
-      <c r="AB13" s="268"/>
-      <c r="AC13" s="269"/>
-      <c r="AD13" s="262"/>
-      <c r="AE13" s="263"/>
-      <c r="AF13" s="263"/>
-      <c r="AG13" s="263"/>
-      <c r="AH13" s="263"/>
-      <c r="AI13" s="264"/>
+      <c r="B13" s="295"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="252"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="252"/>
+      <c r="N13" s="253"/>
+      <c r="O13" s="280"/>
+      <c r="P13" s="281"/>
+      <c r="Q13" s="282"/>
+      <c r="R13" s="272"/>
+      <c r="S13" s="273"/>
+      <c r="T13" s="286"/>
+      <c r="U13" s="287"/>
+      <c r="V13" s="246"/>
+      <c r="W13" s="247"/>
+      <c r="X13" s="288"/>
+      <c r="Y13" s="256"/>
+      <c r="Z13" s="256"/>
+      <c r="AA13" s="256"/>
+      <c r="AB13" s="256"/>
+      <c r="AC13" s="257"/>
+      <c r="AD13" s="251"/>
+      <c r="AE13" s="252"/>
+      <c r="AF13" s="252"/>
+      <c r="AG13" s="252"/>
+      <c r="AH13" s="252"/>
+      <c r="AI13" s="253"/>
       <c r="AJ13" s="44"/>
-      <c r="AL13" s="295"/>
-      <c r="AM13" s="256"/>
-      <c r="AN13" s="256"/>
-      <c r="AO13" s="256"/>
-      <c r="AP13" s="256"/>
-      <c r="AQ13" s="256"/>
-      <c r="AR13" s="256"/>
-      <c r="AS13" s="256"/>
-      <c r="AT13" s="256"/>
-      <c r="AU13" s="256"/>
-      <c r="AV13" s="256"/>
-      <c r="AW13" s="257"/>
-      <c r="AX13" s="246"/>
-      <c r="AY13" s="246"/>
-      <c r="AZ13" s="246"/>
-      <c r="BA13" s="246"/>
-      <c r="BB13" s="246"/>
-      <c r="BC13" s="295"/>
-      <c r="BD13" s="296"/>
-      <c r="BE13" s="296"/>
-      <c r="BF13" s="296"/>
-      <c r="BG13" s="297"/>
-      <c r="BH13" s="245"/>
-      <c r="BI13" s="245"/>
-      <c r="BJ13" s="245"/>
-      <c r="BK13" s="245"/>
-      <c r="BL13" s="245"/>
-      <c r="BM13" s="245"/>
-      <c r="BN13" s="245"/>
+      <c r="AL13" s="248"/>
+      <c r="AM13" s="254"/>
+      <c r="AN13" s="254"/>
+      <c r="AO13" s="254"/>
+      <c r="AP13" s="254"/>
+      <c r="AQ13" s="254"/>
+      <c r="AR13" s="254"/>
+      <c r="AS13" s="254"/>
+      <c r="AT13" s="254"/>
+      <c r="AU13" s="254"/>
+      <c r="AV13" s="254"/>
+      <c r="AW13" s="255"/>
+      <c r="AX13" s="264"/>
+      <c r="AY13" s="264"/>
+      <c r="AZ13" s="264"/>
+      <c r="BA13" s="264"/>
+      <c r="BB13" s="264"/>
+      <c r="BC13" s="248"/>
+      <c r="BD13" s="249"/>
+      <c r="BE13" s="249"/>
+      <c r="BF13" s="249"/>
+      <c r="BG13" s="250"/>
+      <c r="BH13" s="265"/>
+      <c r="BI13" s="265"/>
+      <c r="BJ13" s="265"/>
+      <c r="BK13" s="265"/>
+      <c r="BL13" s="265"/>
+      <c r="BM13" s="265"/>
+      <c r="BN13" s="265"/>
     </row>
     <row r="14" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
     <mergeCell ref="AX7:BB8"/>
     <mergeCell ref="BH7:BN8"/>
     <mergeCell ref="AA12:AC12"/>
@@ -15029,79 +15105,15 @@
     <mergeCell ref="AL13:AW13"/>
     <mergeCell ref="BH9:BN9"/>
     <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15137,157 +15149,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="205" t="str">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="236" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="195" t="str">
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="222" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="205">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="205" t="str">
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="222" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="228"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="205" t="str">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="223"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -15300,49 +15312,49 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="301" t="s">
+      <c r="B8" s="307" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="301" t="s">
+      <c r="C8" s="308"/>
+      <c r="D8" s="308"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="308"/>
+      <c r="G8" s="308"/>
+      <c r="H8" s="308"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="307" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="302"/>
-      <c r="N8" s="302"/>
-      <c r="O8" s="302"/>
-      <c r="P8" s="302"/>
-      <c r="Q8" s="302"/>
-      <c r="R8" s="302"/>
-      <c r="S8" s="302"/>
-      <c r="T8" s="302"/>
-      <c r="U8" s="302"/>
-      <c r="V8" s="302"/>
-      <c r="W8" s="302"/>
-      <c r="X8" s="303"/>
-      <c r="Y8" s="286" t="s">
+      <c r="K8" s="308"/>
+      <c r="L8" s="308"/>
+      <c r="M8" s="308"/>
+      <c r="N8" s="308"/>
+      <c r="O8" s="308"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="308"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="308"/>
+      <c r="V8" s="308"/>
+      <c r="W8" s="308"/>
+      <c r="X8" s="309"/>
+      <c r="Y8" s="268" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="286"/>
-      <c r="AA8" s="286"/>
-      <c r="AB8" s="286"/>
-      <c r="AC8" s="286"/>
-      <c r="AD8" s="286"/>
-      <c r="AE8" s="286"/>
-      <c r="AF8" s="286"/>
-      <c r="AG8" s="286"/>
-      <c r="AH8" s="286"/>
-      <c r="AI8" s="286"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
+      <c r="AI8" s="268"/>
       <c r="BM8" s="32"/>
       <c r="BN8" s="32"/>
       <c r="BO8" s="32"/>
@@ -15351,45 +15363,45 @@
       <c r="BR8" s="32"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="221"/>
-      <c r="B9" s="304"/>
-      <c r="C9" s="305"/>
-      <c r="D9" s="305"/>
-      <c r="E9" s="305"/>
-      <c r="F9" s="305"/>
-      <c r="G9" s="305"/>
-      <c r="H9" s="305"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="304"/>
-      <c r="K9" s="305"/>
-      <c r="L9" s="305"/>
-      <c r="M9" s="305"/>
-      <c r="N9" s="305"/>
-      <c r="O9" s="305"/>
-      <c r="P9" s="305"/>
-      <c r="Q9" s="305"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="305"/>
-      <c r="T9" s="305"/>
-      <c r="U9" s="305"/>
-      <c r="V9" s="305"/>
-      <c r="W9" s="305"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="286" t="s">
+      <c r="A9" s="241"/>
+      <c r="B9" s="310"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="312"/>
+      <c r="J9" s="310"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
+      <c r="M9" s="311"/>
+      <c r="N9" s="311"/>
+      <c r="O9" s="311"/>
+      <c r="P9" s="311"/>
+      <c r="Q9" s="311"/>
+      <c r="R9" s="311"/>
+      <c r="S9" s="311"/>
+      <c r="T9" s="311"/>
+      <c r="U9" s="311"/>
+      <c r="V9" s="311"/>
+      <c r="W9" s="311"/>
+      <c r="X9" s="312"/>
+      <c r="Y9" s="268" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="286"/>
-      <c r="AA9" s="286"/>
-      <c r="AB9" s="286"/>
-      <c r="AC9" s="286" t="s">
+      <c r="Z9" s="268"/>
+      <c r="AA9" s="268"/>
+      <c r="AB9" s="268"/>
+      <c r="AC9" s="268" t="s">
         <v>80</v>
       </c>
-      <c r="AD9" s="286"/>
-      <c r="AE9" s="286"/>
-      <c r="AF9" s="286"/>
-      <c r="AG9" s="286"/>
-      <c r="AH9" s="286"/>
-      <c r="AI9" s="286"/>
+      <c r="AD9" s="268"/>
+      <c r="AE9" s="268"/>
+      <c r="AF9" s="268"/>
+      <c r="AG9" s="268"/>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="268"/>
       <c r="AJ9" s="32"/>
       <c r="AK9" s="32"/>
       <c r="AL9" s="32"/>
@@ -15426,37 +15438,37 @@
       <c r="BQ9" s="32"/>
       <c r="BR9" s="32"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>1</v>
       </c>
-      <c r="B10" s="299" t="s">
+      <c r="B10" s="313" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="300" t="s">
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="313"/>
+      <c r="J10" s="299" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="300"/>
-      <c r="L10" s="300"/>
-      <c r="M10" s="300"/>
-      <c r="N10" s="300"/>
-      <c r="O10" s="300"/>
-      <c r="P10" s="300"/>
-      <c r="Q10" s="300"/>
-      <c r="R10" s="300"/>
-      <c r="S10" s="300"/>
-      <c r="T10" s="300"/>
-      <c r="U10" s="300"/>
-      <c r="V10" s="300"/>
-      <c r="W10" s="300"/>
-      <c r="X10" s="300"/>
+      <c r="K10" s="299"/>
+      <c r="L10" s="299"/>
+      <c r="M10" s="299"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="299"/>
+      <c r="Q10" s="299"/>
+      <c r="R10" s="299"/>
+      <c r="S10" s="299"/>
+      <c r="T10" s="299"/>
+      <c r="U10" s="299"/>
+      <c r="V10" s="299"/>
+      <c r="W10" s="299"/>
+      <c r="X10" s="299"/>
       <c r="Y10" s="298"/>
       <c r="Z10" s="298"/>
       <c r="AA10" s="298"/>
@@ -15508,33 +15520,33 @@
       <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="299" t="s">
+      <c r="B11" s="303" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="299"/>
-      <c r="H11" s="299"/>
-      <c r="I11" s="299"/>
-      <c r="J11" s="300" t="s">
+      <c r="C11" s="303"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
+      <c r="I11" s="303"/>
+      <c r="J11" s="299" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="300"/>
-      <c r="L11" s="300"/>
-      <c r="M11" s="300"/>
-      <c r="N11" s="300"/>
-      <c r="O11" s="300"/>
-      <c r="P11" s="300"/>
-      <c r="Q11" s="300"/>
-      <c r="R11" s="300"/>
-      <c r="S11" s="300"/>
-      <c r="T11" s="300"/>
-      <c r="U11" s="300"/>
-      <c r="V11" s="300"/>
-      <c r="W11" s="300"/>
-      <c r="X11" s="300"/>
+      <c r="K11" s="299"/>
+      <c r="L11" s="299"/>
+      <c r="M11" s="299"/>
+      <c r="N11" s="299"/>
+      <c r="O11" s="299"/>
+      <c r="P11" s="299"/>
+      <c r="Q11" s="299"/>
+      <c r="R11" s="299"/>
+      <c r="S11" s="299"/>
+      <c r="T11" s="299"/>
+      <c r="U11" s="299"/>
+      <c r="V11" s="299"/>
+      <c r="W11" s="299"/>
+      <c r="X11" s="299"/>
       <c r="Y11" s="298"/>
       <c r="Z11" s="298"/>
       <c r="AA11" s="298"/>
@@ -15586,33 +15598,33 @@
       <c r="A12" s="34">
         <v>3</v>
       </c>
-      <c r="B12" s="307" t="s">
+      <c r="B12" s="302" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="308"/>
-      <c r="D12" s="308"/>
-      <c r="E12" s="308"/>
-      <c r="F12" s="308"/>
-      <c r="G12" s="308"/>
-      <c r="H12" s="308"/>
-      <c r="I12" s="308"/>
-      <c r="J12" s="300" t="s">
+      <c r="C12" s="300"/>
+      <c r="D12" s="300"/>
+      <c r="E12" s="300"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="300"/>
+      <c r="H12" s="300"/>
+      <c r="I12" s="300"/>
+      <c r="J12" s="299" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="300"/>
-      <c r="L12" s="300"/>
-      <c r="M12" s="300"/>
-      <c r="N12" s="300"/>
-      <c r="O12" s="300"/>
-      <c r="P12" s="300"/>
-      <c r="Q12" s="300"/>
-      <c r="R12" s="300"/>
-      <c r="S12" s="300"/>
-      <c r="T12" s="300"/>
-      <c r="U12" s="300"/>
-      <c r="V12" s="300"/>
-      <c r="W12" s="300"/>
-      <c r="X12" s="300"/>
+      <c r="K12" s="299"/>
+      <c r="L12" s="299"/>
+      <c r="M12" s="299"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="299"/>
+      <c r="P12" s="299"/>
+      <c r="Q12" s="299"/>
+      <c r="R12" s="299"/>
+      <c r="S12" s="299"/>
+      <c r="T12" s="299"/>
+      <c r="U12" s="299"/>
+      <c r="V12" s="299"/>
+      <c r="W12" s="299"/>
+      <c r="X12" s="299"/>
       <c r="Y12" s="298"/>
       <c r="Z12" s="298"/>
       <c r="AA12" s="298"/>
@@ -15660,37 +15672,37 @@
       <c r="BQ12" s="32"/>
       <c r="BR12" s="32"/>
     </row>
-    <row r="13" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>4</v>
       </c>
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="310"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="310"/>
-      <c r="G13" s="310"/>
-      <c r="H13" s="310"/>
-      <c r="I13" s="311"/>
-      <c r="J13" s="300" t="s">
+      <c r="C13" s="315"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="315"/>
+      <c r="G13" s="315"/>
+      <c r="H13" s="315"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="300"/>
-      <c r="L13" s="300"/>
-      <c r="M13" s="300"/>
-      <c r="N13" s="300"/>
-      <c r="O13" s="300"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="300"/>
-      <c r="S13" s="300"/>
-      <c r="T13" s="300"/>
-      <c r="U13" s="300"/>
-      <c r="V13" s="300"/>
-      <c r="W13" s="300"/>
-      <c r="X13" s="300"/>
+      <c r="K13" s="299"/>
+      <c r="L13" s="299"/>
+      <c r="M13" s="299"/>
+      <c r="N13" s="299"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="299"/>
+      <c r="Q13" s="299"/>
+      <c r="R13" s="299"/>
+      <c r="S13" s="299"/>
+      <c r="T13" s="299"/>
+      <c r="U13" s="299"/>
+      <c r="V13" s="299"/>
+      <c r="W13" s="299"/>
+      <c r="X13" s="299"/>
       <c r="Y13" s="298"/>
       <c r="Z13" s="298"/>
       <c r="AA13" s="298"/>
@@ -15742,33 +15754,33 @@
       <c r="A14" s="34">
         <v>5</v>
       </c>
-      <c r="B14" s="307" t="s">
+      <c r="B14" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="308"/>
-      <c r="D14" s="308"/>
-      <c r="E14" s="308"/>
-      <c r="F14" s="308"/>
-      <c r="G14" s="308"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="308"/>
-      <c r="J14" s="300" t="s">
+      <c r="C14" s="300"/>
+      <c r="D14" s="300"/>
+      <c r="E14" s="300"/>
+      <c r="F14" s="300"/>
+      <c r="G14" s="300"/>
+      <c r="H14" s="300"/>
+      <c r="I14" s="300"/>
+      <c r="J14" s="299" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="300"/>
-      <c r="L14" s="300"/>
-      <c r="M14" s="300"/>
-      <c r="N14" s="300"/>
-      <c r="O14" s="300"/>
-      <c r="P14" s="300"/>
-      <c r="Q14" s="300"/>
-      <c r="R14" s="300"/>
-      <c r="S14" s="300"/>
-      <c r="T14" s="300"/>
-      <c r="U14" s="300"/>
-      <c r="V14" s="300"/>
-      <c r="W14" s="300"/>
-      <c r="X14" s="300"/>
+      <c r="K14" s="299"/>
+      <c r="L14" s="299"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="299"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="299"/>
+      <c r="Q14" s="299"/>
+      <c r="R14" s="299"/>
+      <c r="S14" s="299"/>
+      <c r="T14" s="299"/>
+      <c r="U14" s="299"/>
+      <c r="V14" s="299"/>
+      <c r="W14" s="299"/>
+      <c r="X14" s="299"/>
       <c r="Y14" s="298"/>
       <c r="Z14" s="298"/>
       <c r="AA14" s="298"/>
@@ -15816,37 +15828,37 @@
       <c r="BQ14" s="32"/>
       <c r="BR14" s="32"/>
     </row>
-    <row r="15" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <v>6</v>
       </c>
-      <c r="B15" s="307" t="s">
+      <c r="B15" s="302" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="308"/>
-      <c r="D15" s="308"/>
-      <c r="E15" s="308"/>
-      <c r="F15" s="308"/>
-      <c r="G15" s="308"/>
-      <c r="H15" s="308"/>
-      <c r="I15" s="308"/>
-      <c r="J15" s="300" t="s">
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="299" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
-      <c r="M15" s="300"/>
-      <c r="N15" s="300"/>
-      <c r="O15" s="300"/>
-      <c r="P15" s="300"/>
-      <c r="Q15" s="300"/>
-      <c r="R15" s="300"/>
-      <c r="S15" s="300"/>
-      <c r="T15" s="300"/>
-      <c r="U15" s="300"/>
-      <c r="V15" s="300"/>
-      <c r="W15" s="300"/>
-      <c r="X15" s="300"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
+      <c r="M15" s="299"/>
+      <c r="N15" s="299"/>
+      <c r="O15" s="299"/>
+      <c r="P15" s="299"/>
+      <c r="Q15" s="299"/>
+      <c r="R15" s="299"/>
+      <c r="S15" s="299"/>
+      <c r="T15" s="299"/>
+      <c r="U15" s="299"/>
+      <c r="V15" s="299"/>
+      <c r="W15" s="299"/>
+      <c r="X15" s="299"/>
       <c r="Y15" s="298"/>
       <c r="Z15" s="298"/>
       <c r="AA15" s="298"/>
@@ -15898,33 +15910,33 @@
       <c r="A16" s="34">
         <v>7</v>
       </c>
-      <c r="B16" s="308" t="s">
+      <c r="B16" s="300" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="308"/>
-      <c r="D16" s="308"/>
-      <c r="E16" s="308"/>
-      <c r="F16" s="308"/>
-      <c r="G16" s="308"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="308"/>
-      <c r="J16" s="312" t="s">
+      <c r="C16" s="300"/>
+      <c r="D16" s="300"/>
+      <c r="E16" s="300"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="301" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="312"/>
-      <c r="L16" s="312"/>
-      <c r="M16" s="312"/>
-      <c r="N16" s="312"/>
-      <c r="O16" s="312"/>
-      <c r="P16" s="312"/>
-      <c r="Q16" s="312"/>
-      <c r="R16" s="312"/>
-      <c r="S16" s="312"/>
-      <c r="T16" s="312"/>
-      <c r="U16" s="312"/>
-      <c r="V16" s="312"/>
-      <c r="W16" s="312"/>
-      <c r="X16" s="312"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="301"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="301"/>
+      <c r="S16" s="301"/>
+      <c r="T16" s="301"/>
+      <c r="U16" s="301"/>
+      <c r="V16" s="301"/>
+      <c r="W16" s="301"/>
+      <c r="X16" s="301"/>
       <c r="Y16" s="298"/>
       <c r="Z16" s="298"/>
       <c r="AA16" s="298"/>
@@ -15976,33 +15988,33 @@
       <c r="A17" s="34">
         <v>8</v>
       </c>
-      <c r="B17" s="308" t="s">
+      <c r="B17" s="300" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="308"/>
-      <c r="D17" s="308"/>
-      <c r="E17" s="308"/>
-      <c r="F17" s="308"/>
-      <c r="G17" s="308"/>
-      <c r="H17" s="308"/>
-      <c r="I17" s="308"/>
-      <c r="J17" s="312" t="s">
+      <c r="C17" s="300"/>
+      <c r="D17" s="300"/>
+      <c r="E17" s="300"/>
+      <c r="F17" s="300"/>
+      <c r="G17" s="300"/>
+      <c r="H17" s="300"/>
+      <c r="I17" s="300"/>
+      <c r="J17" s="301" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="312"/>
-      <c r="L17" s="312"/>
-      <c r="M17" s="312"/>
-      <c r="N17" s="312"/>
-      <c r="O17" s="312"/>
-      <c r="P17" s="312"/>
-      <c r="Q17" s="312"/>
-      <c r="R17" s="312"/>
-      <c r="S17" s="312"/>
-      <c r="T17" s="312"/>
-      <c r="U17" s="312"/>
-      <c r="V17" s="312"/>
-      <c r="W17" s="312"/>
-      <c r="X17" s="312"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="301"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="301"/>
+      <c r="S17" s="301"/>
+      <c r="T17" s="301"/>
+      <c r="U17" s="301"/>
+      <c r="V17" s="301"/>
+      <c r="W17" s="301"/>
+      <c r="X17" s="301"/>
       <c r="Y17" s="298"/>
       <c r="Z17" s="298"/>
       <c r="AA17" s="298"/>
@@ -16054,33 +16066,33 @@
       <c r="A18" s="34">
         <v>9</v>
       </c>
-      <c r="B18" s="308" t="s">
+      <c r="B18" s="302" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="308"/>
-      <c r="D18" s="308"/>
-      <c r="E18" s="308"/>
-      <c r="F18" s="308"/>
-      <c r="G18" s="308"/>
-      <c r="H18" s="308"/>
-      <c r="I18" s="308"/>
-      <c r="J18" s="312" t="s">
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="312"/>
-      <c r="L18" s="312"/>
-      <c r="M18" s="312"/>
-      <c r="N18" s="312"/>
-      <c r="O18" s="312"/>
-      <c r="P18" s="312"/>
-      <c r="Q18" s="312"/>
-      <c r="R18" s="312"/>
-      <c r="S18" s="312"/>
-      <c r="T18" s="312"/>
-      <c r="U18" s="312"/>
-      <c r="V18" s="312"/>
-      <c r="W18" s="312"/>
-      <c r="X18" s="312"/>
+      <c r="K18" s="301"/>
+      <c r="L18" s="301"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="301"/>
+      <c r="Q18" s="301"/>
+      <c r="R18" s="301"/>
+      <c r="S18" s="301"/>
+      <c r="T18" s="301"/>
+      <c r="U18" s="301"/>
+      <c r="V18" s="301"/>
+      <c r="W18" s="301"/>
+      <c r="X18" s="301"/>
       <c r="Y18" s="298"/>
       <c r="Z18" s="298"/>
       <c r="AA18" s="298"/>
@@ -16690,6 +16702,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
     <mergeCell ref="AC16:AI16"/>
     <mergeCell ref="J14:X14"/>
     <mergeCell ref="AC18:AI18"/>
@@ -16706,49 +16761,6 @@
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -16778,157 +16790,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="205" t="str">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="236" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="195" t="str">
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="222" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="203"/>
+      <c r="AE1" s="203"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="205">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="205" t="str">
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="222" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="228"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:70" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="205" t="str">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="223"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -16941,49 +16953,49 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="301" t="s">
+      <c r="B8" s="307" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="301" t="s">
+      <c r="C8" s="308"/>
+      <c r="D8" s="308"/>
+      <c r="E8" s="308"/>
+      <c r="F8" s="308"/>
+      <c r="G8" s="308"/>
+      <c r="H8" s="308"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="307" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="302"/>
-      <c r="N8" s="302"/>
-      <c r="O8" s="302"/>
-      <c r="P8" s="302"/>
-      <c r="Q8" s="302"/>
-      <c r="R8" s="302"/>
-      <c r="S8" s="302"/>
-      <c r="T8" s="302"/>
-      <c r="U8" s="302"/>
-      <c r="V8" s="302"/>
-      <c r="W8" s="302"/>
-      <c r="X8" s="303"/>
-      <c r="Y8" s="286" t="s">
+      <c r="K8" s="308"/>
+      <c r="L8" s="308"/>
+      <c r="M8" s="308"/>
+      <c r="N8" s="308"/>
+      <c r="O8" s="308"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="308"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="308"/>
+      <c r="V8" s="308"/>
+      <c r="W8" s="308"/>
+      <c r="X8" s="309"/>
+      <c r="Y8" s="268" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="286"/>
-      <c r="AA8" s="286"/>
-      <c r="AB8" s="286"/>
-      <c r="AC8" s="286"/>
-      <c r="AD8" s="286"/>
-      <c r="AE8" s="286"/>
-      <c r="AF8" s="286"/>
-      <c r="AG8" s="286"/>
-      <c r="AH8" s="286"/>
-      <c r="AI8" s="286"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
+      <c r="AI8" s="268"/>
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32"/>
@@ -17021,45 +17033,45 @@
       <c r="BR8" s="32"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="221"/>
-      <c r="B9" s="304"/>
-      <c r="C9" s="305"/>
-      <c r="D9" s="305"/>
-      <c r="E9" s="305"/>
-      <c r="F9" s="305"/>
-      <c r="G9" s="305"/>
-      <c r="H9" s="305"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="304"/>
-      <c r="K9" s="305"/>
-      <c r="L9" s="305"/>
-      <c r="M9" s="305"/>
-      <c r="N9" s="305"/>
-      <c r="O9" s="305"/>
-      <c r="P9" s="305"/>
-      <c r="Q9" s="305"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="305"/>
-      <c r="T9" s="305"/>
-      <c r="U9" s="305"/>
-      <c r="V9" s="305"/>
-      <c r="W9" s="305"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="286" t="s">
+      <c r="A9" s="241"/>
+      <c r="B9" s="310"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="312"/>
+      <c r="J9" s="310"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
+      <c r="M9" s="311"/>
+      <c r="N9" s="311"/>
+      <c r="O9" s="311"/>
+      <c r="P9" s="311"/>
+      <c r="Q9" s="311"/>
+      <c r="R9" s="311"/>
+      <c r="S9" s="311"/>
+      <c r="T9" s="311"/>
+      <c r="U9" s="311"/>
+      <c r="V9" s="311"/>
+      <c r="W9" s="311"/>
+      <c r="X9" s="312"/>
+      <c r="Y9" s="268" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="286"/>
-      <c r="AA9" s="286"/>
-      <c r="AB9" s="286"/>
-      <c r="AC9" s="286" t="s">
+      <c r="Z9" s="268"/>
+      <c r="AA9" s="268"/>
+      <c r="AB9" s="268"/>
+      <c r="AC9" s="268" t="s">
         <v>80</v>
       </c>
-      <c r="AD9" s="286"/>
-      <c r="AE9" s="286"/>
-      <c r="AF9" s="286"/>
-      <c r="AG9" s="286"/>
-      <c r="AH9" s="286"/>
-      <c r="AI9" s="286"/>
+      <c r="AD9" s="268"/>
+      <c r="AE9" s="268"/>
+      <c r="AF9" s="268"/>
+      <c r="AG9" s="268"/>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="268"/>
       <c r="AJ9" s="32"/>
       <c r="AK9" s="32"/>
       <c r="AL9" s="32"/>
@@ -17098,29 +17110,29 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
-      <c r="B10" s="300"/>
-      <c r="C10" s="300"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="300"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="300"/>
-      <c r="H10" s="300"/>
-      <c r="I10" s="300"/>
-      <c r="J10" s="312"/>
-      <c r="K10" s="312"/>
-      <c r="L10" s="312"/>
-      <c r="M10" s="312"/>
-      <c r="N10" s="312"/>
-      <c r="O10" s="312"/>
-      <c r="P10" s="312"/>
-      <c r="Q10" s="312"/>
-      <c r="R10" s="312"/>
-      <c r="S10" s="312"/>
-      <c r="T10" s="312"/>
-      <c r="U10" s="312"/>
-      <c r="V10" s="312"/>
-      <c r="W10" s="312"/>
-      <c r="X10" s="312"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="299"/>
+      <c r="J10" s="301"/>
+      <c r="K10" s="301"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="301"/>
+      <c r="N10" s="301"/>
+      <c r="O10" s="301"/>
+      <c r="P10" s="301"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="301"/>
+      <c r="S10" s="301"/>
+      <c r="T10" s="301"/>
+      <c r="U10" s="301"/>
+      <c r="V10" s="301"/>
+      <c r="W10" s="301"/>
+      <c r="X10" s="301"/>
       <c r="Y10" s="298"/>
       <c r="Z10" s="298"/>
       <c r="AA10" s="298"/>
@@ -17170,29 +17182,29 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="300"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="300"/>
-      <c r="H11" s="300"/>
-      <c r="I11" s="300"/>
-      <c r="J11" s="300"/>
-      <c r="K11" s="300"/>
-      <c r="L11" s="300"/>
-      <c r="M11" s="300"/>
-      <c r="N11" s="300"/>
-      <c r="O11" s="300"/>
-      <c r="P11" s="300"/>
-      <c r="Q11" s="300"/>
-      <c r="R11" s="300"/>
-      <c r="S11" s="300"/>
-      <c r="T11" s="300"/>
-      <c r="U11" s="300"/>
-      <c r="V11" s="300"/>
-      <c r="W11" s="300"/>
-      <c r="X11" s="300"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="299"/>
+      <c r="H11" s="299"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="299"/>
+      <c r="L11" s="299"/>
+      <c r="M11" s="299"/>
+      <c r="N11" s="299"/>
+      <c r="O11" s="299"/>
+      <c r="P11" s="299"/>
+      <c r="Q11" s="299"/>
+      <c r="R11" s="299"/>
+      <c r="S11" s="299"/>
+      <c r="T11" s="299"/>
+      <c r="U11" s="299"/>
+      <c r="V11" s="299"/>
+      <c r="W11" s="299"/>
+      <c r="X11" s="299"/>
       <c r="Y11" s="298"/>
       <c r="Z11" s="298"/>
       <c r="AA11" s="298"/>
@@ -17242,29 +17254,29 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
-      <c r="B12" s="300"/>
-      <c r="C12" s="300"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="300"/>
-      <c r="H12" s="300"/>
-      <c r="I12" s="300"/>
-      <c r="J12" s="300"/>
-      <c r="K12" s="300"/>
-      <c r="L12" s="300"/>
-      <c r="M12" s="300"/>
-      <c r="N12" s="300"/>
-      <c r="O12" s="300"/>
-      <c r="P12" s="300"/>
-      <c r="Q12" s="300"/>
-      <c r="R12" s="300"/>
-      <c r="S12" s="300"/>
-      <c r="T12" s="300"/>
-      <c r="U12" s="300"/>
-      <c r="V12" s="300"/>
-      <c r="W12" s="300"/>
-      <c r="X12" s="300"/>
+      <c r="B12" s="299"/>
+      <c r="C12" s="299"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
+      <c r="F12" s="299"/>
+      <c r="G12" s="299"/>
+      <c r="H12" s="299"/>
+      <c r="I12" s="299"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="299"/>
+      <c r="L12" s="299"/>
+      <c r="M12" s="299"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="299"/>
+      <c r="P12" s="299"/>
+      <c r="Q12" s="299"/>
+      <c r="R12" s="299"/>
+      <c r="S12" s="299"/>
+      <c r="T12" s="299"/>
+      <c r="U12" s="299"/>
+      <c r="V12" s="299"/>
+      <c r="W12" s="299"/>
+      <c r="X12" s="299"/>
       <c r="Y12" s="298"/>
       <c r="Z12" s="298"/>
       <c r="AA12" s="298"/>
@@ -17314,29 +17326,29 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
-      <c r="B13" s="300"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="300"/>
-      <c r="H13" s="300"/>
-      <c r="I13" s="300"/>
-      <c r="J13" s="300"/>
-      <c r="K13" s="300"/>
-      <c r="L13" s="300"/>
-      <c r="M13" s="300"/>
-      <c r="N13" s="300"/>
-      <c r="O13" s="300"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="300"/>
-      <c r="S13" s="300"/>
-      <c r="T13" s="300"/>
-      <c r="U13" s="300"/>
-      <c r="V13" s="300"/>
-      <c r="W13" s="300"/>
-      <c r="X13" s="300"/>
+      <c r="B13" s="299"/>
+      <c r="C13" s="299"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="299"/>
+      <c r="F13" s="299"/>
+      <c r="G13" s="299"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="299"/>
+      <c r="J13" s="299"/>
+      <c r="K13" s="299"/>
+      <c r="L13" s="299"/>
+      <c r="M13" s="299"/>
+      <c r="N13" s="299"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="299"/>
+      <c r="Q13" s="299"/>
+      <c r="R13" s="299"/>
+      <c r="S13" s="299"/>
+      <c r="T13" s="299"/>
+      <c r="U13" s="299"/>
+      <c r="V13" s="299"/>
+      <c r="W13" s="299"/>
+      <c r="X13" s="299"/>
       <c r="Y13" s="298"/>
       <c r="Z13" s="298"/>
       <c r="AA13" s="298"/>
@@ -17386,29 +17398,29 @@
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
-      <c r="B14" s="307"/>
-      <c r="C14" s="308"/>
-      <c r="D14" s="308"/>
-      <c r="E14" s="308"/>
-      <c r="F14" s="308"/>
-      <c r="G14" s="308"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="308"/>
-      <c r="J14" s="300"/>
-      <c r="K14" s="300"/>
-      <c r="L14" s="300"/>
-      <c r="M14" s="300"/>
-      <c r="N14" s="300"/>
-      <c r="O14" s="300"/>
-      <c r="P14" s="300"/>
-      <c r="Q14" s="300"/>
-      <c r="R14" s="300"/>
-      <c r="S14" s="300"/>
-      <c r="T14" s="300"/>
-      <c r="U14" s="300"/>
-      <c r="V14" s="300"/>
-      <c r="W14" s="300"/>
-      <c r="X14" s="300"/>
+      <c r="B14" s="302"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="300"/>
+      <c r="E14" s="300"/>
+      <c r="F14" s="300"/>
+      <c r="G14" s="300"/>
+      <c r="H14" s="300"/>
+      <c r="I14" s="300"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="299"/>
+      <c r="L14" s="299"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="299"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="299"/>
+      <c r="Q14" s="299"/>
+      <c r="R14" s="299"/>
+      <c r="S14" s="299"/>
+      <c r="T14" s="299"/>
+      <c r="U14" s="299"/>
+      <c r="V14" s="299"/>
+      <c r="W14" s="299"/>
+      <c r="X14" s="299"/>
       <c r="Y14" s="298"/>
       <c r="Z14" s="298"/>
       <c r="AA14" s="298"/>
@@ -17458,29 +17470,29 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
-      <c r="B15" s="309"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="310"/>
-      <c r="H15" s="310"/>
-      <c r="I15" s="311"/>
-      <c r="J15" s="300"/>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
-      <c r="M15" s="300"/>
-      <c r="N15" s="300"/>
-      <c r="O15" s="300"/>
-      <c r="P15" s="300"/>
-      <c r="Q15" s="300"/>
-      <c r="R15" s="300"/>
-      <c r="S15" s="300"/>
-      <c r="T15" s="300"/>
-      <c r="U15" s="300"/>
-      <c r="V15" s="300"/>
-      <c r="W15" s="300"/>
-      <c r="X15" s="300"/>
+      <c r="B15" s="304"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="305"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="306"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
+      <c r="M15" s="299"/>
+      <c r="N15" s="299"/>
+      <c r="O15" s="299"/>
+      <c r="P15" s="299"/>
+      <c r="Q15" s="299"/>
+      <c r="R15" s="299"/>
+      <c r="S15" s="299"/>
+      <c r="T15" s="299"/>
+      <c r="U15" s="299"/>
+      <c r="V15" s="299"/>
+      <c r="W15" s="299"/>
+      <c r="X15" s="299"/>
       <c r="Y15" s="298"/>
       <c r="Z15" s="298"/>
       <c r="AA15" s="298"/>
@@ -17530,29 +17542,29 @@
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
-      <c r="B16" s="307"/>
-      <c r="C16" s="308"/>
-      <c r="D16" s="308"/>
-      <c r="E16" s="308"/>
-      <c r="F16" s="308"/>
-      <c r="G16" s="308"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="308"/>
-      <c r="J16" s="300"/>
-      <c r="K16" s="300"/>
-      <c r="L16" s="300"/>
-      <c r="M16" s="300"/>
-      <c r="N16" s="300"/>
-      <c r="O16" s="300"/>
-      <c r="P16" s="300"/>
-      <c r="Q16" s="300"/>
-      <c r="R16" s="300"/>
-      <c r="S16" s="300"/>
-      <c r="T16" s="300"/>
-      <c r="U16" s="300"/>
-      <c r="V16" s="300"/>
-      <c r="W16" s="300"/>
-      <c r="X16" s="300"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="300"/>
+      <c r="E16" s="300"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="299"/>
+      <c r="O16" s="299"/>
+      <c r="P16" s="299"/>
+      <c r="Q16" s="299"/>
+      <c r="R16" s="299"/>
+      <c r="S16" s="299"/>
+      <c r="T16" s="299"/>
+      <c r="U16" s="299"/>
+      <c r="V16" s="299"/>
+      <c r="W16" s="299"/>
+      <c r="X16" s="299"/>
       <c r="Y16" s="298"/>
       <c r="Z16" s="298"/>
       <c r="AA16" s="298"/>
@@ -17602,29 +17614,29 @@
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
-      <c r="B17" s="307"/>
-      <c r="C17" s="307"/>
-      <c r="D17" s="307"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="307"/>
-      <c r="G17" s="307"/>
-      <c r="H17" s="307"/>
-      <c r="I17" s="307"/>
-      <c r="J17" s="300"/>
-      <c r="K17" s="300"/>
-      <c r="L17" s="300"/>
-      <c r="M17" s="300"/>
-      <c r="N17" s="300"/>
-      <c r="O17" s="300"/>
-      <c r="P17" s="300"/>
-      <c r="Q17" s="300"/>
-      <c r="R17" s="300"/>
-      <c r="S17" s="300"/>
-      <c r="T17" s="300"/>
-      <c r="U17" s="300"/>
-      <c r="V17" s="300"/>
-      <c r="W17" s="300"/>
-      <c r="X17" s="300"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="299"/>
+      <c r="M17" s="299"/>
+      <c r="N17" s="299"/>
+      <c r="O17" s="299"/>
+      <c r="P17" s="299"/>
+      <c r="Q17" s="299"/>
+      <c r="R17" s="299"/>
+      <c r="S17" s="299"/>
+      <c r="T17" s="299"/>
+      <c r="U17" s="299"/>
+      <c r="V17" s="299"/>
+      <c r="W17" s="299"/>
+      <c r="X17" s="299"/>
       <c r="Y17" s="298"/>
       <c r="Z17" s="298"/>
       <c r="AA17" s="298"/>
@@ -17674,29 +17686,29 @@
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
-      <c r="B18" s="300"/>
-      <c r="C18" s="300"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="300"/>
-      <c r="F18" s="300"/>
-      <c r="G18" s="300"/>
-      <c r="H18" s="300"/>
-      <c r="I18" s="300"/>
-      <c r="J18" s="300"/>
-      <c r="K18" s="300"/>
-      <c r="L18" s="300"/>
-      <c r="M18" s="300"/>
-      <c r="N18" s="300"/>
-      <c r="O18" s="300"/>
-      <c r="P18" s="300"/>
-      <c r="Q18" s="300"/>
-      <c r="R18" s="300"/>
-      <c r="S18" s="300"/>
-      <c r="T18" s="300"/>
-      <c r="U18" s="300"/>
-      <c r="V18" s="300"/>
-      <c r="W18" s="300"/>
-      <c r="X18" s="300"/>
+      <c r="B18" s="299"/>
+      <c r="C18" s="299"/>
+      <c r="D18" s="299"/>
+      <c r="E18" s="299"/>
+      <c r="F18" s="299"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="299"/>
+      <c r="K18" s="299"/>
+      <c r="L18" s="299"/>
+      <c r="M18" s="299"/>
+      <c r="N18" s="299"/>
+      <c r="O18" s="299"/>
+      <c r="P18" s="299"/>
+      <c r="Q18" s="299"/>
+      <c r="R18" s="299"/>
+      <c r="S18" s="299"/>
+      <c r="T18" s="299"/>
+      <c r="U18" s="299"/>
+      <c r="V18" s="299"/>
+      <c r="W18" s="299"/>
+      <c r="X18" s="299"/>
       <c r="Y18" s="298"/>
       <c r="Z18" s="298"/>
       <c r="AA18" s="298"/>
@@ -17746,29 +17758,29 @@
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
-      <c r="B19" s="300"/>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
-      <c r="I19" s="300"/>
-      <c r="J19" s="300"/>
-      <c r="K19" s="300"/>
-      <c r="L19" s="300"/>
-      <c r="M19" s="300"/>
-      <c r="N19" s="300"/>
-      <c r="O19" s="300"/>
-      <c r="P19" s="300"/>
-      <c r="Q19" s="300"/>
-      <c r="R19" s="300"/>
-      <c r="S19" s="300"/>
-      <c r="T19" s="300"/>
-      <c r="U19" s="300"/>
-      <c r="V19" s="300"/>
-      <c r="W19" s="300"/>
-      <c r="X19" s="300"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="299"/>
+      <c r="M19" s="299"/>
+      <c r="N19" s="299"/>
+      <c r="O19" s="299"/>
+      <c r="P19" s="299"/>
+      <c r="Q19" s="299"/>
+      <c r="R19" s="299"/>
+      <c r="S19" s="299"/>
+      <c r="T19" s="299"/>
+      <c r="U19" s="299"/>
+      <c r="V19" s="299"/>
+      <c r="W19" s="299"/>
+      <c r="X19" s="299"/>
       <c r="Y19" s="298"/>
       <c r="Z19" s="298"/>
       <c r="AA19" s="298"/>
@@ -17818,29 +17830,29 @@
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
-      <c r="B20" s="312"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="300"/>
-      <c r="F20" s="300"/>
-      <c r="G20" s="300"/>
-      <c r="H20" s="300"/>
-      <c r="I20" s="300"/>
-      <c r="J20" s="300"/>
-      <c r="K20" s="300"/>
-      <c r="L20" s="300"/>
-      <c r="M20" s="300"/>
-      <c r="N20" s="300"/>
-      <c r="O20" s="300"/>
-      <c r="P20" s="300"/>
-      <c r="Q20" s="300"/>
-      <c r="R20" s="300"/>
-      <c r="S20" s="300"/>
-      <c r="T20" s="300"/>
-      <c r="U20" s="300"/>
-      <c r="V20" s="300"/>
-      <c r="W20" s="300"/>
-      <c r="X20" s="300"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="299"/>
+      <c r="E20" s="299"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="299"/>
+      <c r="J20" s="299"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="299"/>
+      <c r="M20" s="299"/>
+      <c r="N20" s="299"/>
+      <c r="O20" s="299"/>
+      <c r="P20" s="299"/>
+      <c r="Q20" s="299"/>
+      <c r="R20" s="299"/>
+      <c r="S20" s="299"/>
+      <c r="T20" s="299"/>
+      <c r="U20" s="299"/>
+      <c r="V20" s="299"/>
+      <c r="W20" s="299"/>
+      <c r="X20" s="299"/>
       <c r="Y20" s="298"/>
       <c r="Z20" s="298"/>
       <c r="AA20" s="298"/>
@@ -17855,29 +17867,29 @@
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
-      <c r="B21" s="312"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="300"/>
-      <c r="H21" s="300"/>
-      <c r="I21" s="300"/>
-      <c r="J21" s="300"/>
-      <c r="K21" s="300"/>
-      <c r="L21" s="300"/>
-      <c r="M21" s="300"/>
-      <c r="N21" s="300"/>
-      <c r="O21" s="300"/>
-      <c r="P21" s="300"/>
-      <c r="Q21" s="300"/>
-      <c r="R21" s="300"/>
-      <c r="S21" s="300"/>
-      <c r="T21" s="300"/>
-      <c r="U21" s="300"/>
-      <c r="V21" s="300"/>
-      <c r="W21" s="300"/>
-      <c r="X21" s="300"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="299"/>
+      <c r="E21" s="299"/>
+      <c r="F21" s="299"/>
+      <c r="G21" s="299"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="299"/>
+      <c r="J21" s="299"/>
+      <c r="K21" s="299"/>
+      <c r="L21" s="299"/>
+      <c r="M21" s="299"/>
+      <c r="N21" s="299"/>
+      <c r="O21" s="299"/>
+      <c r="P21" s="299"/>
+      <c r="Q21" s="299"/>
+      <c r="R21" s="299"/>
+      <c r="S21" s="299"/>
+      <c r="T21" s="299"/>
+      <c r="U21" s="299"/>
+      <c r="V21" s="299"/>
+      <c r="W21" s="299"/>
+      <c r="X21" s="299"/>
       <c r="Y21" s="298"/>
       <c r="Z21" s="298"/>
       <c r="AA21" s="298"/>
@@ -17892,29 +17904,29 @@
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
-      <c r="B22" s="312"/>
-      <c r="C22" s="300"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="300"/>
-      <c r="F22" s="300"/>
-      <c r="G22" s="300"/>
-      <c r="H22" s="300"/>
-      <c r="I22" s="300"/>
-      <c r="J22" s="300"/>
-      <c r="K22" s="300"/>
-      <c r="L22" s="300"/>
-      <c r="M22" s="300"/>
-      <c r="N22" s="300"/>
-      <c r="O22" s="300"/>
-      <c r="P22" s="300"/>
-      <c r="Q22" s="300"/>
-      <c r="R22" s="300"/>
-      <c r="S22" s="300"/>
-      <c r="T22" s="300"/>
-      <c r="U22" s="300"/>
-      <c r="V22" s="300"/>
-      <c r="W22" s="300"/>
-      <c r="X22" s="300"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="299"/>
+      <c r="D22" s="299"/>
+      <c r="E22" s="299"/>
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="299"/>
+      <c r="L22" s="299"/>
+      <c r="M22" s="299"/>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299"/>
+      <c r="P22" s="299"/>
+      <c r="Q22" s="299"/>
+      <c r="R22" s="299"/>
+      <c r="S22" s="299"/>
+      <c r="T22" s="299"/>
+      <c r="U22" s="299"/>
+      <c r="V22" s="299"/>
+      <c r="W22" s="299"/>
+      <c r="X22" s="299"/>
       <c r="Y22" s="298"/>
       <c r="Z22" s="298"/>
       <c r="AA22" s="298"/>
@@ -17929,29 +17941,29 @@
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
-      <c r="B23" s="300"/>
-      <c r="C23" s="300"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="300"/>
-      <c r="F23" s="300"/>
-      <c r="G23" s="300"/>
-      <c r="H23" s="300"/>
-      <c r="I23" s="300"/>
-      <c r="J23" s="312"/>
-      <c r="K23" s="312"/>
-      <c r="L23" s="312"/>
-      <c r="M23" s="312"/>
-      <c r="N23" s="312"/>
-      <c r="O23" s="312"/>
-      <c r="P23" s="312"/>
-      <c r="Q23" s="312"/>
-      <c r="R23" s="312"/>
-      <c r="S23" s="312"/>
-      <c r="T23" s="312"/>
-      <c r="U23" s="312"/>
-      <c r="V23" s="312"/>
-      <c r="W23" s="312"/>
-      <c r="X23" s="312"/>
+      <c r="B23" s="299"/>
+      <c r="C23" s="299"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="299"/>
+      <c r="F23" s="299"/>
+      <c r="G23" s="299"/>
+      <c r="H23" s="299"/>
+      <c r="I23" s="299"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="301"/>
+      <c r="O23" s="301"/>
+      <c r="P23" s="301"/>
+      <c r="Q23" s="301"/>
+      <c r="R23" s="301"/>
+      <c r="S23" s="301"/>
+      <c r="T23" s="301"/>
+      <c r="U23" s="301"/>
+      <c r="V23" s="301"/>
+      <c r="W23" s="301"/>
+      <c r="X23" s="301"/>
       <c r="Y23" s="298"/>
       <c r="Z23" s="298"/>
       <c r="AA23" s="298"/>
@@ -17966,29 +17978,29 @@
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
-      <c r="B24" s="300"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="300"/>
-      <c r="F24" s="300"/>
-      <c r="G24" s="300"/>
-      <c r="H24" s="300"/>
-      <c r="I24" s="300"/>
-      <c r="J24" s="312"/>
-      <c r="K24" s="312"/>
-      <c r="L24" s="312"/>
-      <c r="M24" s="312"/>
-      <c r="N24" s="312"/>
-      <c r="O24" s="312"/>
-      <c r="P24" s="312"/>
-      <c r="Q24" s="312"/>
-      <c r="R24" s="312"/>
-      <c r="S24" s="312"/>
-      <c r="T24" s="312"/>
-      <c r="U24" s="312"/>
-      <c r="V24" s="312"/>
-      <c r="W24" s="312"/>
-      <c r="X24" s="312"/>
+      <c r="B24" s="299"/>
+      <c r="C24" s="299"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="299"/>
+      <c r="F24" s="299"/>
+      <c r="G24" s="299"/>
+      <c r="H24" s="299"/>
+      <c r="I24" s="299"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="301"/>
+      <c r="L24" s="301"/>
+      <c r="M24" s="301"/>
+      <c r="N24" s="301"/>
+      <c r="O24" s="301"/>
+      <c r="P24" s="301"/>
+      <c r="Q24" s="301"/>
+      <c r="R24" s="301"/>
+      <c r="S24" s="301"/>
+      <c r="T24" s="301"/>
+      <c r="U24" s="301"/>
+      <c r="V24" s="301"/>
+      <c r="W24" s="301"/>
+      <c r="X24" s="301"/>
       <c r="Y24" s="298"/>
       <c r="Z24" s="298"/>
       <c r="AA24" s="298"/>
@@ -18003,29 +18015,29 @@
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="300"/>
-      <c r="F25" s="300"/>
-      <c r="G25" s="300"/>
-      <c r="H25" s="300"/>
-      <c r="I25" s="300"/>
-      <c r="J25" s="312"/>
-      <c r="K25" s="312"/>
-      <c r="L25" s="312"/>
-      <c r="M25" s="312"/>
-      <c r="N25" s="312"/>
-      <c r="O25" s="312"/>
-      <c r="P25" s="312"/>
-      <c r="Q25" s="312"/>
-      <c r="R25" s="312"/>
-      <c r="S25" s="312"/>
-      <c r="T25" s="312"/>
-      <c r="U25" s="312"/>
-      <c r="V25" s="312"/>
-      <c r="W25" s="312"/>
-      <c r="X25" s="312"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="299"/>
+      <c r="G25" s="299"/>
+      <c r="H25" s="299"/>
+      <c r="I25" s="299"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="301"/>
+      <c r="M25" s="301"/>
+      <c r="N25" s="301"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="301"/>
+      <c r="Q25" s="301"/>
+      <c r="R25" s="301"/>
+      <c r="S25" s="301"/>
+      <c r="T25" s="301"/>
+      <c r="U25" s="301"/>
+      <c r="V25" s="301"/>
+      <c r="W25" s="301"/>
+      <c r="X25" s="301"/>
       <c r="Y25" s="298"/>
       <c r="Z25" s="298"/>
       <c r="AA25" s="298"/>
@@ -18040,12 +18052,71 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="B15:I15"/>
@@ -18062,71 +18133,12 @@
     <mergeCell ref="AC12:AI12"/>
     <mergeCell ref="AC13:AI13"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
